--- a/Obsidian_Core_Machine_Learning_Algorithms_____Source_Code_Which_Is_Useful_For_AGI_Level_1/Probabilistic Machine Learning/Significance_and_Confidence_Calculations_v00.168_MAJOR_RELEASE.xlsx
+++ b/Obsidian_Core_Machine_Learning_Algorithms_____Source_Code_Which_Is_Useful_For_AGI_Level_1/Probabilistic Machine Learning/Significance_and_Confidence_Calculations_v00.168_MAJOR_RELEASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Dropbox\Projects - Personal\Enterprises\Obsidian Oblation\Michael Sinyangwe\Books\3rd Age Of Humanity\The Science of Artificial Intelligence - Part 5 - Probabilistic\Code\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC46563-FF6B-4FBE-BB0B-E570ECD0DD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68073B52-8C87-47BB-8066-C69023B47321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>Scale- Granularised Duplicate Count</t>
   </si>
   <si>
-    <t>Nota Bene 3: The scale-granularised duplicate count column calculates parameter duplicate counts within a previously set parameter granularity percentage range either side of the parameter. This count is then also scaled using the dataset parameter weighting, in order to properly handle dataset scaling. If you are comparing multiple dataset significances, make sure they are derived from the same number of samples. Alternatively, if this is not feasible, or if you want to improve algorithm efficiency, cross-normalise the significances by multiplying each significance value by all other sample counts, and then dividing by that particular dataset's own sample count, and then dividing by the total count of datasets.</t>
-  </si>
-  <si>
     <t>Your code produces the same values as those in the tables above, given the same variable parameters as the input dataset, and the same global variables, because I am correct.</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Parameter (Non-Null)</t>
+  </si>
+  <si>
+    <t>Nota Bene 3: The scale-granularised duplicate count column calculates parameter duplicate counts within a previously set parameter granularity percentage range either side of the parameter. If you are comparing multiple dataset significances, make sure they are derived from the same number of samples. Alternatively, if this is not feasible, or if you want to improve algorithm efficiency, cross-normalise the significances by multiplying each significance value by all other sample counts, and then dividing by that particular dataset's own sample count, and then dividing by the total count of datasets.</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1031,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1038,24 +1047,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,14 +1100,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2934,7 +2934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2961,7 +2963,7 @@
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2975,7 +2977,7 @@
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2983,21 +2985,21 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="91"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -3055,17 +3057,17 @@
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="106" t="s">
+      <c r="B8" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="80" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="105" t="s">
-        <v>58</v>
+      <c r="E8" s="79" t="s">
+        <v>57</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>25</v>
@@ -3073,8 +3075,8 @@
       <c r="G8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="105" t="s">
-        <v>58</v>
+      <c r="H8" s="79" t="s">
+        <v>57</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>25</v>
@@ -3146,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="54">
-        <f>(((SUMIFS(C$9:C$16,B$9:B$16,"&gt;="&amp;($B9-(($B$18-$B$17)*(B$4/100))),B$9:B$16,"&lt;="&amp;($B9+(($B$18-$B$17)*(B$4/100)))))))</f>
+        <f t="shared" ref="D9:D16" si="0">(((SUMIFS(C$9:C$16,B$9:B$16,"&gt;="&amp;($B9-(($B$18-$B$17)*(B$4/100))),B$9:B$16,"&lt;="&amp;($B9+(($B$18-$B$17)*(B$4/100)))))))</f>
         <v>5</v>
       </c>
       <c r="E9" s="18"/>
@@ -3210,7 +3212,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="65">
         <v>-5</v>
@@ -3219,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="24">
-        <f>(((SUMIFS(C$9:C$16,B$9:B$16,"&gt;="&amp;($B10-(($B$18-$B$17)*(B$4/100))),B$9:B$16,"&lt;="&amp;($B10+(($B$18-$B$17)*(B$4/100)))))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E10" s="21"/>
@@ -3283,7 +3285,7 @@
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="65">
         <v>-5</v>
@@ -3292,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="24">
-        <f>(((SUMIFS(C$9:C$16,B$9:B$16,"&gt;="&amp;($B11-(($B$18-$B$17)*(B$4/100))),B$9:B$16,"&lt;="&amp;($B11+(($B$18-$B$17)*(B$4/100)))))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E11" s="21"/>
@@ -3356,7 +3358,7 @@
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="65">
         <v>-3</v>
@@ -3365,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="24">
-        <f>(((SUMIFS(C$9:C$16,B$9:B$16,"&gt;="&amp;($B12-(($B$18-$B$17)*(B$4/100))),B$9:B$16,"&lt;="&amp;($B12+(($B$18-$B$17)*(B$4/100)))))))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E12" s="21"/>
@@ -3429,7 +3431,7 @@
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="65">
         <v>-3</v>
@@ -3438,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="24">
-        <f>(((SUMIFS(C$9:C$16,B$9:B$16,"&gt;="&amp;($B13-(($B$18-$B$17)*(B$4/100))),B$9:B$16,"&lt;="&amp;($B13+(($B$18-$B$17)*(B$4/100)))))))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E13" s="23">
@@ -3508,7 +3510,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="65">
         <v>2</v>
@@ -3517,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="24">
-        <f>(((SUMIFS(C$9:C$16,B$9:B$16,"&gt;="&amp;($B14-(($B$18-$B$17)*(B$4/100))),B$9:B$16,"&lt;="&amp;($B14+(($B$18-$B$17)*(B$4/100)))))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E14" s="23">
@@ -3593,7 +3595,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="65">
         <v>2</v>
@@ -3602,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="24">
-        <f>(((SUMIFS(C$9:C$16,B$9:B$16,"&gt;="&amp;($B15-(($B$18-$B$17)*(B$4/100))),B$9:B$16,"&lt;="&amp;($B15+(($B$18-$B$17)*(B$4/100)))))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E15" s="23">
@@ -3678,7 +3680,7 @@
     </row>
     <row r="16" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="67">
         <v>5</v>
@@ -3687,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="55">
-        <f>(((SUMIFS(C$9:C$16,B$9:B$16,"&gt;="&amp;($B16-(($B$18-$B$17)*(B$4/100))),B$9:B$16,"&lt;="&amp;($B16+(($B$18-$B$17)*(B$4/100)))))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E16" s="26">
@@ -4138,7 +4140,7 @@
     </row>
     <row r="22" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4158,111 +4160,111 @@
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="102"/>
-      <c r="AG24" s="102"/>
-      <c r="AH24" s="102"/>
-      <c r="AI24" s="102"/>
-      <c r="AJ24" s="102"/>
-      <c r="AK24" s="102"/>
-      <c r="AL24" s="102"/>
-      <c r="AM24" s="102"/>
-      <c r="AN24" s="102"/>
-      <c r="AO24" s="102"/>
-      <c r="AP24" s="102"/>
-      <c r="AQ24" s="102"/>
-      <c r="AR24" s="102"/>
-      <c r="AS24" s="102"/>
-      <c r="AT24" s="102"/>
-      <c r="AU24" s="102"/>
-      <c r="AV24" s="102"/>
-      <c r="AW24" s="102"/>
-      <c r="AX24" s="102"/>
-      <c r="AY24" s="102"/>
-      <c r="AZ24" s="102"/>
-      <c r="BA24" s="102"/>
-      <c r="BB24" s="102"/>
-      <c r="BC24" s="102"/>
-      <c r="BD24" s="102"/>
-      <c r="BE24" s="102"/>
-      <c r="BF24" s="102"/>
-      <c r="BG24" s="102"/>
-      <c r="BH24" s="102"/>
-      <c r="BI24" s="102"/>
-      <c r="BJ24" s="102"/>
-      <c r="BK24" s="102"/>
-      <c r="BL24" s="102"/>
-      <c r="BM24" s="102"/>
-      <c r="BN24" s="102"/>
-      <c r="BO24" s="102"/>
-      <c r="BP24" s="102"/>
-      <c r="BQ24" s="102"/>
-      <c r="BR24" s="102"/>
-      <c r="BS24" s="102"/>
-      <c r="BT24" s="102"/>
-      <c r="BU24" s="102"/>
-      <c r="BV24" s="102"/>
-      <c r="BW24" s="102"/>
-      <c r="BX24" s="102"/>
-      <c r="BY24" s="102"/>
-      <c r="BZ24" s="102"/>
-      <c r="CA24" s="102"/>
-      <c r="CB24" s="102"/>
-      <c r="CC24" s="102"/>
-      <c r="CD24" s="102"/>
-      <c r="CE24" s="102"/>
-      <c r="CF24" s="102"/>
-      <c r="CG24" s="102"/>
-      <c r="CH24" s="102"/>
-      <c r="CI24" s="102"/>
-      <c r="CJ24" s="102"/>
-      <c r="CK24" s="102"/>
-      <c r="CL24" s="102"/>
-      <c r="CM24" s="102"/>
-      <c r="CN24" s="102"/>
-      <c r="CO24" s="102"/>
-      <c r="CP24" s="102"/>
-      <c r="CQ24" s="102"/>
-      <c r="CR24" s="102"/>
-      <c r="CS24" s="102"/>
-      <c r="CT24" s="102"/>
-      <c r="CU24" s="102"/>
-      <c r="CV24" s="102"/>
-      <c r="CW24" s="102"/>
-      <c r="CX24" s="102"/>
-      <c r="CY24" s="102"/>
-      <c r="CZ24" s="103"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="99"/>
+      <c r="AP24" s="99"/>
+      <c r="AQ24" s="99"/>
+      <c r="AR24" s="99"/>
+      <c r="AS24" s="99"/>
+      <c r="AT24" s="99"/>
+      <c r="AU24" s="99"/>
+      <c r="AV24" s="99"/>
+      <c r="AW24" s="99"/>
+      <c r="AX24" s="99"/>
+      <c r="AY24" s="99"/>
+      <c r="AZ24" s="99"/>
+      <c r="BA24" s="99"/>
+      <c r="BB24" s="99"/>
+      <c r="BC24" s="99"/>
+      <c r="BD24" s="99"/>
+      <c r="BE24" s="99"/>
+      <c r="BF24" s="99"/>
+      <c r="BG24" s="99"/>
+      <c r="BH24" s="99"/>
+      <c r="BI24" s="99"/>
+      <c r="BJ24" s="99"/>
+      <c r="BK24" s="99"/>
+      <c r="BL24" s="99"/>
+      <c r="BM24" s="99"/>
+      <c r="BN24" s="99"/>
+      <c r="BO24" s="99"/>
+      <c r="BP24" s="99"/>
+      <c r="BQ24" s="99"/>
+      <c r="BR24" s="99"/>
+      <c r="BS24" s="99"/>
+      <c r="BT24" s="99"/>
+      <c r="BU24" s="99"/>
+      <c r="BV24" s="99"/>
+      <c r="BW24" s="99"/>
+      <c r="BX24" s="99"/>
+      <c r="BY24" s="99"/>
+      <c r="BZ24" s="99"/>
+      <c r="CA24" s="99"/>
+      <c r="CB24" s="99"/>
+      <c r="CC24" s="99"/>
+      <c r="CD24" s="99"/>
+      <c r="CE24" s="99"/>
+      <c r="CF24" s="99"/>
+      <c r="CG24" s="99"/>
+      <c r="CH24" s="99"/>
+      <c r="CI24" s="99"/>
+      <c r="CJ24" s="99"/>
+      <c r="CK24" s="99"/>
+      <c r="CL24" s="99"/>
+      <c r="CM24" s="99"/>
+      <c r="CN24" s="99"/>
+      <c r="CO24" s="99"/>
+      <c r="CP24" s="99"/>
+      <c r="CQ24" s="99"/>
+      <c r="CR24" s="99"/>
+      <c r="CS24" s="99"/>
+      <c r="CT24" s="99"/>
+      <c r="CU24" s="99"/>
+      <c r="CV24" s="99"/>
+      <c r="CW24" s="99"/>
+      <c r="CX24" s="99"/>
+      <c r="CY24" s="99"/>
+      <c r="CZ24" s="100"/>
     </row>
     <row r="25" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="68" t="s">
@@ -4583,415 +4585,415 @@
         <v>13</v>
       </c>
       <c r="B26" s="74" t="str">
-        <f>(IF(B$25&gt;$B$18,"OOR",IF(B$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;B$25))))))</f>
+        <f t="shared" ref="B26:AG26" si="1">(IF(B$25&gt;$B$18,"OOR",IF(B$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;B$25))))))</f>
         <v>OOR</v>
       </c>
       <c r="C26" s="75">
-        <f>(IF(C$25&gt;$B$18,"OOR",IF(C$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;C$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="D26" s="75">
-        <f>(IF(D$25&gt;$B$18,"OOR",IF(D$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;D$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="E26" s="75">
-        <f>(IF(E$25&gt;$B$18,"OOR",IF(E$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;E$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="F26" s="75">
-        <f>(IF(F$25&gt;$B$18,"OOR",IF(F$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;F$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="G26" s="75">
-        <f>(IF(G$25&gt;$B$18,"OOR",IF(G$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;G$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="H26" s="75">
-        <f>(IF(H$25&gt;$B$18,"OOR",IF(H$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;H$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="I26" s="75">
-        <f>(IF(I$25&gt;$B$18,"OOR",IF(I$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;I$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="J26" s="75">
-        <f>(IF(J$25&gt;$B$18,"OOR",IF(J$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;J$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="K26" s="75">
-        <f>(IF(K$25&gt;$B$18,"OOR",IF(K$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;K$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="L26" s="75">
-        <f>(IF(L$25&gt;$B$18,"OOR",IF(L$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;L$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="M26" s="75">
-        <f>(IF(M$25&gt;$B$18,"OOR",IF(M$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;M$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="N26" s="75">
-        <f>(IF(N$25&gt;$B$18,"OOR",IF(N$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;N$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="O26" s="75">
-        <f>(IF(O$25&gt;$B$18,"OOR",IF(O$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;O$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="P26" s="75">
-        <f>(IF(P$25&gt;$B$18,"OOR",IF(P$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;P$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="Q26" s="75">
-        <f>(IF(Q$25&gt;$B$18,"OOR",IF(Q$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;Q$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="R26" s="75">
-        <f>(IF(R$25&gt;$B$18,"OOR",IF(R$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;R$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="S26" s="75">
-        <f>(IF(S$25&gt;$B$18,"OOR",IF(S$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;S$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="T26" s="75">
-        <f>(IF(T$25&gt;$B$18,"OOR",IF(T$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;T$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="U26" s="75">
-        <f>(IF(U$25&gt;$B$18,"OOR",IF(U$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;U$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="V26" s="75">
-        <f>(IF(V$25&gt;$B$18,"OOR",IF(V$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;V$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="W26" s="75">
-        <f>(IF(W$25&gt;$B$18,"OOR",IF(W$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;W$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="X26" s="75">
-        <f>(IF(X$25&gt;$B$18,"OOR",IF(X$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;X$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="Y26" s="75">
-        <f>(IF(Y$25&gt;$B$18,"OOR",IF(Y$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;Y$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="Z26" s="75">
-        <f>(IF(Z$25&gt;$B$18,"OOR",IF(Z$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;Z$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="AA26" s="75">
-        <f>(IF(AA$25&gt;$B$18,"OOR",IF(AA$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AA$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="AB26" s="75">
-        <f>(IF(AB$25&gt;$B$18,"OOR",IF(AB$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AB$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="AC26" s="75">
-        <f>(IF(AC$25&gt;$B$18,"OOR",IF(AC$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AC$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="AD26" s="75">
-        <f>(IF(AD$25&gt;$B$18,"OOR",IF(AD$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AD$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="AE26" s="75">
-        <f>(IF(AE$25&gt;$B$18,"OOR",IF(AE$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AE$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="AF26" s="75">
-        <f>(IF(AF$25&gt;$B$18,"OOR",IF(AF$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AF$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="AG26" s="75">
-        <f>(IF(AG$25&gt;$B$18,"OOR",IF(AG$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AG$25))))))</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="AH26" s="75">
-        <f>(IF(AH$25&gt;$B$18,"OOR",IF(AH$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AH$25))))))</f>
+        <f t="shared" ref="AH26:BM26" si="2">(IF(AH$25&gt;$B$18,"OOR",IF(AH$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AH$25))))))</f>
         <v>-3</v>
       </c>
       <c r="AI26" s="75">
-        <f>(IF(AI$25&gt;$B$18,"OOR",IF(AI$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AI$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AJ26" s="75">
-        <f>(IF(AJ$25&gt;$B$18,"OOR",IF(AJ$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AJ$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AK26" s="75">
-        <f>(IF(AK$25&gt;$B$18,"OOR",IF(AK$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AK$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AL26" s="75">
-        <f>(IF(AL$25&gt;$B$18,"OOR",IF(AL$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AL$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AM26" s="75">
-        <f>(IF(AM$25&gt;$B$18,"OOR",IF(AM$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AM$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AN26" s="75">
-        <f>(IF(AN$25&gt;$B$18,"OOR",IF(AN$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AN$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AO26" s="75">
-        <f>(IF(AO$25&gt;$B$18,"OOR",IF(AO$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AO$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AP26" s="75">
-        <f>(IF(AP$25&gt;$B$18,"OOR",IF(AP$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AP$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AQ26" s="75">
-        <f>(IF(AQ$25&gt;$B$18,"OOR",IF(AQ$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AQ$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AR26" s="75">
-        <f>(IF(AR$25&gt;$B$18,"OOR",IF(AR$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AR$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AS26" s="75">
-        <f>(IF(AS$25&gt;$B$18,"OOR",IF(AS$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AS$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AT26" s="75">
-        <f>(IF(AT$25&gt;$B$18,"OOR",IF(AT$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AT$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AU26" s="75">
-        <f>(IF(AU$25&gt;$B$18,"OOR",IF(AU$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AU$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AV26" s="75">
-        <f>(IF(AV$25&gt;$B$18,"OOR",IF(AV$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AV$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AW26" s="75">
-        <f>(IF(AW$25&gt;$B$18,"OOR",IF(AW$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AW$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AX26" s="75">
-        <f>(IF(AX$25&gt;$B$18,"OOR",IF(AX$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AX$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AY26" s="75">
-        <f>(IF(AY$25&gt;$B$18,"OOR",IF(AY$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AY$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="AZ26" s="75">
-        <f>(IF(AZ$25&gt;$B$18,"OOR",IF(AZ$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;AZ$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BA26" s="75">
-        <f>(IF(BA$25&gt;$B$18,"OOR",IF(BA$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BA$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BB26" s="75">
-        <f>(IF(BB$25&gt;$B$18,"OOR",IF(BB$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BB$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BC26" s="75">
-        <f>(IF(BC$25&gt;$B$18,"OOR",IF(BC$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BC$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BD26" s="75">
-        <f>(IF(BD$25&gt;$B$18,"OOR",IF(BD$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BD$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BE26" s="75">
-        <f>(IF(BE$25&gt;$B$18,"OOR",IF(BE$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BE$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BF26" s="75">
-        <f>(IF(BF$25&gt;$B$18,"OOR",IF(BF$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BF$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BG26" s="75">
-        <f>(IF(BG$25&gt;$B$18,"OOR",IF(BG$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BG$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BH26" s="75">
-        <f>(IF(BH$25&gt;$B$18,"OOR",IF(BH$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BH$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BI26" s="75">
-        <f>(IF(BI$25&gt;$B$18,"OOR",IF(BI$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BI$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BJ26" s="75">
-        <f>(IF(BJ$25&gt;$B$18,"OOR",IF(BJ$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BJ$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BK26" s="75">
-        <f>(IF(BK$25&gt;$B$18,"OOR",IF(BK$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BK$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BL26" s="75">
-        <f>(IF(BL$25&gt;$B$18,"OOR",IF(BL$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BL$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BM26" s="75">
-        <f>(IF(BM$25&gt;$B$18,"OOR",IF(BM$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BM$25))))))</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="BN26" s="75">
-        <f>(IF(BN$25&gt;$B$18,"OOR",IF(BN$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BN$25))))))</f>
+        <f t="shared" ref="BN26:CS26" si="3">(IF(BN$25&gt;$B$18,"OOR",IF(BN$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BN$25))))))</f>
         <v>-3</v>
       </c>
       <c r="BO26" s="75">
-        <f>(IF(BO$25&gt;$B$18,"OOR",IF(BO$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BO$25))))))</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="BP26" s="75">
-        <f>(IF(BP$25&gt;$B$18,"OOR",IF(BP$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BP$25))))))</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="BQ26" s="75">
-        <f>(IF(BQ$25&gt;$B$18,"OOR",IF(BQ$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BQ$25))))))</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="BR26" s="75">
-        <f>(IF(BR$25&gt;$B$18,"OOR",IF(BR$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BR$25))))))</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="BS26" s="75">
-        <f>(IF(BS$25&gt;$B$18,"OOR",IF(BS$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BS$25))))))</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="BT26" s="75">
-        <f>(IF(BT$25&gt;$B$18,"OOR",IF(BT$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BT$25))))))</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="BU26" s="75">
-        <f>(IF(BU$25&gt;$B$18,"OOR",IF(BU$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BU$25))))))</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="BV26" s="75">
-        <f>(IF(BV$25&gt;$B$18,"OOR",IF(BV$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BV$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BW26" s="75">
-        <f>(IF(BW$25&gt;$B$18,"OOR",IF(BW$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BW$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BX26" s="75">
-        <f>(IF(BX$25&gt;$B$18,"OOR",IF(BX$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BX$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BY26" s="75">
-        <f>(IF(BY$25&gt;$B$18,"OOR",IF(BY$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BY$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BZ26" s="75">
-        <f>(IF(BZ$25&gt;$B$18,"OOR",IF(BZ$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;BZ$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CA26" s="75">
-        <f>(IF(CA$25&gt;$B$18,"OOR",IF(CA$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CA$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CB26" s="75">
-        <f>(IF(CB$25&gt;$B$18,"OOR",IF(CB$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CB$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CC26" s="75">
-        <f>(IF(CC$25&gt;$B$18,"OOR",IF(CC$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CC$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CD26" s="75">
-        <f>(IF(CD$25&gt;$B$18,"OOR",IF(CD$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CD$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CE26" s="75">
-        <f>(IF(CE$25&gt;$B$18,"OOR",IF(CE$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CE$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CF26" s="75">
-        <f>(IF(CF$25&gt;$B$18,"OOR",IF(CF$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CF$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CG26" s="75">
-        <f>(IF(CG$25&gt;$B$18,"OOR",IF(CG$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CG$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CH26" s="75">
-        <f>(IF(CH$25&gt;$B$18,"OOR",IF(CH$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CH$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CI26" s="75">
-        <f>(IF(CI$25&gt;$B$18,"OOR",IF(CI$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CI$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CJ26" s="75">
-        <f>(IF(CJ$25&gt;$B$18,"OOR",IF(CJ$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CJ$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CK26" s="75">
-        <f>(IF(CK$25&gt;$B$18,"OOR",IF(CK$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CK$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CL26" s="75">
-        <f>(IF(CL$25&gt;$B$18,"OOR",IF(CL$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CL$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CM26" s="75">
-        <f>(IF(CM$25&gt;$B$18,"OOR",IF(CM$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CM$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CN26" s="75">
-        <f>(IF(CN$25&gt;$B$18,"OOR",IF(CN$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CN$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CO26" s="75">
-        <f>(IF(CO$25&gt;$B$18,"OOR",IF(CO$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CO$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CP26" s="75">
-        <f>(IF(CP$25&gt;$B$18,"OOR",IF(CP$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CP$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CQ26" s="75">
-        <f>(IF(CQ$25&gt;$B$18,"OOR",IF(CQ$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CQ$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CR26" s="75">
-        <f>(IF(CR$25&gt;$B$18,"OOR",IF(CR$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CR$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CS26" s="75">
-        <f>(IF(CS$25&gt;$B$18,"OOR",IF(CS$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CS$25))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CT26" s="75">
-        <f>(IF(CT$25&gt;$B$18,"OOR",IF(CT$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CT$25))))))</f>
+        <f t="shared" ref="CT26:CZ26" si="4">(IF(CT$25&gt;$B$18,"OOR",IF(CT$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CT$25))))))</f>
         <v>2</v>
       </c>
       <c r="CU26" s="75">
-        <f>(IF(CU$25&gt;$B$18,"OOR",IF(CU$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CU$25))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CV26" s="75">
-        <f>(IF(CV$25&gt;$B$18,"OOR",IF(CV$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CV$25))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CW26" s="75">
-        <f>(IF(CW$25&gt;$B$18,"OOR",IF(CW$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CW$25))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CX26" s="75">
-        <f>(IF(CX$25&gt;$B$18,"OOR",IF(CX$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CX$25))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CY26" s="75">
-        <f>(IF(CY$25&gt;$B$18,"OOR",IF(CY$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CY$25))))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CZ26" s="76" t="str">
-        <f>(IF(CZ$25&gt;$B$18,"OOR",IF(CZ$25&lt;$B$17,"OOR",SMALL($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&gt;"&amp;CZ$25))))))</f>
+        <f t="shared" si="4"/>
         <v>OOR</v>
       </c>
     </row>
@@ -5000,415 +5002,415 @@
         <v>12</v>
       </c>
       <c r="B27" s="15" t="str">
-        <f>(IF(B$25&gt;$B$18,"OOR",IF(B$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;B$25))))))</f>
+        <f t="shared" ref="B27:AG27" si="5">(IF(B$25&gt;$B$18,"OOR",IF(B$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;B$25))))))</f>
         <v>OOR</v>
       </c>
       <c r="C27" s="41">
-        <f>(IF(C$25&gt;$B$18,"OOR",IF(C$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;C$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="D27" s="41">
-        <f>(IF(D$25&gt;$B$18,"OOR",IF(D$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;D$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="E27" s="41">
-        <f>(IF(E$25&gt;$B$18,"OOR",IF(E$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;E$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="F27" s="41">
-        <f>(IF(F$25&gt;$B$18,"OOR",IF(F$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;F$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="G27" s="41">
-        <f>(IF(G$25&gt;$B$18,"OOR",IF(G$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;G$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="H27" s="41">
-        <f>(IF(H$25&gt;$B$18,"OOR",IF(H$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;H$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="I27" s="41">
-        <f>(IF(I$25&gt;$B$18,"OOR",IF(I$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;I$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="J27" s="41">
-        <f>(IF(J$25&gt;$B$18,"OOR",IF(J$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;J$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="K27" s="41">
-        <f>(IF(K$25&gt;$B$18,"OOR",IF(K$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;K$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="L27" s="41">
-        <f>(IF(L$25&gt;$B$18,"OOR",IF(L$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;L$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="M27" s="41">
-        <f>(IF(M$25&gt;$B$18,"OOR",IF(M$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;M$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="N27" s="41">
-        <f>(IF(N$25&gt;$B$18,"OOR",IF(N$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;N$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="O27" s="41">
-        <f>(IF(O$25&gt;$B$18,"OOR",IF(O$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;O$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="P27" s="41">
-        <f>(IF(P$25&gt;$B$18,"OOR",IF(P$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;P$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="Q27" s="41">
-        <f>(IF(Q$25&gt;$B$18,"OOR",IF(Q$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;Q$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="R27" s="41">
-        <f>(IF(R$25&gt;$B$18,"OOR",IF(R$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;R$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="S27" s="41">
-        <f>(IF(S$25&gt;$B$18,"OOR",IF(S$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;S$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="T27" s="41">
-        <f>(IF(T$25&gt;$B$18,"OOR",IF(T$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;T$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="U27" s="41">
-        <f>(IF(U$25&gt;$B$18,"OOR",IF(U$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;U$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="V27" s="41">
-        <f>(IF(V$25&gt;$B$18,"OOR",IF(V$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;V$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="W27" s="41">
-        <f>(IF(W$25&gt;$B$18,"OOR",IF(W$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;W$25))))))</f>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="X27" s="41">
-        <f>(IF(X$25&gt;$B$18,"OOR",IF(X$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;X$25))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Y27" s="41">
-        <f>(IF(Y$25&gt;$B$18,"OOR",IF(Y$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;Y$25))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Z27" s="41">
-        <f>(IF(Z$25&gt;$B$18,"OOR",IF(Z$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;Z$25))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AA27" s="41">
-        <f>(IF(AA$25&gt;$B$18,"OOR",IF(AA$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AA$25))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB27" s="41">
-        <f>(IF(AB$25&gt;$B$18,"OOR",IF(AB$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AB$25))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AC27" s="41">
-        <f>(IF(AC$25&gt;$B$18,"OOR",IF(AC$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AC$25))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AD27" s="41">
-        <f>(IF(AD$25&gt;$B$18,"OOR",IF(AD$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AD$25))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE27" s="41">
-        <f>(IF(AE$25&gt;$B$18,"OOR",IF(AE$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AE$25))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF27" s="41">
-        <f>(IF(AF$25&gt;$B$18,"OOR",IF(AF$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AF$25))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AG27" s="41">
-        <f>(IF(AG$25&gt;$B$18,"OOR",IF(AG$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AG$25))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AH27" s="41">
-        <f>(IF(AH$25&gt;$B$18,"OOR",IF(AH$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AH$25))))))</f>
+        <f t="shared" ref="AH27:BM27" si="6">(IF(AH$25&gt;$B$18,"OOR",IF(AH$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AH$25))))))</f>
         <v>2</v>
       </c>
       <c r="AI27" s="41">
-        <f>(IF(AI$25&gt;$B$18,"OOR",IF(AI$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AI$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AJ27" s="41">
-        <f>(IF(AJ$25&gt;$B$18,"OOR",IF(AJ$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AJ$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AK27" s="41">
-        <f>(IF(AK$25&gt;$B$18,"OOR",IF(AK$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AK$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AL27" s="41">
-        <f>(IF(AL$25&gt;$B$18,"OOR",IF(AL$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AL$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AM27" s="41">
-        <f>(IF(AM$25&gt;$B$18,"OOR",IF(AM$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AM$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AN27" s="41">
-        <f>(IF(AN$25&gt;$B$18,"OOR",IF(AN$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AN$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AO27" s="41">
-        <f>(IF(AO$25&gt;$B$18,"OOR",IF(AO$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AO$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AP27" s="41">
-        <f>(IF(AP$25&gt;$B$18,"OOR",IF(AP$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AP$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AQ27" s="41">
-        <f>(IF(AQ$25&gt;$B$18,"OOR",IF(AQ$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AQ$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AR27" s="41">
-        <f>(IF(AR$25&gt;$B$18,"OOR",IF(AR$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AR$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AS27" s="41">
-        <f>(IF(AS$25&gt;$B$18,"OOR",IF(AS$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AS$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AT27" s="41">
-        <f>(IF(AT$25&gt;$B$18,"OOR",IF(AT$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AT$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AU27" s="41">
-        <f>(IF(AU$25&gt;$B$18,"OOR",IF(AU$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AU$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AV27" s="41">
-        <f>(IF(AV$25&gt;$B$18,"OOR",IF(AV$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AV$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AW27" s="41">
-        <f>(IF(AW$25&gt;$B$18,"OOR",IF(AW$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AW$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AX27" s="41">
-        <f>(IF(AX$25&gt;$B$18,"OOR",IF(AX$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AX$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AY27" s="41">
-        <f>(IF(AY$25&gt;$B$18,"OOR",IF(AY$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AY$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AZ27" s="41">
-        <f>(IF(AZ$25&gt;$B$18,"OOR",IF(AZ$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;AZ$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BA27" s="41">
-        <f>(IF(BA$25&gt;$B$18,"OOR",IF(BA$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BA$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BB27" s="41">
-        <f>(IF(BB$25&gt;$B$18,"OOR",IF(BB$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BB$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BC27" s="41">
-        <f>(IF(BC$25&gt;$B$18,"OOR",IF(BC$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BC$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BD27" s="41">
-        <f>(IF(BD$25&gt;$B$18,"OOR",IF(BD$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BD$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BE27" s="41">
-        <f>(IF(BE$25&gt;$B$18,"OOR",IF(BE$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BE$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BF27" s="41">
-        <f>(IF(BF$25&gt;$B$18,"OOR",IF(BF$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BF$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BG27" s="41">
-        <f>(IF(BG$25&gt;$B$18,"OOR",IF(BG$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BG$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BH27" s="41">
-        <f>(IF(BH$25&gt;$B$18,"OOR",IF(BH$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BH$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BI27" s="41">
-        <f>(IF(BI$25&gt;$B$18,"OOR",IF(BI$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BI$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BJ27" s="41">
-        <f>(IF(BJ$25&gt;$B$18,"OOR",IF(BJ$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BJ$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BK27" s="41">
-        <f>(IF(BK$25&gt;$B$18,"OOR",IF(BK$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BK$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BL27" s="41">
-        <f>(IF(BL$25&gt;$B$18,"OOR",IF(BL$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BL$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BM27" s="41">
-        <f>(IF(BM$25&gt;$B$18,"OOR",IF(BM$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BM$25))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BN27" s="41">
-        <f>(IF(BN$25&gt;$B$18,"OOR",IF(BN$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BN$25))))))</f>
+        <f t="shared" ref="BN27:CS27" si="7">(IF(BN$25&gt;$B$18,"OOR",IF(BN$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BN$25))))))</f>
         <v>2</v>
       </c>
       <c r="BO27" s="41">
-        <f>(IF(BO$25&gt;$B$18,"OOR",IF(BO$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BO$25))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BP27" s="41">
-        <f>(IF(BP$25&gt;$B$18,"OOR",IF(BP$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BP$25))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BQ27" s="41">
-        <f>(IF(BQ$25&gt;$B$18,"OOR",IF(BQ$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BQ$25))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BR27" s="41">
-        <f>(IF(BR$25&gt;$B$18,"OOR",IF(BR$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BR$25))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BS27" s="41">
-        <f>(IF(BS$25&gt;$B$18,"OOR",IF(BS$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BS$25))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BT27" s="41">
-        <f>(IF(BT$25&gt;$B$18,"OOR",IF(BT$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BT$25))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BU27" s="41">
-        <f>(IF(BU$25&gt;$B$18,"OOR",IF(BU$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BU$25))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BV27" s="41">
-        <f>(IF(BV$25&gt;$B$18,"OOR",IF(BV$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BV$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="BW27" s="41">
-        <f>(IF(BW$25&gt;$B$18,"OOR",IF(BW$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BW$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="BX27" s="41">
-        <f>(IF(BX$25&gt;$B$18,"OOR",IF(BX$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BX$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="BY27" s="41">
-        <f>(IF(BY$25&gt;$B$18,"OOR",IF(BY$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BY$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="BZ27" s="41">
-        <f>(IF(BZ$25&gt;$B$18,"OOR",IF(BZ$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;BZ$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CA27" s="41">
-        <f>(IF(CA$25&gt;$B$18,"OOR",IF(CA$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CA$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CB27" s="41">
-        <f>(IF(CB$25&gt;$B$18,"OOR",IF(CB$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CB$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CC27" s="41">
-        <f>(IF(CC$25&gt;$B$18,"OOR",IF(CC$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CC$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CD27" s="41">
-        <f>(IF(CD$25&gt;$B$18,"OOR",IF(CD$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CD$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CE27" s="41">
-        <f>(IF(CE$25&gt;$B$18,"OOR",IF(CE$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CE$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CF27" s="41">
-        <f>(IF(CF$25&gt;$B$18,"OOR",IF(CF$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CF$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CG27" s="41">
-        <f>(IF(CG$25&gt;$B$18,"OOR",IF(CG$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CG$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CH27" s="41">
-        <f>(IF(CH$25&gt;$B$18,"OOR",IF(CH$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CH$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CI27" s="41">
-        <f>(IF(CI$25&gt;$B$18,"OOR",IF(CI$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CI$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CJ27" s="41">
-        <f>(IF(CJ$25&gt;$B$18,"OOR",IF(CJ$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CJ$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CK27" s="41">
-        <f>(IF(CK$25&gt;$B$18,"OOR",IF(CK$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CK$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CL27" s="41">
-        <f>(IF(CL$25&gt;$B$18,"OOR",IF(CL$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CL$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CM27" s="41">
-        <f>(IF(CM$25&gt;$B$18,"OOR",IF(CM$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CM$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CN27" s="41">
-        <f>(IF(CN$25&gt;$B$18,"OOR",IF(CN$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CN$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CO27" s="41">
-        <f>(IF(CO$25&gt;$B$18,"OOR",IF(CO$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CO$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CP27" s="41">
-        <f>(IF(CP$25&gt;$B$18,"OOR",IF(CP$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CP$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CQ27" s="41">
-        <f>(IF(CQ$25&gt;$B$18,"OOR",IF(CQ$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CQ$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CR27" s="41">
-        <f>(IF(CR$25&gt;$B$18,"OOR",IF(CR$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CR$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CS27" s="41">
-        <f>(IF(CS$25&gt;$B$18,"OOR",IF(CS$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CS$25))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="CT27" s="41">
-        <f>(IF(CT$25&gt;$B$18,"OOR",IF(CT$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CT$25))))))</f>
+        <f t="shared" ref="CT27:CZ27" si="8">(IF(CT$25&gt;$B$18,"OOR",IF(CT$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CT$25))))))</f>
         <v>5</v>
       </c>
       <c r="CU27" s="41">
-        <f>(IF(CU$25&gt;$B$18,"OOR",IF(CU$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CU$25))))))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="CV27" s="41">
-        <f>(IF(CV$25&gt;$B$18,"OOR",IF(CV$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CV$25))))))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="CW27" s="41">
-        <f>(IF(CW$25&gt;$B$18,"OOR",IF(CW$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CW$25))))))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="CX27" s="41">
-        <f>(IF(CX$25&gt;$B$18,"OOR",IF(CX$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CX$25))))))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="CY27" s="41">
-        <f>(IF(CY$25&gt;$B$18,"OOR",IF(CY$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CY$25))))))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="CZ27" s="42" t="str">
-        <f>(IF(CZ$25&gt;$B$18,"OOR",IF(CZ$25&lt;$B$17,"OOR",LARGE($B$9:$B$16,(SUM($C$9:$C$16)-COUNTIF($B$9:$B$16,"&lt;"&amp;CZ$25))))))</f>
+        <f t="shared" si="8"/>
         <v>OOR</v>
       </c>
     </row>
@@ -5417,415 +5419,415 @@
         <v>15</v>
       </c>
       <c r="B28" s="15">
-        <f>(SQRT((IF(B$25&gt;$B$18,0,IF(B$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(B$26),(VLOOKUP(B$26,$B$9:$D$16,3,FALSE)*IF(B$27=B$26,1,((B$25-B$26)/(B$27-B$26)))),0))^2)))</f>
+        <f t="shared" ref="B28:AG28" si="9">(SQRT((IF(B$25&gt;$B$18,0,IF(B$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(B$26),(VLOOKUP(B$26,$B$9:$D$16,3,FALSE)*IF(B$27=B$26,1,((B$25-B$26)/(B$27-B$26)))),0))^2)))</f>
         <v>0</v>
       </c>
       <c r="C28" s="41">
-        <f>(SQRT((IF(C$25&gt;$B$18,0,IF(C$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(C$26),(VLOOKUP(C$26,$B$9:$D$16,3,FALSE)*IF(C$27=C$26,1,((C$25-C$26)/(C$27-C$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>17.677669529663689</v>
       </c>
       <c r="D28" s="41">
-        <f>(SQRT((IF(D$25&gt;$B$18,0,IF(D$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(D$26),(VLOOKUP(D$26,$B$9:$D$16,3,FALSE)*IF(D$27=D$26,1,((D$25-D$26)/(D$27-D$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>0.88388347648318122</v>
       </c>
       <c r="E28" s="41">
-        <f>(SQRT((IF(E$25&gt;$B$18,0,IF(E$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(E$26),(VLOOKUP(E$26,$B$9:$D$16,3,FALSE)*IF(E$27=E$26,1,((E$25-E$26)/(E$27-E$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>1.7677669529663702</v>
       </c>
       <c r="F28" s="41">
-        <f>(SQRT((IF(F$25&gt;$B$18,0,IF(F$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(F$26),(VLOOKUP(F$26,$B$9:$D$16,3,FALSE)*IF(F$27=F$26,1,((F$25-F$26)/(F$27-F$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>2.6516504294495515</v>
       </c>
       <c r="G28" s="41">
-        <f>(SQRT((IF(G$25&gt;$B$18,0,IF(G$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(G$26),(VLOOKUP(G$26,$B$9:$D$16,3,FALSE)*IF(G$27=G$26,1,((G$25-G$26)/(G$27-G$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>3.5355339059327404</v>
       </c>
       <c r="H28" s="41">
-        <f>(SQRT((IF(H$25&gt;$B$18,0,IF(H$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(H$26),(VLOOKUP(H$26,$B$9:$D$16,3,FALSE)*IF(H$27=H$26,1,((H$25-H$26)/(H$27-H$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>4.4194173824159222</v>
       </c>
       <c r="I28" s="41">
-        <f>(SQRT((IF(I$25&gt;$B$18,0,IF(I$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(I$26),(VLOOKUP(I$26,$B$9:$D$16,3,FALSE)*IF(I$27=I$26,1,((I$25-I$26)/(I$27-I$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>5.3033008588991031</v>
       </c>
       <c r="J28" s="41">
-        <f>(SQRT((IF(J$25&gt;$B$18,0,IF(J$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(J$26),(VLOOKUP(J$26,$B$9:$D$16,3,FALSE)*IF(J$27=J$26,1,((J$25-J$26)/(J$27-J$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>6.1871843353822928</v>
       </c>
       <c r="K28" s="41">
-        <f>(SQRT((IF(K$25&gt;$B$18,0,IF(K$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(K$26),(VLOOKUP(K$26,$B$9:$D$16,3,FALSE)*IF(K$27=K$26,1,((K$25-K$26)/(K$27-K$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>7.0710678118654737</v>
       </c>
       <c r="L28" s="41">
-        <f>(SQRT((IF(L$25&gt;$B$18,0,IF(L$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(L$26),(VLOOKUP(L$26,$B$9:$D$16,3,FALSE)*IF(L$27=L$26,1,((L$25-L$26)/(L$27-L$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>7.9549512883486626</v>
       </c>
       <c r="M28" s="41">
-        <f>(SQRT((IF(M$25&gt;$B$18,0,IF(M$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(M$26),(VLOOKUP(M$26,$B$9:$D$16,3,FALSE)*IF(M$27=M$26,1,((M$25-M$26)/(M$27-M$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>8.8388347648318444</v>
       </c>
       <c r="N28" s="41">
-        <f>(SQRT((IF(N$25&gt;$B$18,0,IF(N$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(N$26),(VLOOKUP(N$26,$B$9:$D$16,3,FALSE)*IF(N$27=N$26,1,((N$25-N$26)/(N$27-N$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>9.7227182413150288</v>
       </c>
       <c r="O28" s="41">
-        <f>(SQRT((IF(O$25&gt;$B$18,0,IF(O$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(O$26),(VLOOKUP(O$26,$B$9:$D$16,3,FALSE)*IF(O$27=O$26,1,((O$25-O$26)/(O$27-O$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>10.606601717798215</v>
       </c>
       <c r="P28" s="41">
-        <f>(SQRT((IF(P$25&gt;$B$18,0,IF(P$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(P$26),(VLOOKUP(P$26,$B$9:$D$16,3,FALSE)*IF(P$27=P$26,1,((P$25-P$26)/(P$27-P$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>11.490485194281394</v>
       </c>
       <c r="Q28" s="41">
-        <f>(SQRT((IF(Q$25&gt;$B$18,0,IF(Q$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Q$26),(VLOOKUP(Q$26,$B$9:$D$16,3,FALSE)*IF(Q$27=Q$26,1,((Q$25-Q$26)/(Q$27-Q$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>12.374368670764582</v>
       </c>
       <c r="R28" s="41">
-        <f>(SQRT((IF(R$25&gt;$B$18,0,IF(R$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(R$26),(VLOOKUP(R$26,$B$9:$D$16,3,FALSE)*IF(R$27=R$26,1,((R$25-R$26)/(R$27-R$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>13.258252147247674</v>
       </c>
       <c r="S28" s="41">
-        <f>(SQRT((IF(S$25&gt;$B$18,0,IF(S$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(S$26),(VLOOKUP(S$26,$B$9:$D$16,3,FALSE)*IF(S$27=S$26,1,((S$25-S$26)/(S$27-S$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>14.14213562373086</v>
       </c>
       <c r="T28" s="41">
-        <f>(SQRT((IF(T$25&gt;$B$18,0,IF(T$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(T$26),(VLOOKUP(T$26,$B$9:$D$16,3,FALSE)*IF(T$27=T$26,1,((T$25-T$26)/(T$27-T$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>15.026019100214047</v>
       </c>
       <c r="U28" s="41">
-        <f>(SQRT((IF(U$25&gt;$B$18,0,IF(U$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(U$26),(VLOOKUP(U$26,$B$9:$D$16,3,FALSE)*IF(U$27=U$26,1,((U$25-U$26)/(U$27-U$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>15.909902576697231</v>
       </c>
       <c r="V28" s="41">
-        <f>(SQRT((IF(V$25&gt;$B$18,0,IF(V$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(V$26),(VLOOKUP(V$26,$B$9:$D$16,3,FALSE)*IF(V$27=V$26,1,((V$25-V$26)/(V$27-V$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>16.793786053180416</v>
       </c>
       <c r="W28" s="41">
-        <f>(SQRT((IF(W$25&gt;$B$18,0,IF(W$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(W$26),(VLOOKUP(W$26,$B$9:$D$16,3,FALSE)*IF(W$27=W$26,1,((W$25-W$26)/(W$27-W$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>17.677669529663596</v>
       </c>
       <c r="X28" s="41">
-        <f>(SQRT((IF(X$25&gt;$B$18,0,IF(X$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(X$26),(VLOOKUP(X$26,$B$9:$D$16,3,FALSE)*IF(X$27=X$26,1,((X$25-X$26)/(X$27-X$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>0.49497474683053316</v>
       </c>
       <c r="Y28" s="41">
-        <f>(SQRT((IF(Y$25&gt;$B$18,0,IF(Y$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Y$26),(VLOOKUP(Y$26,$B$9:$D$16,3,FALSE)*IF(Y$27=Y$26,1,((Y$25-Y$26)/(Y$27-Y$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>0.98994949366111706</v>
       </c>
       <c r="Z28" s="41">
-        <f>(SQRT((IF(Z$25&gt;$B$18,0,IF(Z$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Z$26),(VLOOKUP(Z$26,$B$9:$D$16,3,FALSE)*IF(Z$27=Z$26,1,((Z$25-Z$26)/(Z$27-Z$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>1.4849242404917007</v>
       </c>
       <c r="AA28" s="41">
-        <f>(SQRT((IF(AA$25&gt;$B$18,0,IF(AA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AA$26),(VLOOKUP(AA$26,$B$9:$D$16,3,FALSE)*IF(AA$27=AA$26,1,((AA$25-AA$26)/(AA$27-AA$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>1.9798989873222841</v>
       </c>
       <c r="AB28" s="41">
-        <f>(SQRT((IF(AB$25&gt;$B$18,0,IF(AB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AB$26),(VLOOKUP(AB$26,$B$9:$D$16,3,FALSE)*IF(AB$27=AB$26,1,((AB$25-AB$26)/(AB$27-AB$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>2.4748737341528657</v>
       </c>
       <c r="AC28" s="41">
-        <f>(SQRT((IF(AC$25&gt;$B$18,0,IF(AC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AC$26),(VLOOKUP(AC$26,$B$9:$D$16,3,FALSE)*IF(AC$27=AC$26,1,((AC$25-AC$26)/(AC$27-AC$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>2.9698484809834489</v>
       </c>
       <c r="AD28" s="41">
-        <f>(SQRT((IF(AD$25&gt;$B$18,0,IF(AD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AD$26),(VLOOKUP(AD$26,$B$9:$D$16,3,FALSE)*IF(AD$27=AD$26,1,((AD$25-AD$26)/(AD$27-AD$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>3.464823227814033</v>
       </c>
       <c r="AE28" s="41">
-        <f>(SQRT((IF(AE$25&gt;$B$18,0,IF(AE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AE$26),(VLOOKUP(AE$26,$B$9:$D$16,3,FALSE)*IF(AE$27=AE$26,1,((AE$25-AE$26)/(AE$27-AE$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>3.959797974644617</v>
       </c>
       <c r="AF28" s="41">
-        <f>(SQRT((IF(AF$25&gt;$B$18,0,IF(AF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AF$26),(VLOOKUP(AF$26,$B$9:$D$16,3,FALSE)*IF(AF$27=AF$26,1,((AF$25-AF$26)/(AF$27-AF$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>4.4547727214752006</v>
       </c>
       <c r="AG28" s="41">
-        <f>(SQRT((IF(AG$25&gt;$B$18,0,IF(AG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AG$26),(VLOOKUP(AG$26,$B$9:$D$16,3,FALSE)*IF(AG$27=AG$26,1,((AG$25-AG$26)/(AG$27-AG$26)))),0))^2)))</f>
+        <f t="shared" si="9"/>
         <v>4.949747468305782</v>
       </c>
       <c r="AH28" s="41">
-        <f>(SQRT((IF(AH$25&gt;$B$18,0,IF(AH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AH$26),(VLOOKUP(AH$26,$B$9:$D$16,3,FALSE)*IF(AH$27=AH$26,1,((AH$25-AH$26)/(AH$27-AH$26)))),0))^2)))</f>
+        <f t="shared" ref="AH28:BM28" si="10">(SQRT((IF(AH$25&gt;$B$18,0,IF(AH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AH$26),(VLOOKUP(AH$26,$B$9:$D$16,3,FALSE)*IF(AH$27=AH$26,1,((AH$25-AH$26)/(AH$27-AH$26)))),0))^2)))</f>
         <v>5.444722215136367</v>
       </c>
       <c r="AI28" s="41">
-        <f>(SQRT((IF(AI$25&gt;$B$18,0,IF(AI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AI$26),(VLOOKUP(AI$26,$B$9:$D$16,3,FALSE)*IF(AI$27=AI$26,1,((AI$25-AI$26)/(AI$27-AI$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>5.9396969619669493</v>
       </c>
       <c r="AJ28" s="41">
-        <f>(SQRT((IF(AJ$25&gt;$B$18,0,IF(AJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AJ$26),(VLOOKUP(AJ$26,$B$9:$D$16,3,FALSE)*IF(AJ$27=AJ$26,1,((AJ$25-AJ$26)/(AJ$27-AJ$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>6.4346717087975325</v>
       </c>
       <c r="AK28" s="41">
-        <f>(SQRT((IF(AK$25&gt;$B$18,0,IF(AK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AK$26),(VLOOKUP(AK$26,$B$9:$D$16,3,FALSE)*IF(AK$27=AK$26,1,((AK$25-AK$26)/(AK$27-AK$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>6.9296464556281148</v>
       </c>
       <c r="AL28" s="41">
-        <f>(SQRT((IF(AL$25&gt;$B$18,0,IF(AL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AL$26),(VLOOKUP(AL$26,$B$9:$D$16,3,FALSE)*IF(AL$27=AL$26,1,((AL$25-AL$26)/(AL$27-AL$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>7.4246212024586988</v>
       </c>
       <c r="AM28" s="41">
-        <f>(SQRT((IF(AM$25&gt;$B$18,0,IF(AM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AM$26),(VLOOKUP(AM$26,$B$9:$D$16,3,FALSE)*IF(AM$27=AM$26,1,((AM$25-AM$26)/(AM$27-AM$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>7.9195959492892829</v>
       </c>
       <c r="AN28" s="41">
-        <f>(SQRT((IF(AN$25&gt;$B$18,0,IF(AN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AN$26),(VLOOKUP(AN$26,$B$9:$D$16,3,FALSE)*IF(AN$27=AN$26,1,((AN$25-AN$26)/(AN$27-AN$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>8.4145706961198652</v>
       </c>
       <c r="AO28" s="41">
-        <f>(SQRT((IF(AO$25&gt;$B$18,0,IF(AO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AO$26),(VLOOKUP(AO$26,$B$9:$D$16,3,FALSE)*IF(AO$27=AO$26,1,((AO$25-AO$26)/(AO$27-AO$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>8.9095454429504475</v>
       </c>
       <c r="AP28" s="41">
-        <f>(SQRT((IF(AP$25&gt;$B$18,0,IF(AP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AP$26),(VLOOKUP(AP$26,$B$9:$D$16,3,FALSE)*IF(AP$27=AP$26,1,((AP$25-AP$26)/(AP$27-AP$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>9.4045201897810333</v>
       </c>
       <c r="AQ28" s="41">
-        <f>(SQRT((IF(AQ$25&gt;$B$18,0,IF(AQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AQ$26),(VLOOKUP(AQ$26,$B$9:$D$16,3,FALSE)*IF(AQ$27=AQ$26,1,((AQ$25-AQ$26)/(AQ$27-AQ$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>9.8994949366116156</v>
       </c>
       <c r="AR28" s="41">
-        <f>(SQRT((IF(AR$25&gt;$B$18,0,IF(AR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AR$26),(VLOOKUP(AR$26,$B$9:$D$16,3,FALSE)*IF(AR$27=AR$26,1,((AR$25-AR$26)/(AR$27-AR$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>10.394469683442198</v>
       </c>
       <c r="AS28" s="41">
-        <f>(SQRT((IF(AS$25&gt;$B$18,0,IF(AS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AS$26),(VLOOKUP(AS$26,$B$9:$D$16,3,FALSE)*IF(AS$27=AS$26,1,((AS$25-AS$26)/(AS$27-AS$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>10.889444430272782</v>
       </c>
       <c r="AT28" s="41">
-        <f>(SQRT((IF(AT$25&gt;$B$18,0,IF(AT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AT$26),(VLOOKUP(AT$26,$B$9:$D$16,3,FALSE)*IF(AT$27=AT$26,1,((AT$25-AT$26)/(AT$27-AT$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>11.384419177103315</v>
       </c>
       <c r="AU28" s="41">
-        <f>(SQRT((IF(AU$25&gt;$B$18,0,IF(AU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AU$26),(VLOOKUP(AU$26,$B$9:$D$16,3,FALSE)*IF(AU$27=AU$26,1,((AU$25-AU$26)/(AU$27-AU$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>11.879393923933899</v>
       </c>
       <c r="AV28" s="41">
-        <f>(SQRT((IF(AV$25&gt;$B$18,0,IF(AV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AV$26),(VLOOKUP(AV$26,$B$9:$D$16,3,FALSE)*IF(AV$27=AV$26,1,((AV$25-AV$26)/(AV$27-AV$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>12.374368670764483</v>
       </c>
       <c r="AW28" s="41">
-        <f>(SQRT((IF(AW$25&gt;$B$18,0,IF(AW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AW$26),(VLOOKUP(AW$26,$B$9:$D$16,3,FALSE)*IF(AW$27=AW$26,1,((AW$25-AW$26)/(AW$27-AW$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>12.869343417595065</v>
       </c>
       <c r="AX28" s="41">
-        <f>(SQRT((IF(AX$25&gt;$B$18,0,IF(AX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AX$26),(VLOOKUP(AX$26,$B$9:$D$16,3,FALSE)*IF(AX$27=AX$26,1,((AX$25-AX$26)/(AX$27-AX$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>13.364318164425651</v>
       </c>
       <c r="AY28" s="41">
-        <f>(SQRT((IF(AY$25&gt;$B$18,0,IF(AY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AY$26),(VLOOKUP(AY$26,$B$9:$D$16,3,FALSE)*IF(AY$27=AY$26,1,((AY$25-AY$26)/(AY$27-AY$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>13.85929291125623</v>
       </c>
       <c r="AZ28" s="41">
-        <f>(SQRT((IF(AZ$25&gt;$B$18,0,IF(AZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AZ$26),(VLOOKUP(AZ$26,$B$9:$D$16,3,FALSE)*IF(AZ$27=AZ$26,1,((AZ$25-AZ$26)/(AZ$27-AZ$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>14.354267658086815</v>
       </c>
       <c r="BA28" s="41">
-        <f>(SQRT((IF(BA$25&gt;$B$18,0,IF(BA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BA$26),(VLOOKUP(BA$26,$B$9:$D$16,3,FALSE)*IF(BA$27=BA$26,1,((BA$25-BA$26)/(BA$27-BA$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>14.849242404917394</v>
       </c>
       <c r="BB28" s="41">
-        <f>(SQRT((IF(BB$25&gt;$B$18,0,IF(BB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BB$26),(VLOOKUP(BB$26,$B$9:$D$16,3,FALSE)*IF(BB$27=BB$26,1,((BB$25-BB$26)/(BB$27-BB$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>15.344217151747984</v>
       </c>
       <c r="BC28" s="41">
-        <f>(SQRT((IF(BC$25&gt;$B$18,0,IF(BC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BC$26),(VLOOKUP(BC$26,$B$9:$D$16,3,FALSE)*IF(BC$27=BC$26,1,((BC$25-BC$26)/(BC$27-BC$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>15.839191898578566</v>
       </c>
       <c r="BD28" s="41">
-        <f>(SQRT((IF(BD$25&gt;$B$18,0,IF(BD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BD$26),(VLOOKUP(BD$26,$B$9:$D$16,3,FALSE)*IF(BD$27=BD$26,1,((BD$25-BD$26)/(BD$27-BD$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>16.334166645409148</v>
       </c>
       <c r="BE28" s="41">
-        <f>(SQRT((IF(BE$25&gt;$B$18,0,IF(BE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BE$26),(VLOOKUP(BE$26,$B$9:$D$16,3,FALSE)*IF(BE$27=BE$26,1,((BE$25-BE$26)/(BE$27-BE$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>16.82914139223973</v>
       </c>
       <c r="BF28" s="41">
-        <f>(SQRT((IF(BF$25&gt;$B$18,0,IF(BF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BF$26),(VLOOKUP(BF$26,$B$9:$D$16,3,FALSE)*IF(BF$27=BF$26,1,((BF$25-BF$26)/(BF$27-BF$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>17.324116139070313</v>
       </c>
       <c r="BG28" s="41">
-        <f>(SQRT((IF(BG$25&gt;$B$18,0,IF(BG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BG$26),(VLOOKUP(BG$26,$B$9:$D$16,3,FALSE)*IF(BG$27=BG$26,1,((BG$25-BG$26)/(BG$27-BG$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>17.819090885900895</v>
       </c>
       <c r="BH28" s="41">
-        <f>(SQRT((IF(BH$25&gt;$B$18,0,IF(BH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BH$26),(VLOOKUP(BH$26,$B$9:$D$16,3,FALSE)*IF(BH$27=BH$26,1,((BH$25-BH$26)/(BH$27-BH$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>18.314065632731481</v>
       </c>
       <c r="BI28" s="41">
-        <f>(SQRT((IF(BI$25&gt;$B$18,0,IF(BI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BI$26),(VLOOKUP(BI$26,$B$9:$D$16,3,FALSE)*IF(BI$27=BI$26,1,((BI$25-BI$26)/(BI$27-BI$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>18.809040379562067</v>
       </c>
       <c r="BJ28" s="41">
-        <f>(SQRT((IF(BJ$25&gt;$B$18,0,IF(BJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BJ$26),(VLOOKUP(BJ$26,$B$9:$D$16,3,FALSE)*IF(BJ$27=BJ$26,1,((BJ$25-BJ$26)/(BJ$27-BJ$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>19.304015126392649</v>
       </c>
       <c r="BK28" s="41">
-        <f>(SQRT((IF(BK$25&gt;$B$18,0,IF(BK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BK$26),(VLOOKUP(BK$26,$B$9:$D$16,3,FALSE)*IF(BK$27=BK$26,1,((BK$25-BK$26)/(BK$27-BK$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>19.798989873223231</v>
       </c>
       <c r="BL28" s="41">
-        <f>(SQRT((IF(BL$25&gt;$B$18,0,IF(BL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BL$26),(VLOOKUP(BL$26,$B$9:$D$16,3,FALSE)*IF(BL$27=BL$26,1,((BL$25-BL$26)/(BL$27-BL$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>20.293964620053817</v>
       </c>
       <c r="BM28" s="41">
-        <f>(SQRT((IF(BM$25&gt;$B$18,0,IF(BM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BM$26),(VLOOKUP(BM$26,$B$9:$D$16,3,FALSE)*IF(BM$27=BM$26,1,((BM$25-BM$26)/(BM$27-BM$26)))),0))^2)))</f>
+        <f t="shared" si="10"/>
         <v>20.788939366884396</v>
       </c>
       <c r="BN28" s="41">
-        <f>(SQRT((IF(BN$25&gt;$B$18,0,IF(BN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BN$26),(VLOOKUP(BN$26,$B$9:$D$16,3,FALSE)*IF(BN$27=BN$26,1,((BN$25-BN$26)/(BN$27-BN$26)))),0))^2)))</f>
+        <f t="shared" ref="BN28:CS28" si="11">(SQRT((IF(BN$25&gt;$B$18,0,IF(BN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BN$26),(VLOOKUP(BN$26,$B$9:$D$16,3,FALSE)*IF(BN$27=BN$26,1,((BN$25-BN$26)/(BN$27-BN$26)))),0))^2)))</f>
         <v>21.283914113714985</v>
       </c>
       <c r="BO28" s="41">
-        <f>(SQRT((IF(BO$25&gt;$B$18,0,IF(BO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BO$26),(VLOOKUP(BO$26,$B$9:$D$16,3,FALSE)*IF(BO$27=BO$26,1,((BO$25-BO$26)/(BO$27-BO$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>21.778888860545564</v>
       </c>
       <c r="BP28" s="41">
-        <f>(SQRT((IF(BP$25&gt;$B$18,0,IF(BP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BP$26),(VLOOKUP(BP$26,$B$9:$D$16,3,FALSE)*IF(BP$27=BP$26,1,((BP$25-BP$26)/(BP$27-BP$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>22.273863607376153</v>
       </c>
       <c r="BQ28" s="41">
-        <f>(SQRT((IF(BQ$25&gt;$B$18,0,IF(BQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BQ$26),(VLOOKUP(BQ$26,$B$9:$D$16,3,FALSE)*IF(BQ$27=BQ$26,1,((BQ$25-BQ$26)/(BQ$27-BQ$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>22.768838354206732</v>
       </c>
       <c r="BR28" s="41">
-        <f>(SQRT((IF(BR$25&gt;$B$18,0,IF(BR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BR$26),(VLOOKUP(BR$26,$B$9:$D$16,3,FALSE)*IF(BR$27=BR$26,1,((BR$25-BR$26)/(BR$27-BR$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>23.263813101037314</v>
       </c>
       <c r="BS28" s="41">
-        <f>(SQRT((IF(BS$25&gt;$B$18,0,IF(BS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BS$26),(VLOOKUP(BS$26,$B$9:$D$16,3,FALSE)*IF(BS$27=BS$26,1,((BS$25-BS$26)/(BS$27-BS$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>23.758787847867897</v>
       </c>
       <c r="BT28" s="41">
-        <f>(SQRT((IF(BT$25&gt;$B$18,0,IF(BT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BT$26),(VLOOKUP(BT$26,$B$9:$D$16,3,FALSE)*IF(BT$27=BT$26,1,((BT$25-BT$26)/(BT$27-BT$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>24.253762594698479</v>
       </c>
       <c r="BU28" s="41">
-        <f>(SQRT((IF(BU$25&gt;$B$18,0,IF(BU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BU$26),(VLOOKUP(BU$26,$B$9:$D$16,3,FALSE)*IF(BU$27=BU$26,1,((BU$25-BU$26)/(BU$27-BU$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>24.748737341529068</v>
       </c>
       <c r="BV28" s="41">
-        <f>(SQRT((IF(BV$25&gt;$B$18,0,IF(BV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BV$26),(VLOOKUP(BV$26,$B$9:$D$16,3,FALSE)*IF(BV$27=BV$26,1,((BV$25-BV$26)/(BV$27-BV$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>0.58925565098861221</v>
       </c>
       <c r="BW28" s="41">
-        <f>(SQRT((IF(BW$25&gt;$B$18,0,IF(BW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BW$26),(VLOOKUP(BW$26,$B$9:$D$16,3,FALSE)*IF(BW$27=BW$26,1,((BW$25-BW$26)/(BW$27-BW$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>1.1785113019774023</v>
       </c>
       <c r="BX28" s="41">
-        <f>(SQRT((IF(BX$25&gt;$B$18,0,IF(BX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BX$26),(VLOOKUP(BX$26,$B$9:$D$16,3,FALSE)*IF(BX$27=BX$26,1,((BX$25-BX$26)/(BX$27-BX$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>1.7677669529661926</v>
       </c>
       <c r="BY28" s="41">
-        <f>(SQRT((IF(BY$25&gt;$B$18,0,IF(BY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BY$26),(VLOOKUP(BY$26,$B$9:$D$16,3,FALSE)*IF(BY$27=BY$26,1,((BY$25-BY$26)/(BY$27-BY$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>2.3570226039549831</v>
       </c>
       <c r="BZ28" s="41">
-        <f>(SQRT((IF(BZ$25&gt;$B$18,0,IF(BZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BZ$26),(VLOOKUP(BZ$26,$B$9:$D$16,3,FALSE)*IF(BZ$27=BZ$26,1,((BZ$25-BZ$26)/(BZ$27-BZ$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>2.9462782549437705</v>
       </c>
       <c r="CA28" s="41">
-        <f>(SQRT((IF(CA$25&gt;$B$18,0,IF(CA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CA$26),(VLOOKUP(CA$26,$B$9:$D$16,3,FALSE)*IF(CA$27=CA$26,1,((CA$25-CA$26)/(CA$27-CA$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>3.5355339059325601</v>
       </c>
       <c r="CB28" s="41">
-        <f>(SQRT((IF(CB$25&gt;$B$18,0,IF(CB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CB$26),(VLOOKUP(CB$26,$B$9:$D$16,3,FALSE)*IF(CB$27=CB$26,1,((CB$25-CB$26)/(CB$27-CB$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>4.1247895569213497</v>
       </c>
       <c r="CC28" s="41">
-        <f>(SQRT((IF(CC$25&gt;$B$18,0,IF(CC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CC$26),(VLOOKUP(CC$26,$B$9:$D$16,3,FALSE)*IF(CC$27=CC$26,1,((CC$25-CC$26)/(CC$27-CC$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>4.7140452079101403</v>
       </c>
       <c r="CD28" s="41">
-        <f>(SQRT((IF(CD$25&gt;$B$18,0,IF(CD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CD$26),(VLOOKUP(CD$26,$B$9:$D$16,3,FALSE)*IF(CD$27=CD$26,1,((CD$25-CD$26)/(CD$27-CD$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>5.3033008588989308</v>
       </c>
       <c r="CE28" s="41">
-        <f>(SQRT((IF(CE$25&gt;$B$18,0,IF(CE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CE$26),(VLOOKUP(CE$26,$B$9:$D$16,3,FALSE)*IF(CE$27=CE$26,1,((CE$25-CE$26)/(CE$27-CE$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>5.8925565098877177</v>
       </c>
       <c r="CF28" s="41">
-        <f>(SQRT((IF(CF$25&gt;$B$18,0,IF(CF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CF$26),(VLOOKUP(CF$26,$B$9:$D$16,3,FALSE)*IF(CF$27=CF$26,1,((CF$25-CF$26)/(CF$27-CF$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>6.4818121608765091</v>
       </c>
       <c r="CG28" s="41">
-        <f>(SQRT((IF(CG$25&gt;$B$18,0,IF(CG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CG$26),(VLOOKUP(CG$26,$B$9:$D$16,3,FALSE)*IF(CG$27=CG$26,1,((CG$25-CG$26)/(CG$27-CG$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>7.0710678118652979</v>
       </c>
       <c r="CH28" s="41">
-        <f>(SQRT((IF(CH$25&gt;$B$18,0,IF(CH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CH$26),(VLOOKUP(CH$26,$B$9:$D$16,3,FALSE)*IF(CH$27=CH$26,1,((CH$25-CH$26)/(CH$27-CH$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>7.6603234628540884</v>
       </c>
       <c r="CI28" s="41">
-        <f>(SQRT((IF(CI$25&gt;$B$18,0,IF(CI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CI$26),(VLOOKUP(CI$26,$B$9:$D$16,3,FALSE)*IF(CI$27=CI$26,1,((CI$25-CI$26)/(CI$27-CI$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>8.2495791138428789</v>
       </c>
       <c r="CJ28" s="41">
-        <f>(SQRT((IF(CJ$25&gt;$B$18,0,IF(CJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CJ$26),(VLOOKUP(CJ$26,$B$9:$D$16,3,FALSE)*IF(CJ$27=CJ$26,1,((CJ$25-CJ$26)/(CJ$27-CJ$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>8.8388347648316667</v>
       </c>
       <c r="CK28" s="41">
-        <f>(SQRT((IF(CK$25&gt;$B$18,0,IF(CK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CK$26),(VLOOKUP(CK$26,$B$9:$D$16,3,FALSE)*IF(CK$27=CK$26,1,((CK$25-CK$26)/(CK$27-CK$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>9.4280904158204564</v>
       </c>
       <c r="CL28" s="41">
-        <f>(SQRT((IF(CL$25&gt;$B$18,0,IF(CL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CL$26),(VLOOKUP(CL$26,$B$9:$D$16,3,FALSE)*IF(CL$27=CL$26,1,((CL$25-CL$26)/(CL$27-CL$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>10.017346066809246</v>
       </c>
       <c r="CM28" s="41">
-        <f>(SQRT((IF(CM$25&gt;$B$18,0,IF(CM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CM$26),(VLOOKUP(CM$26,$B$9:$D$16,3,FALSE)*IF(CM$27=CM$26,1,((CM$25-CM$26)/(CM$27-CM$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>10.606601717798034</v>
       </c>
       <c r="CN28" s="41">
-        <f>(SQRT((IF(CN$25&gt;$B$18,0,IF(CN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CN$26),(VLOOKUP(CN$26,$B$9:$D$16,3,FALSE)*IF(CN$27=CN$26,1,((CN$25-CN$26)/(CN$27-CN$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>11.195857368786827</v>
       </c>
       <c r="CO28" s="41">
-        <f>(SQRT((IF(CO$25&gt;$B$18,0,IF(CO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CO$26),(VLOOKUP(CO$26,$B$9:$D$16,3,FALSE)*IF(CO$27=CO$26,1,((CO$25-CO$26)/(CO$27-CO$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>11.785113019775615</v>
       </c>
       <c r="CP28" s="41">
-        <f>(SQRT((IF(CP$25&gt;$B$18,0,IF(CP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CP$26),(VLOOKUP(CP$26,$B$9:$D$16,3,FALSE)*IF(CP$27=CP$26,1,((CP$25-CP$26)/(CP$27-CP$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>12.374368670764406</v>
       </c>
       <c r="CQ28" s="41">
-        <f>(SQRT((IF(CQ$25&gt;$B$18,0,IF(CQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CQ$26),(VLOOKUP(CQ$26,$B$9:$D$16,3,FALSE)*IF(CQ$27=CQ$26,1,((CQ$25-CQ$26)/(CQ$27-CQ$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>12.963624321753192</v>
       </c>
       <c r="CR28" s="41">
-        <f>(SQRT((IF(CR$25&gt;$B$18,0,IF(CR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CR$26),(VLOOKUP(CR$26,$B$9:$D$16,3,FALSE)*IF(CR$27=CR$26,1,((CR$25-CR$26)/(CR$27-CR$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>13.552879972741982</v>
       </c>
       <c r="CS28" s="41">
-        <f>(SQRT((IF(CS$25&gt;$B$18,0,IF(CS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CS$26),(VLOOKUP(CS$26,$B$9:$D$16,3,FALSE)*IF(CS$27=CS$26,1,((CS$25-CS$26)/(CS$27-CS$26)))),0))^2)))</f>
+        <f t="shared" si="11"/>
         <v>14.142135623730775</v>
       </c>
       <c r="CT28" s="41">
-        <f>(SQRT((IF(CT$25&gt;$B$18,0,IF(CT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CT$26),(VLOOKUP(CT$26,$B$9:$D$16,3,FALSE)*IF(CT$27=CT$26,1,((CT$25-CT$26)/(CT$27-CT$26)))),0))^2)))</f>
+        <f t="shared" ref="CT28:CZ28" si="12">(SQRT((IF(CT$25&gt;$B$18,0,IF(CT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CT$26),(VLOOKUP(CT$26,$B$9:$D$16,3,FALSE)*IF(CT$27=CT$26,1,((CT$25-CT$26)/(CT$27-CT$26)))),0))^2)))</f>
         <v>14.731391274719563</v>
       </c>
       <c r="CU28" s="41">
-        <f>(SQRT((IF(CU$25&gt;$B$18,0,IF(CU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CU$26),(VLOOKUP(CU$26,$B$9:$D$16,3,FALSE)*IF(CU$27=CU$26,1,((CU$25-CU$26)/(CU$27-CU$26)))),0))^2)))</f>
+        <f t="shared" si="12"/>
         <v>15.320646925708356</v>
       </c>
       <c r="CV28" s="41">
-        <f>(SQRT((IF(CV$25&gt;$B$18,0,IF(CV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CV$26),(VLOOKUP(CV$26,$B$9:$D$16,3,FALSE)*IF(CV$27=CV$26,1,((CV$25-CV$26)/(CV$27-CV$26)))),0))^2)))</f>
+        <f t="shared" si="12"/>
         <v>15.909902576697144</v>
       </c>
       <c r="CW28" s="41">
-        <f>(SQRT((IF(CW$25&gt;$B$18,0,IF(CW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CW$26),(VLOOKUP(CW$26,$B$9:$D$16,3,FALSE)*IF(CW$27=CW$26,1,((CW$25-CW$26)/(CW$27-CW$26)))),0))^2)))</f>
+        <f t="shared" si="12"/>
         <v>16.499158227685932</v>
       </c>
       <c r="CX28" s="41">
-        <f>(SQRT((IF(CX$25&gt;$B$18,0,IF(CX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CX$26),(VLOOKUP(CX$26,$B$9:$D$16,3,FALSE)*IF(CX$27=CX$26,1,((CX$25-CX$26)/(CX$27-CX$26)))),0))^2)))</f>
+        <f t="shared" si="12"/>
         <v>17.088413878674665</v>
       </c>
       <c r="CY28" s="41">
-        <f>(SQRT((IF(CY$25&gt;$B$18,0,IF(CY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CY$26),(VLOOKUP(CY$26,$B$9:$D$16,3,FALSE)*IF(CY$27=CY$26,1,((CY$25-CY$26)/(CY$27-CY$26)))),0))^2)))</f>
+        <f t="shared" si="12"/>
         <v>17.677669529663451</v>
       </c>
       <c r="CZ28" s="42">
-        <f>(SQRT((IF(CZ$25&gt;$B$18,0,IF(CZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CZ$26),(VLOOKUP(CZ$26,$B$9:$D$16,3,FALSE)*IF(CZ$27=CZ$26,1,((CZ$25-CZ$26)/(CZ$27-CZ$26)))),0))^2)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5834,415 +5836,415 @@
         <v>17</v>
       </c>
       <c r="B29" s="15">
-        <f>(SQRT((IF(B$25&gt;$B$18,0,IF(B$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(B$26),(VLOOKUP(B$27,$B$9:$D$16,3,FALSE)*IF(B$27=B$26,1,((B$25-B$26)/(B$27-B$26)))),0))^2)))</f>
+        <f t="shared" ref="B29:AG29" si="13">(SQRT((IF(B$25&gt;$B$18,0,IF(B$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(B$26),(VLOOKUP(B$27,$B$9:$D$16,3,FALSE)*IF(B$27=B$26,1,((B$25-B$26)/(B$27-B$26)))),0))^2)))</f>
         <v>0</v>
       </c>
       <c r="C29" s="41">
-        <f>(SQRT((IF(C$25&gt;$B$18,0,IF(C$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(C$26),(VLOOKUP(C$27,$B$9:$D$16,3,FALSE)*IF(C$27=C$26,1,((C$25-C$26)/(C$27-C$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>17.677669529663689</v>
       </c>
       <c r="D29" s="41">
-        <f>(SQRT((IF(D$25&gt;$B$18,0,IF(D$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(D$26),(VLOOKUP(D$27,$B$9:$D$16,3,FALSE)*IF(D$27=D$26,1,((D$25-D$26)/(D$27-D$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>1.2374368670764537</v>
       </c>
       <c r="E29" s="41">
-        <f>(SQRT((IF(E$25&gt;$B$18,0,IF(E$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(E$26),(VLOOKUP(E$27,$B$9:$D$16,3,FALSE)*IF(E$27=E$26,1,((E$25-E$26)/(E$27-E$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>2.4748737341529186</v>
       </c>
       <c r="F29" s="41">
-        <f>(SQRT((IF(F$25&gt;$B$18,0,IF(F$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(F$26),(VLOOKUP(F$27,$B$9:$D$16,3,FALSE)*IF(F$27=F$26,1,((F$25-F$26)/(F$27-F$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>3.7123106012293725</v>
       </c>
       <c r="G29" s="41">
-        <f>(SQRT((IF(G$25&gt;$B$18,0,IF(G$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(G$26),(VLOOKUP(G$27,$B$9:$D$16,3,FALSE)*IF(G$27=G$26,1,((G$25-G$26)/(G$27-G$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>4.9497474683058371</v>
       </c>
       <c r="H29" s="41">
-        <f>(SQRT((IF(H$25&gt;$B$18,0,IF(H$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(H$26),(VLOOKUP(H$27,$B$9:$D$16,3,FALSE)*IF(H$27=H$26,1,((H$25-H$26)/(H$27-H$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>6.1871843353822911</v>
       </c>
       <c r="I29" s="41">
-        <f>(SQRT((IF(I$25&gt;$B$18,0,IF(I$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(I$26),(VLOOKUP(I$27,$B$9:$D$16,3,FALSE)*IF(I$27=I$26,1,((I$25-I$26)/(I$27-I$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>7.424621202458745</v>
       </c>
       <c r="J29" s="41">
-        <f>(SQRT((IF(J$25&gt;$B$18,0,IF(J$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(J$26),(VLOOKUP(J$27,$B$9:$D$16,3,FALSE)*IF(J$27=J$26,1,((J$25-J$26)/(J$27-J$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>8.6620580695352096</v>
       </c>
       <c r="K29" s="41">
-        <f>(SQRT((IF(K$25&gt;$B$18,0,IF(K$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(K$26),(VLOOKUP(K$27,$B$9:$D$16,3,FALSE)*IF(K$27=K$26,1,((K$25-K$26)/(K$27-K$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>9.8994949366116636</v>
       </c>
       <c r="L29" s="41">
-        <f>(SQRT((IF(L$25&gt;$B$18,0,IF(L$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(L$26),(VLOOKUP(L$27,$B$9:$D$16,3,FALSE)*IF(L$27=L$26,1,((L$25-L$26)/(L$27-L$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>11.136931803688128</v>
       </c>
       <c r="M29" s="41">
-        <f>(SQRT((IF(M$25&gt;$B$18,0,IF(M$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(M$26),(VLOOKUP(M$27,$B$9:$D$16,3,FALSE)*IF(M$27=M$26,1,((M$25-M$26)/(M$27-M$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>12.374368670764582</v>
       </c>
       <c r="N29" s="41">
-        <f>(SQRT((IF(N$25&gt;$B$18,0,IF(N$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(N$26),(VLOOKUP(N$27,$B$9:$D$16,3,FALSE)*IF(N$27=N$26,1,((N$25-N$26)/(N$27-N$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>13.611805537841041</v>
       </c>
       <c r="O29" s="41">
-        <f>(SQRT((IF(O$25&gt;$B$18,0,IF(O$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(O$26),(VLOOKUP(O$27,$B$9:$D$16,3,FALSE)*IF(O$27=O$26,1,((O$25-O$26)/(O$27-O$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>14.849242404917501</v>
       </c>
       <c r="P29" s="41">
-        <f>(SQRT((IF(P$25&gt;$B$18,0,IF(P$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(P$26),(VLOOKUP(P$27,$B$9:$D$16,3,FALSE)*IF(P$27=P$26,1,((P$25-P$26)/(P$27-P$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>16.086679271993951</v>
       </c>
       <c r="Q29" s="41">
-        <f>(SQRT((IF(Q$25&gt;$B$18,0,IF(Q$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Q$26),(VLOOKUP(Q$27,$B$9:$D$16,3,FALSE)*IF(Q$27=Q$26,1,((Q$25-Q$26)/(Q$27-Q$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>17.324116139070412</v>
       </c>
       <c r="R29" s="41">
-        <f>(SQRT((IF(R$25&gt;$B$18,0,IF(R$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(R$26),(VLOOKUP(R$27,$B$9:$D$16,3,FALSE)*IF(R$27=R$26,1,((R$25-R$26)/(R$27-R$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>18.561553006146745</v>
       </c>
       <c r="S29" s="41">
-        <f>(SQRT((IF(S$25&gt;$B$18,0,IF(S$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(S$26),(VLOOKUP(S$27,$B$9:$D$16,3,FALSE)*IF(S$27=S$26,1,((S$25-S$26)/(S$27-S$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>19.798989873223203</v>
       </c>
       <c r="T29" s="41">
-        <f>(SQRT((IF(T$25&gt;$B$18,0,IF(T$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(T$26),(VLOOKUP(T$27,$B$9:$D$16,3,FALSE)*IF(T$27=T$26,1,((T$25-T$26)/(T$27-T$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>21.036426740299664</v>
       </c>
       <c r="U29" s="41">
-        <f>(SQRT((IF(U$25&gt;$B$18,0,IF(U$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(U$26),(VLOOKUP(U$27,$B$9:$D$16,3,FALSE)*IF(U$27=U$26,1,((U$25-U$26)/(U$27-U$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>22.273863607376125</v>
       </c>
       <c r="V29" s="41">
-        <f>(SQRT((IF(V$25&gt;$B$18,0,IF(V$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(V$26),(VLOOKUP(V$27,$B$9:$D$16,3,FALSE)*IF(V$27=V$26,1,((V$25-V$26)/(V$27-V$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>23.511300474452586</v>
       </c>
       <c r="W29" s="41">
-        <f>(SQRT((IF(W$25&gt;$B$18,0,IF(W$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(W$26),(VLOOKUP(W$27,$B$9:$D$16,3,FALSE)*IF(W$27=W$26,1,((W$25-W$26)/(W$27-W$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>24.748737341529036</v>
       </c>
       <c r="X29" s="41">
-        <f>(SQRT((IF(X$25&gt;$B$18,0,IF(X$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(X$26),(VLOOKUP(X$27,$B$9:$D$16,3,FALSE)*IF(X$27=X$26,1,((X$25-X$26)/(X$27-X$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>0.35355339059323798</v>
       </c>
       <c r="Y29" s="41">
-        <f>(SQRT((IF(Y$25&gt;$B$18,0,IF(Y$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Y$26),(VLOOKUP(Y$27,$B$9:$D$16,3,FALSE)*IF(Y$27=Y$26,1,((Y$25-Y$26)/(Y$27-Y$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>0.70710678118651205</v>
       </c>
       <c r="Z29" s="41">
-        <f>(SQRT((IF(Z$25&gt;$B$18,0,IF(Z$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Z$26),(VLOOKUP(Z$27,$B$9:$D$16,3,FALSE)*IF(Z$27=Z$26,1,((Z$25-Z$26)/(Z$27-Z$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>1.0606601717797861</v>
       </c>
       <c r="AA29" s="41">
-        <f>(SQRT((IF(AA$25&gt;$B$18,0,IF(AA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AA$26),(VLOOKUP(AA$27,$B$9:$D$16,3,FALSE)*IF(AA$27=AA$26,1,((AA$25-AA$26)/(AA$27-AA$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>1.4142135623730603</v>
       </c>
       <c r="AB29" s="41">
-        <f>(SQRT((IF(AB$25&gt;$B$18,0,IF(AB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AB$26),(VLOOKUP(AB$27,$B$9:$D$16,3,FALSE)*IF(AB$27=AB$26,1,((AB$25-AB$26)/(AB$27-AB$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>1.7677669529663327</v>
       </c>
       <c r="AC29" s="41">
-        <f>(SQRT((IF(AC$25&gt;$B$18,0,IF(AC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AC$26),(VLOOKUP(AC$27,$B$9:$D$16,3,FALSE)*IF(AC$27=AC$26,1,((AC$25-AC$26)/(AC$27-AC$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>2.1213203435596069</v>
       </c>
       <c r="AD29" s="41">
-        <f>(SQRT((IF(AD$25&gt;$B$18,0,IF(AD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AD$26),(VLOOKUP(AD$27,$B$9:$D$16,3,FALSE)*IF(AD$27=AD$26,1,((AD$25-AD$26)/(AD$27-AD$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>2.4748737341528808</v>
       </c>
       <c r="AE29" s="41">
-        <f>(SQRT((IF(AE$25&gt;$B$18,0,IF(AE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AE$26),(VLOOKUP(AE$27,$B$9:$D$16,3,FALSE)*IF(AE$27=AE$26,1,((AE$25-AE$26)/(AE$27-AE$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>2.8284271247461552</v>
       </c>
       <c r="AF29" s="41">
-        <f>(SQRT((IF(AF$25&gt;$B$18,0,IF(AF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AF$26),(VLOOKUP(AF$27,$B$9:$D$16,3,FALSE)*IF(AF$27=AF$26,1,((AF$25-AF$26)/(AF$27-AF$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>3.1819805153394292</v>
       </c>
       <c r="AG29" s="41">
-        <f>(SQRT((IF(AG$25&gt;$B$18,0,IF(AG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AG$26),(VLOOKUP(AG$27,$B$9:$D$16,3,FALSE)*IF(AG$27=AG$26,1,((AG$25-AG$26)/(AG$27-AG$26)))),0))^2)))</f>
+        <f t="shared" si="13"/>
         <v>3.5355339059327013</v>
       </c>
       <c r="AH29" s="41">
-        <f>(SQRT((IF(AH$25&gt;$B$18,0,IF(AH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AH$26),(VLOOKUP(AH$27,$B$9:$D$16,3,FALSE)*IF(AH$27=AH$26,1,((AH$25-AH$26)/(AH$27-AH$26)))),0))^2)))</f>
+        <f t="shared" ref="AH29:BM29" si="14">(SQRT((IF(AH$25&gt;$B$18,0,IF(AH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AH$26),(VLOOKUP(AH$27,$B$9:$D$16,3,FALSE)*IF(AH$27=AH$26,1,((AH$25-AH$26)/(AH$27-AH$26)))),0))^2)))</f>
         <v>3.8890872965259766</v>
       </c>
       <c r="AI29" s="41">
-        <f>(SQRT((IF(AI$25&gt;$B$18,0,IF(AI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AI$26),(VLOOKUP(AI$27,$B$9:$D$16,3,FALSE)*IF(AI$27=AI$26,1,((AI$25-AI$26)/(AI$27-AI$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>4.2426406871192492</v>
       </c>
       <c r="AJ29" s="41">
-        <f>(SQRT((IF(AJ$25&gt;$B$18,0,IF(AJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AJ$26),(VLOOKUP(AJ$27,$B$9:$D$16,3,FALSE)*IF(AJ$27=AJ$26,1,((AJ$25-AJ$26)/(AJ$27-AJ$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>4.5961940777125241</v>
       </c>
       <c r="AK29" s="41">
-        <f>(SQRT((IF(AK$25&gt;$B$18,0,IF(AK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AK$26),(VLOOKUP(AK$27,$B$9:$D$16,3,FALSE)*IF(AK$27=AK$26,1,((AK$25-AK$26)/(AK$27-AK$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>4.9497474683057971</v>
       </c>
       <c r="AL29" s="41">
-        <f>(SQRT((IF(AL$25&gt;$B$18,0,IF(AL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AL$26),(VLOOKUP(AL$27,$B$9:$D$16,3,FALSE)*IF(AL$27=AL$26,1,((AL$25-AL$26)/(AL$27-AL$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>5.3033008588990711</v>
       </c>
       <c r="AM29" s="41">
-        <f>(SQRT((IF(AM$25&gt;$B$18,0,IF(AM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AM$26),(VLOOKUP(AM$27,$B$9:$D$16,3,FALSE)*IF(AM$27=AM$26,1,((AM$25-AM$26)/(AM$27-AM$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>5.6568542494923451</v>
       </c>
       <c r="AN29" s="41">
-        <f>(SQRT((IF(AN$25&gt;$B$18,0,IF(AN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AN$26),(VLOOKUP(AN$27,$B$9:$D$16,3,FALSE)*IF(AN$27=AN$26,1,((AN$25-AN$26)/(AN$27-AN$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>6.0104076400856181</v>
       </c>
       <c r="AO29" s="41">
-        <f>(SQRT((IF(AO$25&gt;$B$18,0,IF(AO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AO$26),(VLOOKUP(AO$27,$B$9:$D$16,3,FALSE)*IF(AO$27=AO$26,1,((AO$25-AO$26)/(AO$27-AO$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>6.363961030678893</v>
       </c>
       <c r="AP29" s="41">
-        <f>(SQRT((IF(AP$25&gt;$B$18,0,IF(AP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AP$26),(VLOOKUP(AP$27,$B$9:$D$16,3,FALSE)*IF(AP$27=AP$26,1,((AP$25-AP$26)/(AP$27-AP$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>6.7175144212721669</v>
       </c>
       <c r="AQ29" s="41">
-        <f>(SQRT((IF(AQ$25&gt;$B$18,0,IF(AQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AQ$26),(VLOOKUP(AQ$27,$B$9:$D$16,3,FALSE)*IF(AQ$27=AQ$26,1,((AQ$25-AQ$26)/(AQ$27-AQ$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>7.0710678118654409</v>
       </c>
       <c r="AR29" s="41">
-        <f>(SQRT((IF(AR$25&gt;$B$18,0,IF(AR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AR$26),(VLOOKUP(AR$27,$B$9:$D$16,3,FALSE)*IF(AR$27=AR$26,1,((AR$25-AR$26)/(AR$27-AR$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>7.424621202458713</v>
       </c>
       <c r="AS29" s="41">
-        <f>(SQRT((IF(AS$25&gt;$B$18,0,IF(AS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AS$26),(VLOOKUP(AS$27,$B$9:$D$16,3,FALSE)*IF(AS$27=AS$26,1,((AS$25-AS$26)/(AS$27-AS$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>7.778174593051987</v>
       </c>
       <c r="AT29" s="41">
-        <f>(SQRT((IF(AT$25&gt;$B$18,0,IF(AT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AT$26),(VLOOKUP(AT$27,$B$9:$D$16,3,FALSE)*IF(AT$27=AT$26,1,((AT$25-AT$26)/(AT$27-AT$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>8.1317279836452254</v>
       </c>
       <c r="AU29" s="41">
-        <f>(SQRT((IF(AU$25&gt;$B$18,0,IF(AU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AU$26),(VLOOKUP(AU$27,$B$9:$D$16,3,FALSE)*IF(AU$27=AU$26,1,((AU$25-AU$26)/(AU$27-AU$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>8.4852813742384985</v>
       </c>
       <c r="AV29" s="41">
-        <f>(SQRT((IF(AV$25&gt;$B$18,0,IF(AV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AV$26),(VLOOKUP(AV$27,$B$9:$D$16,3,FALSE)*IF(AV$27=AV$26,1,((AV$25-AV$26)/(AV$27-AV$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>8.8388347648317733</v>
       </c>
       <c r="AW29" s="41">
-        <f>(SQRT((IF(AW$25&gt;$B$18,0,IF(AW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AW$26),(VLOOKUP(AW$27,$B$9:$D$16,3,FALSE)*IF(AW$27=AW$26,1,((AW$25-AW$26)/(AW$27-AW$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>9.1923881554250482</v>
       </c>
       <c r="AX29" s="41">
-        <f>(SQRT((IF(AX$25&gt;$B$18,0,IF(AX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AX$26),(VLOOKUP(AX$27,$B$9:$D$16,3,FALSE)*IF(AX$27=AX$26,1,((AX$25-AX$26)/(AX$27-AX$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>9.5459415460183212</v>
       </c>
       <c r="AY29" s="41">
-        <f>(SQRT((IF(AY$25&gt;$B$18,0,IF(AY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AY$26),(VLOOKUP(AY$27,$B$9:$D$16,3,FALSE)*IF(AY$27=AY$26,1,((AY$25-AY$26)/(AY$27-AY$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>9.8994949366115943</v>
       </c>
       <c r="AZ29" s="41">
-        <f>(SQRT((IF(AZ$25&gt;$B$18,0,IF(AZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AZ$26),(VLOOKUP(AZ$27,$B$9:$D$16,3,FALSE)*IF(AZ$27=AZ$26,1,((AZ$25-AZ$26)/(AZ$27-AZ$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>10.253048327204867</v>
       </c>
       <c r="BA29" s="41">
-        <f>(SQRT((IF(BA$25&gt;$B$18,0,IF(BA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BA$26),(VLOOKUP(BA$27,$B$9:$D$16,3,FALSE)*IF(BA$27=BA$26,1,((BA$25-BA$26)/(BA$27-BA$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>10.60660171779814</v>
       </c>
       <c r="BB29" s="41">
-        <f>(SQRT((IF(BB$25&gt;$B$18,0,IF(BB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BB$26),(VLOOKUP(BB$27,$B$9:$D$16,3,FALSE)*IF(BB$27=BB$26,1,((BB$25-BB$26)/(BB$27-BB$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>10.960155108391417</v>
       </c>
       <c r="BC29" s="41">
-        <f>(SQRT((IF(BC$25&gt;$B$18,0,IF(BC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BC$26),(VLOOKUP(BC$27,$B$9:$D$16,3,FALSE)*IF(BC$27=BC$26,1,((BC$25-BC$26)/(BC$27-BC$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>11.31370849898469</v>
       </c>
       <c r="BD29" s="41">
-        <f>(SQRT((IF(BD$25&gt;$B$18,0,IF(BD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BD$26),(VLOOKUP(BD$27,$B$9:$D$16,3,FALSE)*IF(BD$27=BD$26,1,((BD$25-BD$26)/(BD$27-BD$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>11.667261889577961</v>
       </c>
       <c r="BE29" s="41">
-        <f>(SQRT((IF(BE$25&gt;$B$18,0,IF(BE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BE$26),(VLOOKUP(BE$27,$B$9:$D$16,3,FALSE)*IF(BE$27=BE$26,1,((BE$25-BE$26)/(BE$27-BE$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>12.020815280171236</v>
       </c>
       <c r="BF29" s="41">
-        <f>(SQRT((IF(BF$25&gt;$B$18,0,IF(BF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BF$26),(VLOOKUP(BF$27,$B$9:$D$16,3,FALSE)*IF(BF$27=BF$26,1,((BF$25-BF$26)/(BF$27-BF$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>12.374368670764511</v>
       </c>
       <c r="BG29" s="41">
-        <f>(SQRT((IF(BG$25&gt;$B$18,0,IF(BG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BG$26),(VLOOKUP(BG$27,$B$9:$D$16,3,FALSE)*IF(BG$27=BG$26,1,((BG$25-BG$26)/(BG$27-BG$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>12.727922061357786</v>
       </c>
       <c r="BH29" s="41">
-        <f>(SQRT((IF(BH$25&gt;$B$18,0,IF(BH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BH$26),(VLOOKUP(BH$27,$B$9:$D$16,3,FALSE)*IF(BH$27=BH$26,1,((BH$25-BH$26)/(BH$27-BH$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>13.081475451951057</v>
       </c>
       <c r="BI29" s="41">
-        <f>(SQRT((IF(BI$25&gt;$B$18,0,IF(BI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BI$26),(VLOOKUP(BI$27,$B$9:$D$16,3,FALSE)*IF(BI$27=BI$26,1,((BI$25-BI$26)/(BI$27-BI$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>13.435028842544334</v>
       </c>
       <c r="BJ29" s="41">
-        <f>(SQRT((IF(BJ$25&gt;$B$18,0,IF(BJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BJ$26),(VLOOKUP(BJ$27,$B$9:$D$16,3,FALSE)*IF(BJ$27=BJ$26,1,((BJ$25-BJ$26)/(BJ$27-BJ$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>13.788582233137605</v>
       </c>
       <c r="BK29" s="41">
-        <f>(SQRT((IF(BK$25&gt;$B$18,0,IF(BK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BK$26),(VLOOKUP(BK$27,$B$9:$D$16,3,FALSE)*IF(BK$27=BK$26,1,((BK$25-BK$26)/(BK$27-BK$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>14.142135623730882</v>
       </c>
       <c r="BL29" s="41">
-        <f>(SQRT((IF(BL$25&gt;$B$18,0,IF(BL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BL$26),(VLOOKUP(BL$27,$B$9:$D$16,3,FALSE)*IF(BL$27=BL$26,1,((BL$25-BL$26)/(BL$27-BL$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>14.495689014324153</v>
       </c>
       <c r="BM29" s="41">
-        <f>(SQRT((IF(BM$25&gt;$B$18,0,IF(BM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BM$26),(VLOOKUP(BM$27,$B$9:$D$16,3,FALSE)*IF(BM$27=BM$26,1,((BM$25-BM$26)/(BM$27-BM$26)))),0))^2)))</f>
+        <f t="shared" si="14"/>
         <v>14.849242404917426</v>
       </c>
       <c r="BN29" s="41">
-        <f>(SQRT((IF(BN$25&gt;$B$18,0,IF(BN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BN$26),(VLOOKUP(BN$27,$B$9:$D$16,3,FALSE)*IF(BN$27=BN$26,1,((BN$25-BN$26)/(BN$27-BN$26)))),0))^2)))</f>
+        <f t="shared" ref="BN29:CS29" si="15">(SQRT((IF(BN$25&gt;$B$18,0,IF(BN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BN$26),(VLOOKUP(BN$27,$B$9:$D$16,3,FALSE)*IF(BN$27=BN$26,1,((BN$25-BN$26)/(BN$27-BN$26)))),0))^2)))</f>
         <v>15.202795795510703</v>
       </c>
       <c r="BO29" s="41">
-        <f>(SQRT((IF(BO$25&gt;$B$18,0,IF(BO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BO$26),(VLOOKUP(BO$27,$B$9:$D$16,3,FALSE)*IF(BO$27=BO$26,1,((BO$25-BO$26)/(BO$27-BO$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>15.556349186103974</v>
       </c>
       <c r="BP29" s="41">
-        <f>(SQRT((IF(BP$25&gt;$B$18,0,IF(BP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BP$26),(VLOOKUP(BP$27,$B$9:$D$16,3,FALSE)*IF(BP$27=BP$26,1,((BP$25-BP$26)/(BP$27-BP$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>15.909902576697249</v>
       </c>
       <c r="BQ29" s="41">
-        <f>(SQRT((IF(BQ$25&gt;$B$18,0,IF(BQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BQ$26),(VLOOKUP(BQ$27,$B$9:$D$16,3,FALSE)*IF(BQ$27=BQ$26,1,((BQ$25-BQ$26)/(BQ$27-BQ$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>16.263455967290522</v>
       </c>
       <c r="BR29" s="41">
-        <f>(SQRT((IF(BR$25&gt;$B$18,0,IF(BR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BR$26),(VLOOKUP(BR$27,$B$9:$D$16,3,FALSE)*IF(BR$27=BR$26,1,((BR$25-BR$26)/(BR$27-BR$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>16.617009357883795</v>
       </c>
       <c r="BS29" s="41">
-        <f>(SQRT((IF(BS$25&gt;$B$18,0,IF(BS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BS$26),(VLOOKUP(BS$27,$B$9:$D$16,3,FALSE)*IF(BS$27=BS$26,1,((BS$25-BS$26)/(BS$27-BS$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>16.970562748477072</v>
       </c>
       <c r="BT29" s="41">
-        <f>(SQRT((IF(BT$25&gt;$B$18,0,IF(BT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BT$26),(VLOOKUP(BT$27,$B$9:$D$16,3,FALSE)*IF(BT$27=BT$26,1,((BT$25-BT$26)/(BT$27-BT$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>17.324116139070345</v>
       </c>
       <c r="BU29" s="41">
-        <f>(SQRT((IF(BU$25&gt;$B$18,0,IF(BU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BU$26),(VLOOKUP(BU$27,$B$9:$D$16,3,FALSE)*IF(BU$27=BU$26,1,((BU$25-BU$26)/(BU$27-BU$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>17.677669529663618</v>
       </c>
       <c r="BV29" s="41">
-        <f>(SQRT((IF(BV$25&gt;$B$18,0,IF(BV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BV$26),(VLOOKUP(BV$27,$B$9:$D$16,3,FALSE)*IF(BV$27=BV$26,1,((BV$25-BV$26)/(BV$27-BV$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>0.35355339059316732</v>
       </c>
       <c r="BW29" s="41">
-        <f>(SQRT((IF(BW$25&gt;$B$18,0,IF(BW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BW$26),(VLOOKUP(BW$27,$B$9:$D$16,3,FALSE)*IF(BW$27=BW$26,1,((BW$25-BW$26)/(BW$27-BW$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>0.70710678118644144</v>
       </c>
       <c r="BX29" s="41">
-        <f>(SQRT((IF(BX$25&gt;$B$18,0,IF(BX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BX$26),(VLOOKUP(BX$27,$B$9:$D$16,3,FALSE)*IF(BX$27=BX$26,1,((BX$25-BX$26)/(BX$27-BX$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>1.0606601717797155</v>
       </c>
       <c r="BY29" s="41">
-        <f>(SQRT((IF(BY$25&gt;$B$18,0,IF(BY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BY$26),(VLOOKUP(BY$27,$B$9:$D$16,3,FALSE)*IF(BY$27=BY$26,1,((BY$25-BY$26)/(BY$27-BY$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>1.4142135623729895</v>
       </c>
       <c r="BZ29" s="41">
-        <f>(SQRT((IF(BZ$25&gt;$B$18,0,IF(BZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BZ$26),(VLOOKUP(BZ$27,$B$9:$D$16,3,FALSE)*IF(BZ$27=BZ$26,1,((BZ$25-BZ$26)/(BZ$27-BZ$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>1.7677669529662621</v>
       </c>
       <c r="CA29" s="41">
-        <f>(SQRT((IF(CA$25&gt;$B$18,0,IF(CA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CA$26),(VLOOKUP(CA$27,$B$9:$D$16,3,FALSE)*IF(CA$27=CA$26,1,((CA$25-CA$26)/(CA$27-CA$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>2.1213203435595358</v>
       </c>
       <c r="CB29" s="41">
-        <f>(SQRT((IF(CB$25&gt;$B$18,0,IF(CB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CB$26),(VLOOKUP(CB$27,$B$9:$D$16,3,FALSE)*IF(CB$27=CB$26,1,((CB$25-CB$26)/(CB$27-CB$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>2.4748737341528102</v>
       </c>
       <c r="CC29" s="41">
-        <f>(SQRT((IF(CC$25&gt;$B$18,0,IF(CC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CC$26),(VLOOKUP(CC$27,$B$9:$D$16,3,FALSE)*IF(CC$27=CC$26,1,((CC$25-CC$26)/(CC$27-CC$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>2.8284271247460846</v>
       </c>
       <c r="CD29" s="41">
-        <f>(SQRT((IF(CD$25&gt;$B$18,0,IF(CD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CD$26),(VLOOKUP(CD$27,$B$9:$D$16,3,FALSE)*IF(CD$27=CD$26,1,((CD$25-CD$26)/(CD$27-CD$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>3.1819805153393586</v>
       </c>
       <c r="CE29" s="41">
-        <f>(SQRT((IF(CE$25&gt;$B$18,0,IF(CE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CE$26),(VLOOKUP(CE$27,$B$9:$D$16,3,FALSE)*IF(CE$27=CE$26,1,((CE$25-CE$26)/(CE$27-CE$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>3.5355339059326307</v>
       </c>
       <c r="CF29" s="41">
-        <f>(SQRT((IF(CF$25&gt;$B$18,0,IF(CF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CF$26),(VLOOKUP(CF$27,$B$9:$D$16,3,FALSE)*IF(CF$27=CF$26,1,((CF$25-CF$26)/(CF$27-CF$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>3.8890872965259051</v>
       </c>
       <c r="CG29" s="41">
-        <f>(SQRT((IF(CG$25&gt;$B$18,0,IF(CG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CG$26),(VLOOKUP(CG$27,$B$9:$D$16,3,FALSE)*IF(CG$27=CG$26,1,((CG$25-CG$26)/(CG$27-CG$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>4.2426406871191791</v>
       </c>
       <c r="CH29" s="41">
-        <f>(SQRT((IF(CH$25&gt;$B$18,0,IF(CH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CH$26),(VLOOKUP(CH$27,$B$9:$D$16,3,FALSE)*IF(CH$27=CH$26,1,((CH$25-CH$26)/(CH$27-CH$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>4.596194077712453</v>
       </c>
       <c r="CI29" s="41">
-        <f>(SQRT((IF(CI$25&gt;$B$18,0,IF(CI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CI$26),(VLOOKUP(CI$27,$B$9:$D$16,3,FALSE)*IF(CI$27=CI$26,1,((CI$25-CI$26)/(CI$27-CI$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>4.949747468305727</v>
       </c>
       <c r="CJ29" s="41">
-        <f>(SQRT((IF(CJ$25&gt;$B$18,0,IF(CJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CJ$26),(VLOOKUP(CJ$27,$B$9:$D$16,3,FALSE)*IF(CJ$27=CJ$26,1,((CJ$25-CJ$26)/(CJ$27-CJ$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>5.3033008588989992</v>
       </c>
       <c r="CK29" s="41">
-        <f>(SQRT((IF(CK$25&gt;$B$18,0,IF(CK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CK$26),(VLOOKUP(CK$27,$B$9:$D$16,3,FALSE)*IF(CK$27=CK$26,1,((CK$25-CK$26)/(CK$27-CK$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>5.656854249492274</v>
       </c>
       <c r="CL29" s="41">
-        <f>(SQRT((IF(CL$25&gt;$B$18,0,IF(CL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CL$26),(VLOOKUP(CL$27,$B$9:$D$16,3,FALSE)*IF(CL$27=CL$26,1,((CL$25-CL$26)/(CL$27-CL$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>6.010407640085548</v>
       </c>
       <c r="CM29" s="41">
-        <f>(SQRT((IF(CM$25&gt;$B$18,0,IF(CM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CM$26),(VLOOKUP(CM$27,$B$9:$D$16,3,FALSE)*IF(CM$27=CM$26,1,((CM$25-CM$26)/(CM$27-CM$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>6.3639610306788219</v>
       </c>
       <c r="CN29" s="41">
-        <f>(SQRT((IF(CN$25&gt;$B$18,0,IF(CN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CN$26),(VLOOKUP(CN$27,$B$9:$D$16,3,FALSE)*IF(CN$27=CN$26,1,((CN$25-CN$26)/(CN$27-CN$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>6.7175144212720959</v>
       </c>
       <c r="CO29" s="41">
-        <f>(SQRT((IF(CO$25&gt;$B$18,0,IF(CO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CO$26),(VLOOKUP(CO$27,$B$9:$D$16,3,FALSE)*IF(CO$27=CO$26,1,((CO$25-CO$26)/(CO$27-CO$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>7.0710678118653689</v>
       </c>
       <c r="CP29" s="41">
-        <f>(SQRT((IF(CP$25&gt;$B$18,0,IF(CP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CP$26),(VLOOKUP(CP$27,$B$9:$D$16,3,FALSE)*IF(CP$27=CP$26,1,((CP$25-CP$26)/(CP$27-CP$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>7.4246212024586447</v>
       </c>
       <c r="CQ29" s="41">
-        <f>(SQRT((IF(CQ$25&gt;$B$18,0,IF(CQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CQ$26),(VLOOKUP(CQ$27,$B$9:$D$16,3,FALSE)*IF(CQ$27=CQ$26,1,((CQ$25-CQ$26)/(CQ$27-CQ$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>7.7781745930519159</v>
       </c>
       <c r="CR29" s="41">
-        <f>(SQRT((IF(CR$25&gt;$B$18,0,IF(CR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CR$26),(VLOOKUP(CR$27,$B$9:$D$16,3,FALSE)*IF(CR$27=CR$26,1,((CR$25-CR$26)/(CR$27-CR$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>8.1317279836451899</v>
       </c>
       <c r="CS29" s="41">
-        <f>(SQRT((IF(CS$25&gt;$B$18,0,IF(CS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CS$26),(VLOOKUP(CS$27,$B$9:$D$16,3,FALSE)*IF(CS$27=CS$26,1,((CS$25-CS$26)/(CS$27-CS$26)))),0))^2)))</f>
+        <f t="shared" si="15"/>
         <v>8.4852813742384647</v>
       </c>
       <c r="CT29" s="41">
-        <f>(SQRT((IF(CT$25&gt;$B$18,0,IF(CT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CT$26),(VLOOKUP(CT$27,$B$9:$D$16,3,FALSE)*IF(CT$27=CT$26,1,((CT$25-CT$26)/(CT$27-CT$26)))),0))^2)))</f>
+        <f t="shared" ref="CT29:CZ29" si="16">(SQRT((IF(CT$25&gt;$B$18,0,IF(CT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CT$26),(VLOOKUP(CT$27,$B$9:$D$16,3,FALSE)*IF(CT$27=CT$26,1,((CT$25-CT$26)/(CT$27-CT$26)))),0))^2)))</f>
         <v>8.8388347648317378</v>
       </c>
       <c r="CU29" s="41">
-        <f>(SQRT((IF(CU$25&gt;$B$18,0,IF(CU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CU$26),(VLOOKUP(CU$27,$B$9:$D$16,3,FALSE)*IF(CU$27=CU$26,1,((CU$25-CU$26)/(CU$27-CU$26)))),0))^2)))</f>
+        <f t="shared" si="16"/>
         <v>9.1923881554250126</v>
       </c>
       <c r="CV29" s="41">
-        <f>(SQRT((IF(CV$25&gt;$B$18,0,IF(CV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CV$26),(VLOOKUP(CV$27,$B$9:$D$16,3,FALSE)*IF(CV$27=CV$26,1,((CV$25-CV$26)/(CV$27-CV$26)))),0))^2)))</f>
+        <f t="shared" si="16"/>
         <v>9.5459415460182857</v>
       </c>
       <c r="CW29" s="41">
-        <f>(SQRT((IF(CW$25&gt;$B$18,0,IF(CW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CW$26),(VLOOKUP(CW$27,$B$9:$D$16,3,FALSE)*IF(CW$27=CW$26,1,((CW$25-CW$26)/(CW$27-CW$26)))),0))^2)))</f>
+        <f t="shared" si="16"/>
         <v>9.8994949366115588</v>
       </c>
       <c r="CX29" s="41">
-        <f>(SQRT((IF(CX$25&gt;$B$18,0,IF(CX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CX$26),(VLOOKUP(CX$27,$B$9:$D$16,3,FALSE)*IF(CX$27=CX$26,1,((CX$25-CX$26)/(CX$27-CX$26)))),0))^2)))</f>
+        <f t="shared" si="16"/>
         <v>10.2530483272048</v>
       </c>
       <c r="CY29" s="41">
-        <f>(SQRT((IF(CY$25&gt;$B$18,0,IF(CY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CY$26),(VLOOKUP(CY$27,$B$9:$D$16,3,FALSE)*IF(CY$27=CY$26,1,((CY$25-CY$26)/(CY$27-CY$26)))),0))^2)))</f>
+        <f t="shared" si="16"/>
         <v>10.606601717798071</v>
       </c>
       <c r="CZ29" s="42">
-        <f>(SQRT((IF(CZ$25&gt;$B$18,0,IF(CZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CZ$26),(VLOOKUP(CZ$27,$B$9:$D$16,3,FALSE)*IF(CZ$27=CZ$26,1,((CZ$25-CZ$26)/(CZ$27-CZ$26)))),0))^2)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6251,415 +6253,415 @@
         <v>16</v>
       </c>
       <c r="B30" s="15">
-        <f>(SQRT((IF(B$25&gt;$B$18,0,IF(B$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(B$26),(VLOOKUP(B$26,$B$9:$D$16,3,FALSE)*IF(B$27=B$26,1,((B$27-B$25)/(B$27-B$26)))),0))^2)))</f>
+        <f t="shared" ref="B30:AG30" si="17">(SQRT((IF(B$25&gt;$B$18,0,IF(B$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(B$26),(VLOOKUP(B$26,$B$9:$D$16,3,FALSE)*IF(B$27=B$26,1,((B$27-B$25)/(B$27-B$26)))),0))^2)))</f>
         <v>0</v>
       </c>
       <c r="C30" s="41">
-        <f>(SQRT((IF(C$25&gt;$B$18,0,IF(C$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(C$26),(VLOOKUP(C$26,$B$9:$D$16,3,FALSE)*IF(C$27=C$26,1,((C$27-C$25)/(C$27-C$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>17.677669529663689</v>
       </c>
       <c r="D30" s="41">
-        <f>(SQRT((IF(D$25&gt;$B$18,0,IF(D$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(D$26),(VLOOKUP(D$26,$B$9:$D$16,3,FALSE)*IF(D$27=D$26,1,((D$27-D$25)/(D$27-D$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>16.793786053180508</v>
       </c>
       <c r="E30" s="41">
-        <f>(SQRT((IF(E$25&gt;$B$18,0,IF(E$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(E$26),(VLOOKUP(E$26,$B$9:$D$16,3,FALSE)*IF(E$27=E$26,1,((E$27-E$25)/(E$27-E$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>15.90990257669732</v>
       </c>
       <c r="F30" s="41">
-        <f>(SQRT((IF(F$25&gt;$B$18,0,IF(F$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(F$26),(VLOOKUP(F$26,$B$9:$D$16,3,FALSE)*IF(F$27=F$26,1,((F$27-F$25)/(F$27-F$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>15.026019100214135</v>
       </c>
       <c r="G30" s="41">
-        <f>(SQRT((IF(G$25&gt;$B$18,0,IF(G$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(G$26),(VLOOKUP(G$26,$B$9:$D$16,3,FALSE)*IF(G$27=G$26,1,((G$27-G$25)/(G$27-G$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>14.142135623730947</v>
       </c>
       <c r="H30" s="41">
-        <f>(SQRT((IF(H$25&gt;$B$18,0,IF(H$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(H$26),(VLOOKUP(H$26,$B$9:$D$16,3,FALSE)*IF(H$27=H$26,1,((H$27-H$25)/(H$27-H$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>13.258252147247767</v>
       </c>
       <c r="I30" s="41">
-        <f>(SQRT((IF(I$25&gt;$B$18,0,IF(I$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(I$26),(VLOOKUP(I$26,$B$9:$D$16,3,FALSE)*IF(I$27=I$26,1,((I$27-I$25)/(I$27-I$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>12.374368670764586</v>
       </c>
       <c r="J30" s="41">
-        <f>(SQRT((IF(J$25&gt;$B$18,0,IF(J$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(J$26),(VLOOKUP(J$26,$B$9:$D$16,3,FALSE)*IF(J$27=J$26,1,((J$27-J$25)/(J$27-J$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>11.490485194281394</v>
       </c>
       <c r="K30" s="41">
-        <f>(SQRT((IF(K$25&gt;$B$18,0,IF(K$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(K$26),(VLOOKUP(K$26,$B$9:$D$16,3,FALSE)*IF(K$27=K$26,1,((K$27-K$25)/(K$27-K$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>10.606601717798215</v>
       </c>
       <c r="L30" s="41">
-        <f>(SQRT((IF(L$25&gt;$B$18,0,IF(L$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(L$26),(VLOOKUP(L$26,$B$9:$D$16,3,FALSE)*IF(L$27=L$26,1,((L$27-L$25)/(L$27-L$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>9.7227182413150253</v>
       </c>
       <c r="M30" s="41">
-        <f>(SQRT((IF(M$25&gt;$B$18,0,IF(M$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(M$26),(VLOOKUP(M$26,$B$9:$D$16,3,FALSE)*IF(M$27=M$26,1,((M$27-M$25)/(M$27-M$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>8.8388347648318444</v>
       </c>
       <c r="N30" s="41">
-        <f>(SQRT((IF(N$25&gt;$B$18,0,IF(N$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(N$26),(VLOOKUP(N$26,$B$9:$D$16,3,FALSE)*IF(N$27=N$26,1,((N$27-N$25)/(N$27-N$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>7.9549512883486599</v>
       </c>
       <c r="O30" s="41">
-        <f>(SQRT((IF(O$25&gt;$B$18,0,IF(O$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(O$26),(VLOOKUP(O$26,$B$9:$D$16,3,FALSE)*IF(O$27=O$26,1,((O$27-O$25)/(O$27-O$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>7.0710678118654737</v>
       </c>
       <c r="P30" s="41">
-        <f>(SQRT((IF(P$25&gt;$B$18,0,IF(P$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(P$26),(VLOOKUP(P$26,$B$9:$D$16,3,FALSE)*IF(P$27=P$26,1,((P$27-P$25)/(P$27-P$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>6.1871843353822928</v>
       </c>
       <c r="Q30" s="41">
-        <f>(SQRT((IF(Q$25&gt;$B$18,0,IF(Q$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Q$26),(VLOOKUP(Q$26,$B$9:$D$16,3,FALSE)*IF(Q$27=Q$26,1,((Q$27-Q$25)/(Q$27-Q$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>5.3033008588991075</v>
       </c>
       <c r="R30" s="41">
-        <f>(SQRT((IF(R$25&gt;$B$18,0,IF(R$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(R$26),(VLOOKUP(R$26,$B$9:$D$16,3,FALSE)*IF(R$27=R$26,1,((R$27-R$25)/(R$27-R$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>4.4194173824160128</v>
       </c>
       <c r="S30" s="41">
-        <f>(SQRT((IF(S$25&gt;$B$18,0,IF(S$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(S$26),(VLOOKUP(S$26,$B$9:$D$16,3,FALSE)*IF(S$27=S$26,1,((S$27-S$25)/(S$27-S$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>3.535533905932827</v>
       </c>
       <c r="T30" s="41">
-        <f>(SQRT((IF(T$25&gt;$B$18,0,IF(T$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(T$26),(VLOOKUP(T$26,$B$9:$D$16,3,FALSE)*IF(T$27=T$26,1,((T$27-T$25)/(T$27-T$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>2.6516504294496421</v>
       </c>
       <c r="U30" s="41">
-        <f>(SQRT((IF(U$25&gt;$B$18,0,IF(U$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(U$26),(VLOOKUP(U$26,$B$9:$D$16,3,FALSE)*IF(U$27=U$26,1,((U$27-U$25)/(U$27-U$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>1.7677669529664568</v>
       </c>
       <c r="V30" s="41">
-        <f>(SQRT((IF(V$25&gt;$B$18,0,IF(V$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(V$26),(VLOOKUP(V$26,$B$9:$D$16,3,FALSE)*IF(V$27=V$26,1,((V$27-V$25)/(V$27-V$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>0.88388347648327159</v>
       </c>
       <c r="W30" s="41">
-        <f>(SQRT((IF(W$25&gt;$B$18,0,IF(W$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(W$26),(VLOOKUP(W$26,$B$9:$D$16,3,FALSE)*IF(W$27=W$26,1,((W$27-W$25)/(W$27-W$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>9.0280316374317063E-14</v>
       </c>
       <c r="X30" s="41">
-        <f>(SQRT((IF(X$25&gt;$B$18,0,IF(X$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(X$26),(VLOOKUP(X$26,$B$9:$D$16,3,FALSE)*IF(X$27=X$26,1,((X$27-X$25)/(X$27-X$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>24.253762594698628</v>
       </c>
       <c r="Y30" s="41">
-        <f>(SQRT((IF(Y$25&gt;$B$18,0,IF(Y$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Y$26),(VLOOKUP(Y$26,$B$9:$D$16,3,FALSE)*IF(Y$27=Y$26,1,((Y$27-Y$25)/(Y$27-Y$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>23.758787847868046</v>
       </c>
       <c r="Z30" s="41">
-        <f>(SQRT((IF(Z$25&gt;$B$18,0,IF(Z$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Z$26),(VLOOKUP(Z$26,$B$9:$D$16,3,FALSE)*IF(Z$27=Z$26,1,((Z$27-Z$25)/(Z$27-Z$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>23.26381310103746</v>
       </c>
       <c r="AA30" s="41">
-        <f>(SQRT((IF(AA$25&gt;$B$18,0,IF(AA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AA$26),(VLOOKUP(AA$26,$B$9:$D$16,3,FALSE)*IF(AA$27=AA$26,1,((AA$27-AA$25)/(AA$27-AA$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>22.768838354206881</v>
       </c>
       <c r="AB30" s="41">
-        <f>(SQRT((IF(AB$25&gt;$B$18,0,IF(AB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AB$26),(VLOOKUP(AB$26,$B$9:$D$16,3,FALSE)*IF(AB$27=AB$26,1,((AB$27-AB$25)/(AB$27-AB$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>22.273863607376299</v>
       </c>
       <c r="AC30" s="41">
-        <f>(SQRT((IF(AC$25&gt;$B$18,0,IF(AC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AC$26),(VLOOKUP(AC$26,$B$9:$D$16,3,FALSE)*IF(AC$27=AC$26,1,((AC$27-AC$25)/(AC$27-AC$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>21.778888860545713</v>
       </c>
       <c r="AD30" s="41">
-        <f>(SQRT((IF(AD$25&gt;$B$18,0,IF(AD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AD$26),(VLOOKUP(AD$26,$B$9:$D$16,3,FALSE)*IF(AD$27=AD$26,1,((AD$27-AD$25)/(AD$27-AD$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>21.283914113715127</v>
       </c>
       <c r="AE30" s="41">
-        <f>(SQRT((IF(AE$25&gt;$B$18,0,IF(AE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AE$26),(VLOOKUP(AE$26,$B$9:$D$16,3,FALSE)*IF(AE$27=AE$26,1,((AE$27-AE$25)/(AE$27-AE$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>20.788939366884549</v>
       </c>
       <c r="AF30" s="41">
-        <f>(SQRT((IF(AF$25&gt;$B$18,0,IF(AF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AF$26),(VLOOKUP(AF$26,$B$9:$D$16,3,FALSE)*IF(AF$27=AF$26,1,((AF$27-AF$25)/(AF$27-AF$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>20.293964620053966</v>
       </c>
       <c r="AG30" s="41">
-        <f>(SQRT((IF(AG$25&gt;$B$18,0,IF(AG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AG$26),(VLOOKUP(AG$26,$B$9:$D$16,3,FALSE)*IF(AG$27=AG$26,1,((AG$27-AG$25)/(AG$27-AG$26)))),0))^2)))</f>
+        <f t="shared" si="17"/>
         <v>19.798989873223384</v>
       </c>
       <c r="AH30" s="41">
-        <f>(SQRT((IF(AH$25&gt;$B$18,0,IF(AH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AH$26),(VLOOKUP(AH$26,$B$9:$D$16,3,FALSE)*IF(AH$27=AH$26,1,((AH$27-AH$25)/(AH$27-AH$26)))),0))^2)))</f>
+        <f t="shared" ref="AH30:BM30" si="18">(SQRT((IF(AH$25&gt;$B$18,0,IF(AH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AH$26),(VLOOKUP(AH$26,$B$9:$D$16,3,FALSE)*IF(AH$27=AH$26,1,((AH$27-AH$25)/(AH$27-AH$26)))),0))^2)))</f>
         <v>19.304015126392798</v>
       </c>
       <c r="AI30" s="41">
-        <f>(SQRT((IF(AI$25&gt;$B$18,0,IF(AI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AI$26),(VLOOKUP(AI$26,$B$9:$D$16,3,FALSE)*IF(AI$27=AI$26,1,((AI$27-AI$25)/(AI$27-AI$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>18.809040379562216</v>
       </c>
       <c r="AJ30" s="41">
-        <f>(SQRT((IF(AJ$25&gt;$B$18,0,IF(AJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AJ$26),(VLOOKUP(AJ$26,$B$9:$D$16,3,FALSE)*IF(AJ$27=AJ$26,1,((AJ$27-AJ$25)/(AJ$27-AJ$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>18.31406563273163</v>
       </c>
       <c r="AK30" s="41">
-        <f>(SQRT((IF(AK$25&gt;$B$18,0,IF(AK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AK$26),(VLOOKUP(AK$26,$B$9:$D$16,3,FALSE)*IF(AK$27=AK$26,1,((AK$27-AK$25)/(AK$27-AK$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>17.819090885901048</v>
       </c>
       <c r="AL30" s="41">
-        <f>(SQRT((IF(AL$25&gt;$B$18,0,IF(AL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AL$26),(VLOOKUP(AL$26,$B$9:$D$16,3,FALSE)*IF(AL$27=AL$26,1,((AL$27-AL$25)/(AL$27-AL$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>17.324116139070462</v>
       </c>
       <c r="AM30" s="41">
-        <f>(SQRT((IF(AM$25&gt;$B$18,0,IF(AM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AM$26),(VLOOKUP(AM$26,$B$9:$D$16,3,FALSE)*IF(AM$27=AM$26,1,((AM$27-AM$25)/(AM$27-AM$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>16.82914139223988</v>
       </c>
       <c r="AN30" s="41">
-        <f>(SQRT((IF(AN$25&gt;$B$18,0,IF(AN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AN$26),(VLOOKUP(AN$26,$B$9:$D$16,3,FALSE)*IF(AN$27=AN$26,1,((AN$27-AN$25)/(AN$27-AN$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>16.334166645409297</v>
       </c>
       <c r="AO30" s="41">
-        <f>(SQRT((IF(AO$25&gt;$B$18,0,IF(AO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AO$26),(VLOOKUP(AO$26,$B$9:$D$16,3,FALSE)*IF(AO$27=AO$26,1,((AO$27-AO$25)/(AO$27-AO$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>15.839191898578713</v>
       </c>
       <c r="AP30" s="41">
-        <f>(SQRT((IF(AP$25&gt;$B$18,0,IF(AP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AP$26),(VLOOKUP(AP$26,$B$9:$D$16,3,FALSE)*IF(AP$27=AP$26,1,((AP$27-AP$25)/(AP$27-AP$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>15.344217151748134</v>
       </c>
       <c r="AQ30" s="41">
-        <f>(SQRT((IF(AQ$25&gt;$B$18,0,IF(AQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AQ$26),(VLOOKUP(AQ$26,$B$9:$D$16,3,FALSE)*IF(AQ$27=AQ$26,1,((AQ$27-AQ$25)/(AQ$27-AQ$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>14.849242404917545</v>
       </c>
       <c r="AR30" s="41">
-        <f>(SQRT((IF(AR$25&gt;$B$18,0,IF(AR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AR$26),(VLOOKUP(AR$26,$B$9:$D$16,3,FALSE)*IF(AR$27=AR$26,1,((AR$27-AR$25)/(AR$27-AR$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>14.354267658086966</v>
       </c>
       <c r="AS30" s="41">
-        <f>(SQRT((IF(AS$25&gt;$B$18,0,IF(AS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AS$26),(VLOOKUP(AS$26,$B$9:$D$16,3,FALSE)*IF(AS$27=AS$26,1,((AS$27-AS$25)/(AS$27-AS$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>13.859292911256381</v>
       </c>
       <c r="AT30" s="41">
-        <f>(SQRT((IF(AT$25&gt;$B$18,0,IF(AT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AT$26),(VLOOKUP(AT$26,$B$9:$D$16,3,FALSE)*IF(AT$27=AT$26,1,((AT$27-AT$25)/(AT$27-AT$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>13.364318164425848</v>
       </c>
       <c r="AU30" s="41">
-        <f>(SQRT((IF(AU$25&gt;$B$18,0,IF(AU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AU$26),(VLOOKUP(AU$26,$B$9:$D$16,3,FALSE)*IF(AU$27=AU$26,1,((AU$27-AU$25)/(AU$27-AU$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>12.869343417595264</v>
       </c>
       <c r="AV30" s="41">
-        <f>(SQRT((IF(AV$25&gt;$B$18,0,IF(AV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AV$26),(VLOOKUP(AV$26,$B$9:$D$16,3,FALSE)*IF(AV$27=AV$26,1,((AV$27-AV$25)/(AV$27-AV$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>12.37436867076468</v>
       </c>
       <c r="AW30" s="41">
-        <f>(SQRT((IF(AW$25&gt;$B$18,0,IF(AW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AW$26),(VLOOKUP(AW$26,$B$9:$D$16,3,FALSE)*IF(AW$27=AW$26,1,((AW$27-AW$25)/(AW$27-AW$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>11.879393923934098</v>
       </c>
       <c r="AX30" s="41">
-        <f>(SQRT((IF(AX$25&gt;$B$18,0,IF(AX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AX$26),(VLOOKUP(AX$26,$B$9:$D$16,3,FALSE)*IF(AX$27=AX$26,1,((AX$27-AX$25)/(AX$27-AX$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>11.384419177103513</v>
       </c>
       <c r="AY30" s="41">
-        <f>(SQRT((IF(AY$25&gt;$B$18,0,IF(AY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AY$26),(VLOOKUP(AY$26,$B$9:$D$16,3,FALSE)*IF(AY$27=AY$26,1,((AY$27-AY$25)/(AY$27-AY$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>10.889444430272933</v>
       </c>
       <c r="AZ30" s="41">
-        <f>(SQRT((IF(AZ$25&gt;$B$18,0,IF(AZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AZ$26),(VLOOKUP(AZ$26,$B$9:$D$16,3,FALSE)*IF(AZ$27=AZ$26,1,((AZ$27-AZ$25)/(AZ$27-AZ$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>10.394469683442349</v>
       </c>
       <c r="BA30" s="41">
-        <f>(SQRT((IF(BA$25&gt;$B$18,0,IF(BA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BA$26),(VLOOKUP(BA$26,$B$9:$D$16,3,FALSE)*IF(BA$27=BA$26,1,((BA$27-BA$25)/(BA$27-BA$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>9.8994949366117666</v>
       </c>
       <c r="BB30" s="41">
-        <f>(SQRT((IF(BB$25&gt;$B$18,0,IF(BB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BB$26),(VLOOKUP(BB$26,$B$9:$D$16,3,FALSE)*IF(BB$27=BB$26,1,((BB$27-BB$25)/(BB$27-BB$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>9.4045201897811808</v>
       </c>
       <c r="BC30" s="41">
-        <f>(SQRT((IF(BC$25&gt;$B$18,0,IF(BC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BC$26),(VLOOKUP(BC$26,$B$9:$D$16,3,FALSE)*IF(BC$27=BC$26,1,((BC$27-BC$25)/(BC$27-BC$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>8.9095454429505967</v>
       </c>
       <c r="BD30" s="41">
-        <f>(SQRT((IF(BD$25&gt;$B$18,0,IF(BD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BD$26),(VLOOKUP(BD$26,$B$9:$D$16,3,FALSE)*IF(BD$27=BD$26,1,((BD$27-BD$25)/(BD$27-BD$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>8.4145706961200144</v>
       </c>
       <c r="BE30" s="41">
-        <f>(SQRT((IF(BE$25&gt;$B$18,0,IF(BE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BE$26),(VLOOKUP(BE$26,$B$9:$D$16,3,FALSE)*IF(BE$27=BE$26,1,((BE$27-BE$25)/(BE$27-BE$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>7.9195959492894321</v>
       </c>
       <c r="BF30" s="41">
-        <f>(SQRT((IF(BF$25&gt;$B$18,0,IF(BF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BF$26),(VLOOKUP(BF$26,$B$9:$D$16,3,FALSE)*IF(BF$27=BF$26,1,((BF$27-BF$25)/(BF$27-BF$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>7.4246212024588489</v>
       </c>
       <c r="BG30" s="41">
-        <f>(SQRT((IF(BG$25&gt;$B$18,0,IF(BG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BG$26),(VLOOKUP(BG$26,$B$9:$D$16,3,FALSE)*IF(BG$27=BG$26,1,((BG$27-BG$25)/(BG$27-BG$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>6.9296464556282631</v>
       </c>
       <c r="BH30" s="41">
-        <f>(SQRT((IF(BH$25&gt;$B$18,0,IF(BH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BH$26),(VLOOKUP(BH$26,$B$9:$D$16,3,FALSE)*IF(BH$27=BH$26,1,((BH$27-BH$25)/(BH$27-BH$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>6.4346717087976817</v>
       </c>
       <c r="BI30" s="41">
-        <f>(SQRT((IF(BI$25&gt;$B$18,0,IF(BI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BI$26),(VLOOKUP(BI$26,$B$9:$D$16,3,FALSE)*IF(BI$27=BI$26,1,((BI$27-BI$25)/(BI$27-BI$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>5.9396969619670994</v>
       </c>
       <c r="BJ30" s="41">
-        <f>(SQRT((IF(BJ$25&gt;$B$18,0,IF(BJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BJ$26),(VLOOKUP(BJ$26,$B$9:$D$16,3,FALSE)*IF(BJ$27=BJ$26,1,((BJ$27-BJ$25)/(BJ$27-BJ$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>5.4447222151365153</v>
       </c>
       <c r="BK30" s="41">
-        <f>(SQRT((IF(BK$25&gt;$B$18,0,IF(BK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BK$26),(VLOOKUP(BK$26,$B$9:$D$16,3,FALSE)*IF(BK$27=BK$26,1,((BK$27-BK$25)/(BK$27-BK$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>4.9497474683059322</v>
       </c>
       <c r="BL30" s="41">
-        <f>(SQRT((IF(BL$25&gt;$B$18,0,IF(BL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BL$26),(VLOOKUP(BL$26,$B$9:$D$16,3,FALSE)*IF(BL$27=BL$26,1,((BL$27-BL$25)/(BL$27-BL$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>4.4547727214753481</v>
       </c>
       <c r="BM30" s="41">
-        <f>(SQRT((IF(BM$25&gt;$B$18,0,IF(BM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BM$26),(VLOOKUP(BM$26,$B$9:$D$16,3,FALSE)*IF(BM$27=BM$26,1,((BM$27-BM$25)/(BM$27-BM$26)))),0))^2)))</f>
+        <f t="shared" si="18"/>
         <v>3.9597979746447654</v>
       </c>
       <c r="BN30" s="41">
-        <f>(SQRT((IF(BN$25&gt;$B$18,0,IF(BN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BN$26),(VLOOKUP(BN$26,$B$9:$D$16,3,FALSE)*IF(BN$27=BN$26,1,((BN$27-BN$25)/(BN$27-BN$26)))),0))^2)))</f>
+        <f t="shared" ref="BN30:CS30" si="19">(SQRT((IF(BN$25&gt;$B$18,0,IF(BN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BN$26),(VLOOKUP(BN$26,$B$9:$D$16,3,FALSE)*IF(BN$27=BN$26,1,((BN$27-BN$25)/(BN$27-BN$26)))),0))^2)))</f>
         <v>3.4648232278141813</v>
       </c>
       <c r="BO30" s="41">
-        <f>(SQRT((IF(BO$25&gt;$B$18,0,IF(BO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BO$26),(VLOOKUP(BO$26,$B$9:$D$16,3,FALSE)*IF(BO$27=BO$26,1,((BO$27-BO$25)/(BO$27-BO$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>2.9698484809835994</v>
       </c>
       <c r="BP30" s="41">
-        <f>(SQRT((IF(BP$25&gt;$B$18,0,IF(BP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BP$26),(VLOOKUP(BP$26,$B$9:$D$16,3,FALSE)*IF(BP$27=BP$26,1,((BP$27-BP$25)/(BP$27-BP$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>2.4748737341530154</v>
       </c>
       <c r="BQ30" s="41">
-        <f>(SQRT((IF(BQ$25&gt;$B$18,0,IF(BQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BQ$26),(VLOOKUP(BQ$26,$B$9:$D$16,3,FALSE)*IF(BQ$27=BQ$26,1,((BQ$27-BQ$25)/(BQ$27-BQ$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>1.9798989873224317</v>
       </c>
       <c r="BR30" s="41">
-        <f>(SQRT((IF(BR$25&gt;$B$18,0,IF(BR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BR$26),(VLOOKUP(BR$26,$B$9:$D$16,3,FALSE)*IF(BR$27=BR$26,1,((BR$27-BR$25)/(BR$27-BR$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>1.484924240491849</v>
       </c>
       <c r="BS30" s="41">
-        <f>(SQRT((IF(BS$25&gt;$B$18,0,IF(BS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BS$26),(VLOOKUP(BS$26,$B$9:$D$16,3,FALSE)*IF(BS$27=BS$26,1,((BS$27-BS$25)/(BS$27-BS$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>0.98994949366126528</v>
       </c>
       <c r="BT30" s="41">
-        <f>(SQRT((IF(BT$25&gt;$B$18,0,IF(BT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BT$26),(VLOOKUP(BT$26,$B$9:$D$16,3,FALSE)*IF(BT$27=BT$26,1,((BT$27-BT$25)/(BT$27-BT$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>0.49497474683068265</v>
       </c>
       <c r="BU30" s="41">
-        <f>(SQRT((IF(BU$25&gt;$B$18,0,IF(BU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BU$26),(VLOOKUP(BU$26,$B$9:$D$16,3,FALSE)*IF(BU$27=BU$26,1,((BU$27-BU$25)/(BU$27-BU$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>9.8915824897077832E-14</v>
       </c>
       <c r="BV30" s="41">
-        <f>(SQRT((IF(BV$25&gt;$B$18,0,IF(BV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BV$26),(VLOOKUP(BV$26,$B$9:$D$16,3,FALSE)*IF(BV$27=BV$26,1,((BV$27-BV$25)/(BV$27-BV$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>17.088413878675077</v>
       </c>
       <c r="BW30" s="41">
-        <f>(SQRT((IF(BW$25&gt;$B$18,0,IF(BW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BW$26),(VLOOKUP(BW$26,$B$9:$D$16,3,FALSE)*IF(BW$27=BW$26,1,((BW$27-BW$25)/(BW$27-BW$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>16.499158227686284</v>
       </c>
       <c r="BX30" s="41">
-        <f>(SQRT((IF(BX$25&gt;$B$18,0,IF(BX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BX$26),(VLOOKUP(BX$26,$B$9:$D$16,3,FALSE)*IF(BX$27=BX$26,1,((BX$27-BX$25)/(BX$27-BX$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>15.909902576697496</v>
       </c>
       <c r="BY30" s="41">
-        <f>(SQRT((IF(BY$25&gt;$B$18,0,IF(BY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BY$26),(VLOOKUP(BY$26,$B$9:$D$16,3,FALSE)*IF(BY$27=BY$26,1,((BY$27-BY$25)/(BY$27-BY$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>15.320646925708704</v>
       </c>
       <c r="BZ30" s="41">
-        <f>(SQRT((IF(BZ$25&gt;$B$18,0,IF(BZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BZ$26),(VLOOKUP(BZ$26,$B$9:$D$16,3,FALSE)*IF(BZ$27=BZ$26,1,((BZ$27-BZ$25)/(BZ$27-BZ$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>14.731391274719916</v>
       </c>
       <c r="CA30" s="41">
-        <f>(SQRT((IF(CA$25&gt;$B$18,0,IF(CA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CA$26),(VLOOKUP(CA$26,$B$9:$D$16,3,FALSE)*IF(CA$27=CA$26,1,((CA$27-CA$25)/(CA$27-CA$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>14.142135623731127</v>
       </c>
       <c r="CB30" s="41">
-        <f>(SQRT((IF(CB$25&gt;$B$18,0,IF(CB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CB$26),(VLOOKUP(CB$26,$B$9:$D$16,3,FALSE)*IF(CB$27=CB$26,1,((CB$27-CB$25)/(CB$27-CB$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>13.552879972742339</v>
       </c>
       <c r="CC30" s="41">
-        <f>(SQRT((IF(CC$25&gt;$B$18,0,IF(CC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CC$26),(VLOOKUP(CC$26,$B$9:$D$16,3,FALSE)*IF(CC$27=CC$26,1,((CC$27-CC$25)/(CC$27-CC$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>12.963624321753548</v>
       </c>
       <c r="CD30" s="41">
-        <f>(SQRT((IF(CD$25&gt;$B$18,0,IF(CD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CD$26),(VLOOKUP(CD$26,$B$9:$D$16,3,FALSE)*IF(CD$27=CD$26,1,((CD$27-CD$25)/(CD$27-CD$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>12.374368670764758</v>
       </c>
       <c r="CE30" s="41">
-        <f>(SQRT((IF(CE$25&gt;$B$18,0,IF(CE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CE$26),(VLOOKUP(CE$26,$B$9:$D$16,3,FALSE)*IF(CE$27=CE$26,1,((CE$27-CE$25)/(CE$27-CE$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>11.78511301977597</v>
       </c>
       <c r="CF30" s="41">
-        <f>(SQRT((IF(CF$25&gt;$B$18,0,IF(CF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CF$26),(VLOOKUP(CF$26,$B$9:$D$16,3,FALSE)*IF(CF$27=CF$26,1,((CF$27-CF$25)/(CF$27-CF$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>11.195857368787182</v>
       </c>
       <c r="CG30" s="41">
-        <f>(SQRT((IF(CG$25&gt;$B$18,0,IF(CG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CG$26),(VLOOKUP(CG$26,$B$9:$D$16,3,FALSE)*IF(CG$27=CG$26,1,((CG$27-CG$25)/(CG$27-CG$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>10.606601717798389</v>
       </c>
       <c r="CH30" s="41">
-        <f>(SQRT((IF(CH$25&gt;$B$18,0,IF(CH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CH$26),(VLOOKUP(CH$26,$B$9:$D$16,3,FALSE)*IF(CH$27=CH$26,1,((CH$27-CH$25)/(CH$27-CH$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>10.017346066809599</v>
       </c>
       <c r="CI30" s="41">
-        <f>(SQRT((IF(CI$25&gt;$B$18,0,IF(CI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CI$26),(VLOOKUP(CI$26,$B$9:$D$16,3,FALSE)*IF(CI$27=CI$26,1,((CI$27-CI$25)/(CI$27-CI$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>9.4280904158208099</v>
       </c>
       <c r="CJ30" s="41">
-        <f>(SQRT((IF(CJ$25&gt;$B$18,0,IF(CJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CJ$26),(VLOOKUP(CJ$26,$B$9:$D$16,3,FALSE)*IF(CJ$27=CJ$26,1,((CJ$27-CJ$25)/(CJ$27-CJ$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>8.8388347648320238</v>
       </c>
       <c r="CK30" s="41">
-        <f>(SQRT((IF(CK$25&gt;$B$18,0,IF(CK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CK$26),(VLOOKUP(CK$26,$B$9:$D$16,3,FALSE)*IF(CK$27=CK$26,1,((CK$27-CK$25)/(CK$27-CK$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>8.2495791138432324</v>
       </c>
       <c r="CL30" s="41">
-        <f>(SQRT((IF(CL$25&gt;$B$18,0,IF(CL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CL$26),(VLOOKUP(CL$26,$B$9:$D$16,3,FALSE)*IF(CL$27=CL$26,1,((CL$27-CL$25)/(CL$27-CL$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>7.6603234628544419</v>
       </c>
       <c r="CM30" s="41">
-        <f>(SQRT((IF(CM$25&gt;$B$18,0,IF(CM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CM$26),(VLOOKUP(CM$26,$B$9:$D$16,3,FALSE)*IF(CM$27=CM$26,1,((CM$27-CM$25)/(CM$27-CM$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>7.0710678118656514</v>
       </c>
       <c r="CN30" s="41">
-        <f>(SQRT((IF(CN$25&gt;$B$18,0,IF(CN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CN$26),(VLOOKUP(CN$26,$B$9:$D$16,3,FALSE)*IF(CN$27=CN$26,1,((CN$27-CN$25)/(CN$27-CN$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>6.4818121608768617</v>
       </c>
       <c r="CO30" s="41">
-        <f>(SQRT((IF(CO$25&gt;$B$18,0,IF(CO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CO$26),(VLOOKUP(CO$26,$B$9:$D$16,3,FALSE)*IF(CO$27=CO$26,1,((CO$27-CO$25)/(CO$27-CO$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>5.8925565098880748</v>
       </c>
       <c r="CP30" s="41">
-        <f>(SQRT((IF(CP$25&gt;$B$18,0,IF(CP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CP$26),(VLOOKUP(CP$26,$B$9:$D$16,3,FALSE)*IF(CP$27=CP$26,1,((CP$27-CP$25)/(CP$27-CP$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>5.3033008588992807</v>
       </c>
       <c r="CQ30" s="41">
-        <f>(SQRT((IF(CQ$25&gt;$B$18,0,IF(CQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CQ$26),(VLOOKUP(CQ$26,$B$9:$D$16,3,FALSE)*IF(CQ$27=CQ$26,1,((CQ$27-CQ$25)/(CQ$27-CQ$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>4.7140452079104938</v>
       </c>
       <c r="CR30" s="41">
-        <f>(SQRT((IF(CR$25&gt;$B$18,0,IF(CR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CR$26),(VLOOKUP(CR$26,$B$9:$D$16,3,FALSE)*IF(CR$27=CR$26,1,((CR$27-CR$25)/(CR$27-CR$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>4.1247895569217068</v>
       </c>
       <c r="CS30" s="41">
-        <f>(SQRT((IF(CS$25&gt;$B$18,0,IF(CS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CS$26),(VLOOKUP(CS$26,$B$9:$D$16,3,FALSE)*IF(CS$27=CS$26,1,((CS$27-CS$25)/(CS$27-CS$26)))),0))^2)))</f>
+        <f t="shared" si="19"/>
         <v>3.5355339059329136</v>
       </c>
       <c r="CT30" s="41">
-        <f>(SQRT((IF(CT$25&gt;$B$18,0,IF(CT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CT$26),(VLOOKUP(CT$26,$B$9:$D$16,3,FALSE)*IF(CT$27=CT$26,1,((CT$27-CT$25)/(CT$27-CT$26)))),0))^2)))</f>
+        <f t="shared" ref="CT30:CZ30" si="20">(SQRT((IF(CT$25&gt;$B$18,0,IF(CT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CT$26),(VLOOKUP(CT$26,$B$9:$D$16,3,FALSE)*IF(CT$27=CT$26,1,((CT$27-CT$25)/(CT$27-CT$26)))),0))^2)))</f>
         <v>2.9462782549441262</v>
       </c>
       <c r="CU30" s="41">
-        <f>(SQRT((IF(CU$25&gt;$B$18,0,IF(CU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CU$26),(VLOOKUP(CU$26,$B$9:$D$16,3,FALSE)*IF(CU$27=CU$26,1,((CU$27-CU$25)/(CU$27-CU$26)))),0))^2)))</f>
+        <f t="shared" si="20"/>
         <v>2.357022603955333</v>
       </c>
       <c r="CV30" s="41">
-        <f>(SQRT((IF(CV$25&gt;$B$18,0,IF(CV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CV$26),(VLOOKUP(CV$26,$B$9:$D$16,3,FALSE)*IF(CV$27=CV$26,1,((CV$27-CV$25)/(CV$27-CV$26)))),0))^2)))</f>
+        <f t="shared" si="20"/>
         <v>1.7677669529665458</v>
       </c>
       <c r="CW30" s="41">
-        <f>(SQRT((IF(CW$25&gt;$B$18,0,IF(CW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CW$26),(VLOOKUP(CW$26,$B$9:$D$16,3,FALSE)*IF(CW$27=CW$26,1,((CW$27-CW$25)/(CW$27-CW$26)))),0))^2)))</f>
+        <f t="shared" si="20"/>
         <v>1.1785113019777582</v>
       </c>
       <c r="CX30" s="41">
-        <f>(SQRT((IF(CX$25&gt;$B$18,0,IF(CX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CX$26),(VLOOKUP(CX$26,$B$9:$D$16,3,FALSE)*IF(CX$27=CX$26,1,((CX$27-CX$25)/(CX$27-CX$26)))),0))^2)))</f>
+        <f t="shared" si="20"/>
         <v>0.58925565098902299</v>
       </c>
       <c r="CY30" s="41">
-        <f>(SQRT((IF(CY$25&gt;$B$18,0,IF(CY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CY$26),(VLOOKUP(CY$26,$B$9:$D$16,3,FALSE)*IF(CY$27=CY$26,1,((CY$27-CY$25)/(CY$27-CY$26)))),0))^2)))</f>
+        <f t="shared" si="20"/>
         <v>2.3551386880256624E-13</v>
       </c>
       <c r="CZ30" s="42">
-        <f>(SQRT((IF(CZ$25&gt;$B$18,0,IF(CZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CZ$26),(VLOOKUP(CZ$26,$B$9:$D$16,3,FALSE)*IF(CZ$27=CZ$26,1,((CZ$27-CZ$25)/(CZ$27-CZ$26)))),0))^2)))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6668,2083 +6670,2083 @@
         <v>18</v>
       </c>
       <c r="B31" s="15">
-        <f>(SQRT((IF(B$25&gt;$B$18,0,IF(B$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(B$26),(VLOOKUP(B$27,$B$9:$D$16,3,FALSE)*IF(B$27=B$26,1,((B$27-B$25)/(B$27-B$26)))),0))^2)))</f>
+        <f t="shared" ref="B31:AG31" si="21">(SQRT((IF(B$25&gt;$B$18,0,IF(B$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(B$26),(VLOOKUP(B$27,$B$9:$D$16,3,FALSE)*IF(B$27=B$26,1,((B$27-B$25)/(B$27-B$26)))),0))^2)))</f>
         <v>0</v>
       </c>
       <c r="C31" s="41">
-        <f>(SQRT((IF(C$25&gt;$B$18,0,IF(C$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(C$26),(VLOOKUP(C$27,$B$9:$D$16,3,FALSE)*IF(C$27=C$26,1,((C$27-C$25)/(C$27-C$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>17.677669529663689</v>
       </c>
       <c r="D31" s="41">
-        <f>(SQRT((IF(D$25&gt;$B$18,0,IF(D$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(D$26),(VLOOKUP(D$27,$B$9:$D$16,3,FALSE)*IF(D$27=D$26,1,((D$27-D$25)/(D$27-D$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>23.51130047445271</v>
       </c>
       <c r="E31" s="41">
-        <f>(SQRT((IF(E$25&gt;$B$18,0,IF(E$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(E$26),(VLOOKUP(E$27,$B$9:$D$16,3,FALSE)*IF(E$27=E$26,1,((E$27-E$25)/(E$27-E$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>22.273863607376242</v>
       </c>
       <c r="F31" s="41">
-        <f>(SQRT((IF(F$25&gt;$B$18,0,IF(F$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(F$26),(VLOOKUP(F$27,$B$9:$D$16,3,FALSE)*IF(F$27=F$26,1,((F$27-F$25)/(F$27-F$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>21.036426740299792</v>
       </c>
       <c r="G31" s="41">
-        <f>(SQRT((IF(G$25&gt;$B$18,0,IF(G$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(G$26),(VLOOKUP(G$27,$B$9:$D$16,3,FALSE)*IF(G$27=G$26,1,((G$27-G$25)/(G$27-G$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>19.798989873223327</v>
       </c>
       <c r="H31" s="41">
-        <f>(SQRT((IF(H$25&gt;$B$18,0,IF(H$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(H$26),(VLOOKUP(H$27,$B$9:$D$16,3,FALSE)*IF(H$27=H$26,1,((H$27-H$25)/(H$27-H$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>18.561553006146873</v>
       </c>
       <c r="I31" s="41">
-        <f>(SQRT((IF(I$25&gt;$B$18,0,IF(I$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(I$26),(VLOOKUP(I$27,$B$9:$D$16,3,FALSE)*IF(I$27=I$26,1,((I$27-I$25)/(I$27-I$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>17.324116139070419</v>
       </c>
       <c r="J31" s="41">
-        <f>(SQRT((IF(J$25&gt;$B$18,0,IF(J$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(J$26),(VLOOKUP(J$27,$B$9:$D$16,3,FALSE)*IF(J$27=J$26,1,((J$27-J$25)/(J$27-J$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>16.086679271993951</v>
       </c>
       <c r="K31" s="41">
-        <f>(SQRT((IF(K$25&gt;$B$18,0,IF(K$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(K$26),(VLOOKUP(K$27,$B$9:$D$16,3,FALSE)*IF(K$27=K$26,1,((K$27-K$25)/(K$27-K$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>14.849242404917501</v>
       </c>
       <c r="L31" s="41">
-        <f>(SQRT((IF(L$25&gt;$B$18,0,IF(L$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(L$26),(VLOOKUP(L$27,$B$9:$D$16,3,FALSE)*IF(L$27=L$26,1,((L$27-L$25)/(L$27-L$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>13.611805537841036</v>
       </c>
       <c r="M31" s="41">
-        <f>(SQRT((IF(M$25&gt;$B$18,0,IF(M$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(M$26),(VLOOKUP(M$27,$B$9:$D$16,3,FALSE)*IF(M$27=M$26,1,((M$27-M$25)/(M$27-M$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>12.374368670764582</v>
       </c>
       <c r="N31" s="41">
-        <f>(SQRT((IF(N$25&gt;$B$18,0,IF(N$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(N$26),(VLOOKUP(N$27,$B$9:$D$16,3,FALSE)*IF(N$27=N$26,1,((N$27-N$25)/(N$27-N$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>11.136931803688121</v>
       </c>
       <c r="O31" s="41">
-        <f>(SQRT((IF(O$25&gt;$B$18,0,IF(O$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(O$26),(VLOOKUP(O$27,$B$9:$D$16,3,FALSE)*IF(O$27=O$26,1,((O$27-O$25)/(O$27-O$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>9.8994949366116636</v>
       </c>
       <c r="P31" s="41">
-        <f>(SQRT((IF(P$25&gt;$B$18,0,IF(P$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(P$26),(VLOOKUP(P$27,$B$9:$D$16,3,FALSE)*IF(P$27=P$26,1,((P$27-P$25)/(P$27-P$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>8.6620580695352096</v>
       </c>
       <c r="Q31" s="41">
-        <f>(SQRT((IF(Q$25&gt;$B$18,0,IF(Q$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Q$26),(VLOOKUP(Q$27,$B$9:$D$16,3,FALSE)*IF(Q$27=Q$26,1,((Q$27-Q$25)/(Q$27-Q$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>7.4246212024587503</v>
       </c>
       <c r="R31" s="41">
-        <f>(SQRT((IF(R$25&gt;$B$18,0,IF(R$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(R$26),(VLOOKUP(R$27,$B$9:$D$16,3,FALSE)*IF(R$27=R$26,1,((R$27-R$25)/(R$27-R$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>6.1871843353824172</v>
       </c>
       <c r="S31" s="41">
-        <f>(SQRT((IF(S$25&gt;$B$18,0,IF(S$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(S$26),(VLOOKUP(S$27,$B$9:$D$16,3,FALSE)*IF(S$27=S$26,1,((S$27-S$25)/(S$27-S$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>4.9497474683059579</v>
       </c>
       <c r="T31" s="41">
-        <f>(SQRT((IF(T$25&gt;$B$18,0,IF(T$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(T$26),(VLOOKUP(T$27,$B$9:$D$16,3,FALSE)*IF(T$27=T$26,1,((T$27-T$25)/(T$27-T$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>3.7123106012294986</v>
       </c>
       <c r="U31" s="41">
-        <f>(SQRT((IF(U$25&gt;$B$18,0,IF(U$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(U$26),(VLOOKUP(U$27,$B$9:$D$16,3,FALSE)*IF(U$27=U$26,1,((U$27-U$25)/(U$27-U$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>2.4748737341530394</v>
       </c>
       <c r="V31" s="41">
-        <f>(SQRT((IF(V$25&gt;$B$18,0,IF(V$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(V$26),(VLOOKUP(V$27,$B$9:$D$16,3,FALSE)*IF(V$27=V$26,1,((V$27-V$25)/(V$27-V$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>1.2374368670765803</v>
       </c>
       <c r="W31" s="41">
-        <f>(SQRT((IF(W$25&gt;$B$18,0,IF(W$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(W$26),(VLOOKUP(W$27,$B$9:$D$16,3,FALSE)*IF(W$27=W$26,1,((W$27-W$25)/(W$27-W$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>1.263924429240439E-13</v>
       </c>
       <c r="X31" s="41">
-        <f>(SQRT((IF(X$25&gt;$B$18,0,IF(X$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(X$26),(VLOOKUP(X$27,$B$9:$D$16,3,FALSE)*IF(X$27=X$26,1,((X$27-X$25)/(X$27-X$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>17.324116139070448</v>
       </c>
       <c r="Y31" s="41">
-        <f>(SQRT((IF(Y$25&gt;$B$18,0,IF(Y$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Y$26),(VLOOKUP(Y$27,$B$9:$D$16,3,FALSE)*IF(Y$27=Y$26,1,((Y$27-Y$25)/(Y$27-Y$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>16.970562748477175</v>
       </c>
       <c r="Z31" s="41">
-        <f>(SQRT((IF(Z$25&gt;$B$18,0,IF(Z$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(Z$26),(VLOOKUP(Z$27,$B$9:$D$16,3,FALSE)*IF(Z$27=Z$26,1,((Z$27-Z$25)/(Z$27-Z$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>16.617009357883902</v>
       </c>
       <c r="AA31" s="41">
-        <f>(SQRT((IF(AA$25&gt;$B$18,0,IF(AA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AA$26),(VLOOKUP(AA$27,$B$9:$D$16,3,FALSE)*IF(AA$27=AA$26,1,((AA$27-AA$25)/(AA$27-AA$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>16.263455967290628</v>
       </c>
       <c r="AB31" s="41">
-        <f>(SQRT((IF(AB$25&gt;$B$18,0,IF(AB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AB$26),(VLOOKUP(AB$27,$B$9:$D$16,3,FALSE)*IF(AB$27=AB$26,1,((AB$27-AB$25)/(AB$27-AB$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>15.909902576697357</v>
       </c>
       <c r="AC31" s="41">
-        <f>(SQRT((IF(AC$25&gt;$B$18,0,IF(AC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AC$26),(VLOOKUP(AC$27,$B$9:$D$16,3,FALSE)*IF(AC$27=AC$26,1,((AC$27-AC$25)/(AC$27-AC$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>15.556349186104081</v>
       </c>
       <c r="AD31" s="41">
-        <f>(SQRT((IF(AD$25&gt;$B$18,0,IF(AD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AD$26),(VLOOKUP(AD$27,$B$9:$D$16,3,FALSE)*IF(AD$27=AD$26,1,((AD$27-AD$25)/(AD$27-AD$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>15.202795795510806</v>
       </c>
       <c r="AE31" s="41">
-        <f>(SQRT((IF(AE$25&gt;$B$18,0,IF(AE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AE$26),(VLOOKUP(AE$27,$B$9:$D$16,3,FALSE)*IF(AE$27=AE$26,1,((AE$27-AE$25)/(AE$27-AE$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>14.849242404917533</v>
       </c>
       <c r="AF31" s="41">
-        <f>(SQRT((IF(AF$25&gt;$B$18,0,IF(AF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AF$26),(VLOOKUP(AF$27,$B$9:$D$16,3,FALSE)*IF(AF$27=AF$26,1,((AF$27-AF$25)/(AF$27-AF$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>14.495689014324261</v>
       </c>
       <c r="AG31" s="41">
-        <f>(SQRT((IF(AG$25&gt;$B$18,0,IF(AG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AG$26),(VLOOKUP(AG$27,$B$9:$D$16,3,FALSE)*IF(AG$27=AG$26,1,((AG$27-AG$25)/(AG$27-AG$26)))),0))^2)))</f>
+        <f t="shared" si="21"/>
         <v>14.142135623730988</v>
       </c>
       <c r="AH31" s="41">
-        <f>(SQRT((IF(AH$25&gt;$B$18,0,IF(AH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AH$26),(VLOOKUP(AH$27,$B$9:$D$16,3,FALSE)*IF(AH$27=AH$26,1,((AH$27-AH$25)/(AH$27-AH$26)))),0))^2)))</f>
+        <f t="shared" ref="AH31:BM31" si="22">(SQRT((IF(AH$25&gt;$B$18,0,IF(AH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AH$26),(VLOOKUP(AH$27,$B$9:$D$16,3,FALSE)*IF(AH$27=AH$26,1,((AH$27-AH$25)/(AH$27-AH$26)))),0))^2)))</f>
         <v>13.788582233137713</v>
       </c>
       <c r="AI31" s="41">
-        <f>(SQRT((IF(AI$25&gt;$B$18,0,IF(AI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AI$26),(VLOOKUP(AI$27,$B$9:$D$16,3,FALSE)*IF(AI$27=AI$26,1,((AI$27-AI$25)/(AI$27-AI$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>13.435028842544439</v>
       </c>
       <c r="AJ31" s="41">
-        <f>(SQRT((IF(AJ$25&gt;$B$18,0,IF(AJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AJ$26),(VLOOKUP(AJ$27,$B$9:$D$16,3,FALSE)*IF(AJ$27=AJ$26,1,((AJ$27-AJ$25)/(AJ$27-AJ$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>13.081475451951166</v>
       </c>
       <c r="AK31" s="41">
-        <f>(SQRT((IF(AK$25&gt;$B$18,0,IF(AK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AK$26),(VLOOKUP(AK$27,$B$9:$D$16,3,FALSE)*IF(AK$27=AK$26,1,((AK$27-AK$25)/(AK$27-AK$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>12.727922061357891</v>
       </c>
       <c r="AL31" s="41">
-        <f>(SQRT((IF(AL$25&gt;$B$18,0,IF(AL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AL$26),(VLOOKUP(AL$27,$B$9:$D$16,3,FALSE)*IF(AL$27=AL$26,1,((AL$27-AL$25)/(AL$27-AL$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>12.374368670764616</v>
       </c>
       <c r="AM31" s="41">
-        <f>(SQRT((IF(AM$25&gt;$B$18,0,IF(AM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AM$26),(VLOOKUP(AM$27,$B$9:$D$16,3,FALSE)*IF(AM$27=AM$26,1,((AM$27-AM$25)/(AM$27-AM$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>12.020815280171343</v>
       </c>
       <c r="AN31" s="41">
-        <f>(SQRT((IF(AN$25&gt;$B$18,0,IF(AN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AN$26),(VLOOKUP(AN$27,$B$9:$D$16,3,FALSE)*IF(AN$27=AN$26,1,((AN$27-AN$25)/(AN$27-AN$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>11.66726188957807</v>
       </c>
       <c r="AO31" s="41">
-        <f>(SQRT((IF(AO$25&gt;$B$18,0,IF(AO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AO$26),(VLOOKUP(AO$27,$B$9:$D$16,3,FALSE)*IF(AO$27=AO$26,1,((AO$27-AO$25)/(AO$27-AO$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>11.313708498984795</v>
       </c>
       <c r="AP31" s="41">
-        <f>(SQRT((IF(AP$25&gt;$B$18,0,IF(AP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AP$26),(VLOOKUP(AP$27,$B$9:$D$16,3,FALSE)*IF(AP$27=AP$26,1,((AP$27-AP$25)/(AP$27-AP$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>10.960155108391524</v>
       </c>
       <c r="AQ31" s="41">
-        <f>(SQRT((IF(AQ$25&gt;$B$18,0,IF(AQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AQ$26),(VLOOKUP(AQ$27,$B$9:$D$16,3,FALSE)*IF(AQ$27=AQ$26,1,((AQ$27-AQ$25)/(AQ$27-AQ$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>10.606601717798247</v>
       </c>
       <c r="AR31" s="41">
-        <f>(SQRT((IF(AR$25&gt;$B$18,0,IF(AR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AR$26),(VLOOKUP(AR$27,$B$9:$D$16,3,FALSE)*IF(AR$27=AR$26,1,((AR$27-AR$25)/(AR$27-AR$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>10.253048327204976</v>
       </c>
       <c r="AS31" s="41">
-        <f>(SQRT((IF(AS$25&gt;$B$18,0,IF(AS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AS$26),(VLOOKUP(AS$27,$B$9:$D$16,3,FALSE)*IF(AS$27=AS$26,1,((AS$27-AS$25)/(AS$27-AS$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>9.8994949366117027</v>
       </c>
       <c r="AT31" s="41">
-        <f>(SQRT((IF(AT$25&gt;$B$18,0,IF(AT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AT$26),(VLOOKUP(AT$27,$B$9:$D$16,3,FALSE)*IF(AT$27=AT$26,1,((AT$27-AT$25)/(AT$27-AT$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>9.5459415460184633</v>
       </c>
       <c r="AU31" s="41">
-        <f>(SQRT((IF(AU$25&gt;$B$18,0,IF(AU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AU$26),(VLOOKUP(AU$27,$B$9:$D$16,3,FALSE)*IF(AU$27=AU$26,1,((AU$27-AU$25)/(AU$27-AU$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>9.1923881554251885</v>
       </c>
       <c r="AV31" s="41">
-        <f>(SQRT((IF(AV$25&gt;$B$18,0,IF(AV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AV$26),(VLOOKUP(AV$27,$B$9:$D$16,3,FALSE)*IF(AV$27=AV$26,1,((AV$27-AV$25)/(AV$27-AV$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>8.8388347648319154</v>
       </c>
       <c r="AW31" s="41">
-        <f>(SQRT((IF(AW$25&gt;$B$18,0,IF(AW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AW$26),(VLOOKUP(AW$27,$B$9:$D$16,3,FALSE)*IF(AW$27=AW$26,1,((AW$27-AW$25)/(AW$27-AW$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>8.4852813742386406</v>
       </c>
       <c r="AX31" s="41">
-        <f>(SQRT((IF(AX$25&gt;$B$18,0,IF(AX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AX$26),(VLOOKUP(AX$27,$B$9:$D$16,3,FALSE)*IF(AX$27=AX$26,1,((AX$27-AX$25)/(AX$27-AX$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>8.1317279836453658</v>
       </c>
       <c r="AY31" s="41">
-        <f>(SQRT((IF(AY$25&gt;$B$18,0,IF(AY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AY$26),(VLOOKUP(AY$27,$B$9:$D$16,3,FALSE)*IF(AY$27=AY$26,1,((AY$27-AY$25)/(AY$27-AY$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>7.7781745930520945</v>
       </c>
       <c r="AZ31" s="41">
-        <f>(SQRT((IF(AZ$25&gt;$B$18,0,IF(AZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(AZ$26),(VLOOKUP(AZ$27,$B$9:$D$16,3,FALSE)*IF(AZ$27=AZ$26,1,((AZ$27-AZ$25)/(AZ$27-AZ$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>7.4246212024588205</v>
       </c>
       <c r="BA31" s="41">
-        <f>(SQRT((IF(BA$25&gt;$B$18,0,IF(BA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BA$26),(VLOOKUP(BA$27,$B$9:$D$16,3,FALSE)*IF(BA$27=BA$26,1,((BA$27-BA$25)/(BA$27-BA$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>7.0710678118655474</v>
       </c>
       <c r="BB31" s="41">
-        <f>(SQRT((IF(BB$25&gt;$B$18,0,IF(BB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BB$26),(VLOOKUP(BB$27,$B$9:$D$16,3,FALSE)*IF(BB$27=BB$26,1,((BB$27-BB$25)/(BB$27-BB$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>6.7175144212722717</v>
       </c>
       <c r="BC31" s="41">
-        <f>(SQRT((IF(BC$25&gt;$B$18,0,IF(BC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BC$26),(VLOOKUP(BC$27,$B$9:$D$16,3,FALSE)*IF(BC$27=BC$26,1,((BC$27-BC$25)/(BC$27-BC$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>6.3639610306789978</v>
       </c>
       <c r="BD31" s="41">
-        <f>(SQRT((IF(BD$25&gt;$B$18,0,IF(BD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BD$26),(VLOOKUP(BD$27,$B$9:$D$16,3,FALSE)*IF(BD$27=BD$26,1,((BD$27-BD$25)/(BD$27-BD$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>6.0104076400857238</v>
       </c>
       <c r="BE31" s="41">
-        <f>(SQRT((IF(BE$25&gt;$B$18,0,IF(BE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BE$26),(VLOOKUP(BE$27,$B$9:$D$16,3,FALSE)*IF(BE$27=BE$26,1,((BE$27-BE$25)/(BE$27-BE$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>5.6568542494924507</v>
       </c>
       <c r="BF31" s="41">
-        <f>(SQRT((IF(BF$25&gt;$B$18,0,IF(BF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BF$26),(VLOOKUP(BF$27,$B$9:$D$16,3,FALSE)*IF(BF$27=BF$26,1,((BF$27-BF$25)/(BF$27-BF$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>5.3033008588991768</v>
       </c>
       <c r="BG31" s="41">
-        <f>(SQRT((IF(BG$25&gt;$B$18,0,IF(BG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BG$26),(VLOOKUP(BG$27,$B$9:$D$16,3,FALSE)*IF(BG$27=BG$26,1,((BG$27-BG$25)/(BG$27-BG$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>4.9497474683059028</v>
       </c>
       <c r="BH31" s="41">
-        <f>(SQRT((IF(BH$25&gt;$B$18,0,IF(BH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BH$26),(VLOOKUP(BH$27,$B$9:$D$16,3,FALSE)*IF(BH$27=BH$26,1,((BH$27-BH$25)/(BH$27-BH$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>4.5961940777126298</v>
       </c>
       <c r="BI31" s="41">
-        <f>(SQRT((IF(BI$25&gt;$B$18,0,IF(BI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BI$26),(VLOOKUP(BI$27,$B$9:$D$16,3,FALSE)*IF(BI$27=BI$26,1,((BI$27-BI$25)/(BI$27-BI$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>4.2426406871193567</v>
       </c>
       <c r="BJ31" s="41">
-        <f>(SQRT((IF(BJ$25&gt;$B$18,0,IF(BJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BJ$26),(VLOOKUP(BJ$27,$B$9:$D$16,3,FALSE)*IF(BJ$27=BJ$26,1,((BJ$27-BJ$25)/(BJ$27-BJ$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>3.8890872965260823</v>
       </c>
       <c r="BK31" s="41">
-        <f>(SQRT((IF(BK$25&gt;$B$18,0,IF(BK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BK$26),(VLOOKUP(BK$27,$B$9:$D$16,3,FALSE)*IF(BK$27=BK$26,1,((BK$27-BK$25)/(BK$27-BK$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>3.5355339059328084</v>
       </c>
       <c r="BL31" s="41">
-        <f>(SQRT((IF(BL$25&gt;$B$18,0,IF(BL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BL$26),(VLOOKUP(BL$27,$B$9:$D$16,3,FALSE)*IF(BL$27=BL$26,1,((BL$27-BL$25)/(BL$27-BL$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>3.1819805153395344</v>
       </c>
       <c r="BM31" s="41">
-        <f>(SQRT((IF(BM$25&gt;$B$18,0,IF(BM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BM$26),(VLOOKUP(BM$27,$B$9:$D$16,3,FALSE)*IF(BM$27=BM$26,1,((BM$27-BM$25)/(BM$27-BM$26)))),0))^2)))</f>
+        <f t="shared" si="22"/>
         <v>2.8284271247462609</v>
       </c>
       <c r="BN31" s="41">
-        <f>(SQRT((IF(BN$25&gt;$B$18,0,IF(BN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BN$26),(VLOOKUP(BN$27,$B$9:$D$16,3,FALSE)*IF(BN$27=BN$26,1,((BN$27-BN$25)/(BN$27-BN$26)))),0))^2)))</f>
+        <f t="shared" ref="BN31:CS31" si="23">(SQRT((IF(BN$25&gt;$B$18,0,IF(BN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BN$26),(VLOOKUP(BN$27,$B$9:$D$16,3,FALSE)*IF(BN$27=BN$26,1,((BN$27-BN$25)/(BN$27-BN$26)))),0))^2)))</f>
         <v>2.4748737341529869</v>
       </c>
       <c r="BO31" s="41">
-        <f>(SQRT((IF(BO$25&gt;$B$18,0,IF(BO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BO$26),(VLOOKUP(BO$27,$B$9:$D$16,3,FALSE)*IF(BO$27=BO$26,1,((BO$27-BO$25)/(BO$27-BO$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>2.1213203435597134</v>
       </c>
       <c r="BP31" s="41">
-        <f>(SQRT((IF(BP$25&gt;$B$18,0,IF(BP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BP$26),(VLOOKUP(BP$27,$B$9:$D$16,3,FALSE)*IF(BP$27=BP$26,1,((BP$27-BP$25)/(BP$27-BP$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>1.7677669529664395</v>
       </c>
       <c r="BQ31" s="41">
-        <f>(SQRT((IF(BQ$25&gt;$B$18,0,IF(BQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BQ$26),(VLOOKUP(BQ$27,$B$9:$D$16,3,FALSE)*IF(BQ$27=BQ$26,1,((BQ$27-BQ$25)/(BQ$27-BQ$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>1.4142135623731653</v>
       </c>
       <c r="BR31" s="41">
-        <f>(SQRT((IF(BR$25&gt;$B$18,0,IF(BR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BR$26),(VLOOKUP(BR$27,$B$9:$D$16,3,FALSE)*IF(BR$27=BR$26,1,((BR$27-BR$25)/(BR$27-BR$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>1.060660171779892</v>
       </c>
       <c r="BS31" s="41">
-        <f>(SQRT((IF(BS$25&gt;$B$18,0,IF(BS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BS$26),(VLOOKUP(BS$27,$B$9:$D$16,3,FALSE)*IF(BS$27=BS$26,1,((BS$27-BS$25)/(BS$27-BS$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.70710678118661807</v>
       </c>
       <c r="BT31" s="41">
-        <f>(SQRT((IF(BT$25&gt;$B$18,0,IF(BT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BT$26),(VLOOKUP(BT$27,$B$9:$D$16,3,FALSE)*IF(BT$27=BT$26,1,((BT$27-BT$25)/(BT$27-BT$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>0.35355339059334473</v>
       </c>
       <c r="BU31" s="41">
-        <f>(SQRT((IF(BU$25&gt;$B$18,0,IF(BU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BU$26),(VLOOKUP(BU$27,$B$9:$D$16,3,FALSE)*IF(BU$27=BU$26,1,((BU$27-BU$25)/(BU$27-BU$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>7.065416064076988E-14</v>
       </c>
       <c r="BV31" s="41">
-        <f>(SQRT((IF(BV$25&gt;$B$18,0,IF(BV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BV$26),(VLOOKUP(BV$27,$B$9:$D$16,3,FALSE)*IF(BV$27=BV$26,1,((BV$27-BV$25)/(BV$27-BV$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>10.253048327205045</v>
       </c>
       <c r="BW31" s="41">
-        <f>(SQRT((IF(BW$25&gt;$B$18,0,IF(BW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BW$26),(VLOOKUP(BW$27,$B$9:$D$16,3,FALSE)*IF(BW$27=BW$26,1,((BW$27-BW$25)/(BW$27-BW$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>9.8994949366117719</v>
       </c>
       <c r="BX31" s="41">
-        <f>(SQRT((IF(BX$25&gt;$B$18,0,IF(BX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BX$26),(VLOOKUP(BX$27,$B$9:$D$16,3,FALSE)*IF(BX$27=BX$26,1,((BX$27-BX$25)/(BX$27-BX$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>9.5459415460184971</v>
       </c>
       <c r="BY31" s="41">
-        <f>(SQRT((IF(BY$25&gt;$B$18,0,IF(BY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BY$26),(VLOOKUP(BY$27,$B$9:$D$16,3,FALSE)*IF(BY$27=BY$26,1,((BY$27-BY$25)/(BY$27-BY$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>9.192388155425224</v>
       </c>
       <c r="BZ31" s="41">
-        <f>(SQRT((IF(BZ$25&gt;$B$18,0,IF(BZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(BZ$26),(VLOOKUP(BZ$27,$B$9:$D$16,3,FALSE)*IF(BZ$27=BZ$26,1,((BZ$27-BZ$25)/(BZ$27-BZ$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>8.838834764831951</v>
       </c>
       <c r="CA31" s="41">
-        <f>(SQRT((IF(CA$25&gt;$B$18,0,IF(CA$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CA$26),(VLOOKUP(CA$27,$B$9:$D$16,3,FALSE)*IF(CA$27=CA$26,1,((CA$27-CA$25)/(CA$27-CA$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>8.4852813742386761</v>
       </c>
       <c r="CB31" s="41">
-        <f>(SQRT((IF(CB$25&gt;$B$18,0,IF(CB$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CB$26),(VLOOKUP(CB$27,$B$9:$D$16,3,FALSE)*IF(CB$27=CB$26,1,((CB$27-CB$25)/(CB$27-CB$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>8.1317279836454031</v>
       </c>
       <c r="CC31" s="41">
-        <f>(SQRT((IF(CC$25&gt;$B$18,0,IF(CC$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CC$26),(VLOOKUP(CC$27,$B$9:$D$16,3,FALSE)*IF(CC$27=CC$26,1,((CC$27-CC$25)/(CC$27-CC$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>7.7781745930521282</v>
       </c>
       <c r="CD31" s="41">
-        <f>(SQRT((IF(CD$25&gt;$B$18,0,IF(CD$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CD$26),(VLOOKUP(CD$27,$B$9:$D$16,3,FALSE)*IF(CD$27=CD$26,1,((CD$27-CD$25)/(CD$27-CD$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>7.4246212024588552</v>
       </c>
       <c r="CE31" s="41">
-        <f>(SQRT((IF(CE$25&gt;$B$18,0,IF(CE$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CE$26),(VLOOKUP(CE$27,$B$9:$D$16,3,FALSE)*IF(CE$27=CE$26,1,((CE$27-CE$25)/(CE$27-CE$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>7.0710678118655821</v>
       </c>
       <c r="CF31" s="41">
-        <f>(SQRT((IF(CF$25&gt;$B$18,0,IF(CF$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CF$26),(VLOOKUP(CF$27,$B$9:$D$16,3,FALSE)*IF(CF$27=CF$26,1,((CF$27-CF$25)/(CF$27-CF$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>6.7175144212723081</v>
       </c>
       <c r="CG31" s="41">
-        <f>(SQRT((IF(CG$25&gt;$B$18,0,IF(CG$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CG$26),(VLOOKUP(CG$27,$B$9:$D$16,3,FALSE)*IF(CG$27=CG$26,1,((CG$27-CG$25)/(CG$27-CG$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>6.3639610306790342</v>
       </c>
       <c r="CH31" s="41">
-        <f>(SQRT((IF(CH$25&gt;$B$18,0,IF(CH$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CH$26),(VLOOKUP(CH$27,$B$9:$D$16,3,FALSE)*IF(CH$27=CH$26,1,((CH$27-CH$25)/(CH$27-CH$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>6.0104076400857593</v>
       </c>
       <c r="CI31" s="41">
-        <f>(SQRT((IF(CI$25&gt;$B$18,0,IF(CI$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CI$26),(VLOOKUP(CI$27,$B$9:$D$16,3,FALSE)*IF(CI$27=CI$26,1,((CI$27-CI$25)/(CI$27-CI$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>5.6568542494924854</v>
       </c>
       <c r="CJ31" s="41">
-        <f>(SQRT((IF(CJ$25&gt;$B$18,0,IF(CJ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CJ$26),(VLOOKUP(CJ$27,$B$9:$D$16,3,FALSE)*IF(CJ$27=CJ$26,1,((CJ$27-CJ$25)/(CJ$27-CJ$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>5.3033008588992132</v>
       </c>
       <c r="CK31" s="41">
-        <f>(SQRT((IF(CK$25&gt;$B$18,0,IF(CK$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CK$26),(VLOOKUP(CK$27,$B$9:$D$16,3,FALSE)*IF(CK$27=CK$26,1,((CK$27-CK$25)/(CK$27-CK$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>4.9497474683059393</v>
       </c>
       <c r="CL31" s="41">
-        <f>(SQRT((IF(CL$25&gt;$B$18,0,IF(CL$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CL$26),(VLOOKUP(CL$27,$B$9:$D$16,3,FALSE)*IF(CL$27=CL$26,1,((CL$27-CL$25)/(CL$27-CL$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>4.5961940777126653</v>
       </c>
       <c r="CM31" s="41">
-        <f>(SQRT((IF(CM$25&gt;$B$18,0,IF(CM$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CM$26),(VLOOKUP(CM$27,$B$9:$D$16,3,FALSE)*IF(CM$27=CM$26,1,((CM$27-CM$25)/(CM$27-CM$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>4.2426406871193914</v>
       </c>
       <c r="CN31" s="41">
-        <f>(SQRT((IF(CN$25&gt;$B$18,0,IF(CN$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CN$26),(VLOOKUP(CN$27,$B$9:$D$16,3,FALSE)*IF(CN$27=CN$26,1,((CN$27-CN$25)/(CN$27-CN$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>3.889087296526117</v>
       </c>
       <c r="CO31" s="41">
-        <f>(SQRT((IF(CO$25&gt;$B$18,0,IF(CO$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CO$26),(VLOOKUP(CO$27,$B$9:$D$16,3,FALSE)*IF(CO$27=CO$26,1,((CO$27-CO$25)/(CO$27-CO$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>3.5355339059328443</v>
       </c>
       <c r="CP31" s="41">
-        <f>(SQRT((IF(CP$25&gt;$B$18,0,IF(CP$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CP$26),(VLOOKUP(CP$27,$B$9:$D$16,3,FALSE)*IF(CP$27=CP$26,1,((CP$27-CP$25)/(CP$27-CP$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>3.1819805153395686</v>
       </c>
       <c r="CQ31" s="41">
-        <f>(SQRT((IF(CQ$25&gt;$B$18,0,IF(CQ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CQ$26),(VLOOKUP(CQ$27,$B$9:$D$16,3,FALSE)*IF(CQ$27=CQ$26,1,((CQ$27-CQ$25)/(CQ$27-CQ$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>2.8284271247462964</v>
       </c>
       <c r="CR31" s="41">
-        <f>(SQRT((IF(CR$25&gt;$B$18,0,IF(CR$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CR$26),(VLOOKUP(CR$27,$B$9:$D$16,3,FALSE)*IF(CR$27=CR$26,1,((CR$27-CR$25)/(CR$27-CR$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>2.4748737341530238</v>
       </c>
       <c r="CS31" s="41">
-        <f>(SQRT((IF(CS$25&gt;$B$18,0,IF(CS$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CS$26),(VLOOKUP(CS$27,$B$9:$D$16,3,FALSE)*IF(CS$27=CS$26,1,((CS$27-CS$25)/(CS$27-CS$26)))),0))^2)))</f>
+        <f t="shared" si="23"/>
         <v>2.1213203435597481</v>
       </c>
       <c r="CT31" s="41">
-        <f>(SQRT((IF(CT$25&gt;$B$18,0,IF(CT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CT$26),(VLOOKUP(CT$27,$B$9:$D$16,3,FALSE)*IF(CT$27=CT$26,1,((CT$27-CT$25)/(CT$27-CT$26)))),0))^2)))</f>
+        <f t="shared" ref="CT31:CZ31" si="24">(SQRT((IF(CT$25&gt;$B$18,0,IF(CT$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CT$26),(VLOOKUP(CT$27,$B$9:$D$16,3,FALSE)*IF(CT$27=CT$26,1,((CT$27-CT$25)/(CT$27-CT$26)))),0))^2)))</f>
         <v>1.7677669529664757</v>
       </c>
       <c r="CU31" s="41">
-        <f>(SQRT((IF(CU$25&gt;$B$18,0,IF(CU$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CU$26),(VLOOKUP(CU$27,$B$9:$D$16,3,FALSE)*IF(CU$27=CU$26,1,((CU$27-CU$25)/(CU$27-CU$26)))),0))^2)))</f>
+        <f t="shared" si="24"/>
         <v>1.4142135623732</v>
       </c>
       <c r="CV31" s="41">
-        <f>(SQRT((IF(CV$25&gt;$B$18,0,IF(CV$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CV$26),(VLOOKUP(CV$27,$B$9:$D$16,3,FALSE)*IF(CV$27=CV$26,1,((CV$27-CV$25)/(CV$27-CV$26)))),0))^2)))</f>
+        <f t="shared" si="24"/>
         <v>1.0606601717799273</v>
       </c>
       <c r="CW31" s="41">
-        <f>(SQRT((IF(CW$25&gt;$B$18,0,IF(CW$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CW$26),(VLOOKUP(CW$27,$B$9:$D$16,3,FALSE)*IF(CW$27=CW$26,1,((CW$27-CW$25)/(CW$27-CW$26)))),0))^2)))</f>
+        <f t="shared" si="24"/>
         <v>0.70710678118665493</v>
       </c>
       <c r="CX31" s="41">
-        <f>(SQRT((IF(CX$25&gt;$B$18,0,IF(CX$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CX$26),(VLOOKUP(CX$27,$B$9:$D$16,3,FALSE)*IF(CX$27=CX$26,1,((CX$27-CX$25)/(CX$27-CX$26)))),0))^2)))</f>
+        <f t="shared" si="24"/>
         <v>0.35355339059341384</v>
       </c>
       <c r="CY31" s="41">
-        <f>(SQRT((IF(CY$25&gt;$B$18,0,IF(CY$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CY$26),(VLOOKUP(CY$27,$B$9:$D$16,3,FALSE)*IF(CY$27=CY$26,1,((CY$27-CY$25)/(CY$27-CY$26)))),0))^2)))</f>
+        <f t="shared" si="24"/>
         <v>1.4130832128153976E-13</v>
       </c>
       <c r="CZ31" s="42">
-        <f>(SQRT((IF(CZ$25&gt;$B$18,0,IF(CZ$25&lt;$B$17,0,(100/SUM($C$9:$C$16))))*(IF(ISNUMBER(CZ$26),(VLOOKUP(CZ$27,$B$9:$D$16,3,FALSE)*IF(CZ$27=CZ$26,1,((CZ$27-CZ$25)/(CZ$27-CZ$26)))),0))^2)))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A32" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="15">
         <f>(IF(ISNUMBER(B$26),IF(B$26=B$27,MIN(B$28,B$29,B$30,B$31),(B$28+B$30)),0))</f>
         <v>0</v>
       </c>
       <c r="C32" s="41">
-        <f t="shared" ref="C32:BN32" si="0">(IF(ISNUMBER(C$26),IF(C$26=C$27,MIN(C$28,C$29,C$30,C$31),(C$28+C$30)),0))</f>
+        <f t="shared" ref="C32:BN32" si="25">(IF(ISNUMBER(C$26),IF(C$26=C$27,MIN(C$28,C$29,C$30,C$31),(C$28+C$30)),0))</f>
         <v>17.677669529663689</v>
       </c>
       <c r="D32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="E32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="F32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="G32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="H32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="I32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="J32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="K32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="L32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="M32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="N32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="O32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="P32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="Q32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="R32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="S32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="T32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="U32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="V32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663689</v>
       </c>
       <c r="W32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>17.677669529663685</v>
       </c>
       <c r="X32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529161</v>
       </c>
       <c r="Y32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="Z32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529161</v>
       </c>
       <c r="AA32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AB32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AC32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529161</v>
       </c>
       <c r="AD32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529161</v>
       </c>
       <c r="AE32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AF32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529168</v>
       </c>
       <c r="AG32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AH32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AI32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AJ32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AK32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AL32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529161</v>
       </c>
       <c r="AM32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AN32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AO32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529161</v>
       </c>
       <c r="AP32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529168</v>
       </c>
       <c r="AQ32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529161</v>
       </c>
       <c r="AR32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AS32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AT32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AU32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AV32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AW32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AX32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AY32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="AZ32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BA32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529161</v>
       </c>
       <c r="BB32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BC32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BD32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BE32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BF32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529161</v>
       </c>
       <c r="BG32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529157</v>
       </c>
       <c r="BH32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BI32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BJ32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BK32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BL32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BM32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529161</v>
       </c>
       <c r="BN32" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="25"/>
         <v>24.748737341529168</v>
       </c>
       <c r="BO32" s="41">
-        <f t="shared" ref="BO32:CZ32" si="1">(IF(ISNUMBER(BO$26),IF(BO$26=BO$27,MIN(BO$28,BO$29,BO$30,BO$31),(BO$28+BO$30)),0))</f>
+        <f t="shared" ref="BO32:CZ32" si="26">(IF(ISNUMBER(BO$26),IF(BO$26=BO$27,MIN(BO$28,BO$29,BO$30,BO$31),(BO$28+BO$30)),0))</f>
         <v>24.748737341529164</v>
       </c>
       <c r="BP32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>24.748737341529168</v>
       </c>
       <c r="BQ32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BR32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>24.748737341529164</v>
       </c>
       <c r="BS32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>24.748737341529161</v>
       </c>
       <c r="BT32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>24.748737341529161</v>
       </c>
       <c r="BU32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>24.748737341529168</v>
       </c>
       <c r="BV32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BW32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663685</v>
       </c>
       <c r="BX32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BY32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BZ32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CA32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CB32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CC32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CD32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CE32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CF32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663692</v>
       </c>
       <c r="CG32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CH32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CI32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CJ32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CK32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CL32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CM32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663685</v>
       </c>
       <c r="CN32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CO32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CP32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CQ32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663685</v>
       </c>
       <c r="CR32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CS32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CT32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CU32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CV32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CW32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CX32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663689</v>
       </c>
       <c r="CY32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>17.677669529663685</v>
       </c>
       <c r="CZ32" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A33" s="58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="15">
         <f>(IF(ISNUMBER(B$26),IF(B$26=B$27,MAX(B$28,B$29,B$30,B$31),(B$29+B$31)),0))</f>
         <v>0</v>
       </c>
       <c r="C33" s="41">
-        <f t="shared" ref="C33:BN33" si="2">(IF(ISNUMBER(C$26),IF(C$26=C$27,MAX(C$28,C$29,C$30,C$31),(C$29+C$31)),0))</f>
+        <f t="shared" ref="C33:BN33" si="27">(IF(ISNUMBER(C$26),IF(C$26=C$27,MAX(C$28,C$29,C$30,C$31),(C$29+C$31)),0))</f>
         <v>17.677669529663689</v>
       </c>
       <c r="D33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="E33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529161</v>
       </c>
       <c r="F33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="G33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="H33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="I33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="J33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529161</v>
       </c>
       <c r="K33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="L33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="M33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="N33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="O33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="P33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529161</v>
       </c>
       <c r="Q33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="R33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="S33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529161</v>
       </c>
       <c r="T33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="U33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="V33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529168</v>
       </c>
       <c r="W33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>24.748737341529164</v>
       </c>
       <c r="X33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663685</v>
       </c>
       <c r="Y33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663685</v>
       </c>
       <c r="Z33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AA33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AB33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AC33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AD33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663685</v>
       </c>
       <c r="AE33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AF33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AG33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AH33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AI33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AJ33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AK33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AL33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AM33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AN33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AO33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AP33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AQ33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AR33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AS33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AT33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AU33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AV33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AW33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AX33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AY33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="AZ33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BA33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BB33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BC33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BD33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663685</v>
       </c>
       <c r="BE33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BF33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BG33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BH33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BI33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BJ33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BK33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BL33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BM33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BN33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="27"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BO33" s="41">
-        <f t="shared" ref="BO33:CZ33" si="3">(IF(ISNUMBER(BO$26),IF(BO$26=BO$27,MAX(BO$28,BO$29,BO$30,BO$31),(BO$29+BO$31)),0))</f>
+        <f t="shared" ref="BO33:CZ33" si="28">(IF(ISNUMBER(BO$26),IF(BO$26=BO$27,MAX(BO$28,BO$29,BO$30,BO$31),(BO$29+BO$31)),0))</f>
         <v>17.677669529663689</v>
       </c>
       <c r="BP33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BQ33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BR33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BS33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BT33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BU33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>17.677669529663689</v>
       </c>
       <c r="BV33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798211</v>
       </c>
       <c r="BW33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="BX33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="BY33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="BZ33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CA33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798211</v>
       </c>
       <c r="CB33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CC33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CD33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CE33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CF33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CG33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CH33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CI33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CJ33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CK33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CL33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CM33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CN33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CO33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CP33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CQ33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CR33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CS33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CT33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CU33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CV33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CW33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CX33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CY33" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>10.606601717798213</v>
       </c>
       <c r="CZ33" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A34" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="15">
-        <f t="shared" ref="B34:BM34" si="4">(IF(B$26="OOR",0,((B$32*(IF((B$27-B$25)=0,0.5,(B$27-B$25))/IF((B$27-B$26)=0,1,(B$27-B$26))))+(B$33*(IF((B$25-B$26)=0,0.5,(B$25-B$26))/IF((B$27-B$26)=0,1,(B$27-B$26)))))))</f>
+        <f t="shared" ref="B34:BM34" si="29">(IF(B$26="OOR",0,((B$32*(IF((B$27-B$25)=0,0.5,(B$27-B$25))/IF((B$27-B$26)=0,1,(B$27-B$26))))+(B$33*(IF((B$25-B$26)=0,0.5,(B$25-B$26))/IF((B$27-B$26)=0,1,(B$27-B$26)))))))</f>
         <v>0</v>
       </c>
       <c r="C34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>17.677669529663689</v>
       </c>
       <c r="D34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>18.031222920256962</v>
       </c>
       <c r="E34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>18.384776310850235</v>
       </c>
       <c r="F34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>18.738329701443512</v>
       </c>
       <c r="G34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>19.091883092036785</v>
       </c>
       <c r="H34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>19.445436482630058</v>
       </c>
       <c r="I34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>19.798989873223331</v>
       </c>
       <c r="J34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>20.152543263816604</v>
       </c>
       <c r="K34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>20.50609665440988</v>
       </c>
       <c r="L34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>20.859650045003153</v>
       </c>
       <c r="M34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>21.213203435596427</v>
       </c>
       <c r="N34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>21.5667568261897</v>
       </c>
       <c r="O34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>21.920310216782973</v>
       </c>
       <c r="P34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>22.273863607376242</v>
       </c>
       <c r="Q34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>22.627416997969519</v>
       </c>
       <c r="R34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>22.98097038856276</v>
       </c>
       <c r="S34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>23.334523779156029</v>
       </c>
       <c r="T34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>23.688077169749306</v>
       </c>
       <c r="U34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>24.041630560342583</v>
       </c>
       <c r="V34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>24.395183950935859</v>
       </c>
       <c r="W34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>24.748737341529125</v>
       </c>
       <c r="X34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>24.607315985291866</v>
       </c>
       <c r="Y34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>24.465894629054556</v>
       </c>
       <c r="Z34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>24.324473272817247</v>
       </c>
       <c r="AA34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>24.183051916579942</v>
       </c>
       <c r="AB34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>24.041630560342632</v>
       </c>
       <c r="AC34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>23.900209204105316</v>
       </c>
       <c r="AD34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>23.758787847868003</v>
       </c>
       <c r="AE34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>23.617366491630701</v>
       </c>
       <c r="AF34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>23.475945135393399</v>
       </c>
       <c r="AG34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>23.334523779156086</v>
       </c>
       <c r="AH34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>23.193102422918773</v>
       </c>
       <c r="AI34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>23.051681066681468</v>
       </c>
       <c r="AJ34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>22.910259710444155</v>
       </c>
       <c r="AK34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>22.768838354206849</v>
       </c>
       <c r="AL34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>22.627416997969533</v>
       </c>
       <c r="AM34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>22.485995641732227</v>
       </c>
       <c r="AN34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>22.344574285494915</v>
       </c>
       <c r="AO34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>22.203152929257605</v>
       </c>
       <c r="AP34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>22.061731573020303</v>
       </c>
       <c r="AQ34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>21.920310216782987</v>
       </c>
       <c r="AR34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>21.778888860545681</v>
       </c>
       <c r="AS34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>21.637467504308368</v>
       </c>
       <c r="AT34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>21.496046148071073</v>
       </c>
       <c r="AU34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>21.354624791833764</v>
       </c>
       <c r="AV34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>21.213203435596455</v>
       </c>
       <c r="AW34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>21.071782079359146</v>
       </c>
       <c r="AX34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>20.930360723121836</v>
       </c>
       <c r="AY34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>20.788939366884527</v>
       </c>
       <c r="AZ34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>20.647518010647218</v>
       </c>
       <c r="BA34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>20.506096654409905</v>
       </c>
       <c r="BB34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>20.3646752981726</v>
       </c>
       <c r="BC34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>20.22325394193529</v>
       </c>
       <c r="BD34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>20.081832585697974</v>
       </c>
       <c r="BE34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>19.940411229460668</v>
       </c>
       <c r="BF34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>19.798989873223359</v>
       </c>
       <c r="BG34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>19.657568516986046</v>
       </c>
       <c r="BH34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>19.516147160748741</v>
       </c>
       <c r="BI34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>19.374725804511435</v>
       </c>
       <c r="BJ34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>19.233304448274122</v>
       </c>
       <c r="BK34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>19.091883092036813</v>
       </c>
       <c r="BL34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>18.950461735799504</v>
       </c>
       <c r="BM34" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>18.809040379562191</v>
       </c>
       <c r="BN34" s="41">
-        <f t="shared" ref="BN34:CZ34" si="5">(IF(BN$26="OOR",0,((BN$32*(IF((BN$27-BN$25)=0,0.5,(BN$27-BN$25))/IF((BN$27-BN$26)=0,1,(BN$27-BN$26))))+(BN$33*(IF((BN$25-BN$26)=0,0.5,(BN$25-BN$26))/IF((BN$27-BN$26)=0,1,(BN$27-BN$26)))))))</f>
+        <f t="shared" ref="BN34:CZ34" si="30">(IF(BN$26="OOR",0,((BN$32*(IF((BN$27-BN$25)=0,0.5,(BN$27-BN$25))/IF((BN$27-BN$26)=0,1,(BN$27-BN$26))))+(BN$33*(IF((BN$25-BN$26)=0,0.5,(BN$25-BN$26))/IF((BN$27-BN$26)=0,1,(BN$27-BN$26)))))))</f>
         <v>18.667619023324885</v>
       </c>
       <c r="BO34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>18.526197667087576</v>
       </c>
       <c r="BP34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>18.384776310850267</v>
       </c>
       <c r="BQ34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>18.243354954612958</v>
       </c>
       <c r="BR34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>18.101933598375645</v>
       </c>
       <c r="BS34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>17.960512242138336</v>
       </c>
       <c r="BT34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>17.819090885901026</v>
       </c>
       <c r="BU34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>17.677669529663721</v>
       </c>
       <c r="BV34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>17.441967269268243</v>
       </c>
       <c r="BW34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>17.206265008872727</v>
       </c>
       <c r="BX34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>16.970562748477214</v>
       </c>
       <c r="BY34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>16.734860488081697</v>
       </c>
       <c r="BZ34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>16.499158227686181</v>
       </c>
       <c r="CA34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>16.263455967290664</v>
       </c>
       <c r="CB34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>16.027753706895147</v>
       </c>
       <c r="CC34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>15.792051446499631</v>
       </c>
       <c r="CD34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>15.556349186104116</v>
       </c>
       <c r="CE34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>15.320646925708601</v>
       </c>
       <c r="CF34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>15.084944665313088</v>
       </c>
       <c r="CG34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>14.849242404917568</v>
       </c>
       <c r="CH34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>14.613540144522052</v>
       </c>
       <c r="CI34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>14.377837884126539</v>
       </c>
       <c r="CJ34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>14.142135623731024</v>
       </c>
       <c r="CK34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>13.906433363335506</v>
       </c>
       <c r="CL34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>13.670731102939989</v>
       </c>
       <c r="CM34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>13.435028842544472</v>
       </c>
       <c r="CN34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>13.199326582148959</v>
       </c>
       <c r="CO34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>12.963624321753443</v>
       </c>
       <c r="CP34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>12.727922061357924</v>
       </c>
       <c r="CQ34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>12.49221980096241</v>
       </c>
       <c r="CR34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>12.256517540566897</v>
       </c>
       <c r="CS34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>12.020815280171378</v>
       </c>
       <c r="CT34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>11.785113019775864</v>
       </c>
       <c r="CU34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>11.549410759380347</v>
       </c>
       <c r="CV34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>11.313708498984832</v>
       </c>
       <c r="CW34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>11.078006238589317</v>
       </c>
       <c r="CX34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>10.842303978193822</v>
       </c>
       <c r="CY34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>10.606601717798307</v>
       </c>
       <c r="CZ34" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A35" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="15">
         <f>(IF(B$34&lt;0,0,(IF(B$34&gt;(100/3),(100/3),B$34))))</f>
         <v>0</v>
       </c>
       <c r="C35" s="41">
-        <f t="shared" ref="C35:BN35" si="6">(IF(C$34&lt;0,0,(IF(C$34&gt;(100/3),(100/3),C$34))))</f>
+        <f t="shared" ref="C35:BN35" si="31">(IF(C$34&lt;0,0,(IF(C$34&gt;(100/3),(100/3),C$34))))</f>
         <v>17.677669529663689</v>
       </c>
       <c r="D35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>18.031222920256962</v>
       </c>
       <c r="E35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>18.384776310850235</v>
       </c>
       <c r="F35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>18.738329701443512</v>
       </c>
       <c r="G35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>19.091883092036785</v>
       </c>
       <c r="H35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>19.445436482630058</v>
       </c>
       <c r="I35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>19.798989873223331</v>
       </c>
       <c r="J35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>20.152543263816604</v>
       </c>
       <c r="K35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>20.50609665440988</v>
       </c>
       <c r="L35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>20.859650045003153</v>
       </c>
       <c r="M35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>21.213203435596427</v>
       </c>
       <c r="N35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>21.5667568261897</v>
       </c>
       <c r="O35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>21.920310216782973</v>
       </c>
       <c r="P35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>22.273863607376242</v>
       </c>
       <c r="Q35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>22.627416997969519</v>
       </c>
       <c r="R35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>22.98097038856276</v>
       </c>
       <c r="S35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>23.334523779156029</v>
       </c>
       <c r="T35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>23.688077169749306</v>
       </c>
       <c r="U35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>24.041630560342583</v>
       </c>
       <c r="V35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>24.395183950935859</v>
       </c>
       <c r="W35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>24.748737341529125</v>
       </c>
       <c r="X35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>24.607315985291866</v>
       </c>
       <c r="Y35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>24.465894629054556</v>
       </c>
       <c r="Z35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>24.324473272817247</v>
       </c>
       <c r="AA35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>24.183051916579942</v>
       </c>
       <c r="AB35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>24.041630560342632</v>
       </c>
       <c r="AC35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>23.900209204105316</v>
       </c>
       <c r="AD35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>23.758787847868003</v>
       </c>
       <c r="AE35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>23.617366491630701</v>
       </c>
       <c r="AF35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>23.475945135393399</v>
       </c>
       <c r="AG35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>23.334523779156086</v>
       </c>
       <c r="AH35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>23.193102422918773</v>
       </c>
       <c r="AI35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>23.051681066681468</v>
       </c>
       <c r="AJ35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>22.910259710444155</v>
       </c>
       <c r="AK35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>22.768838354206849</v>
       </c>
       <c r="AL35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>22.627416997969533</v>
       </c>
       <c r="AM35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>22.485995641732227</v>
       </c>
       <c r="AN35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>22.344574285494915</v>
       </c>
       <c r="AO35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>22.203152929257605</v>
       </c>
       <c r="AP35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>22.061731573020303</v>
       </c>
       <c r="AQ35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>21.920310216782987</v>
       </c>
       <c r="AR35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>21.778888860545681</v>
       </c>
       <c r="AS35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>21.637467504308368</v>
       </c>
       <c r="AT35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>21.496046148071073</v>
       </c>
       <c r="AU35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>21.354624791833764</v>
       </c>
       <c r="AV35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>21.213203435596455</v>
       </c>
       <c r="AW35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>21.071782079359146</v>
       </c>
       <c r="AX35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>20.930360723121836</v>
       </c>
       <c r="AY35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>20.788939366884527</v>
       </c>
       <c r="AZ35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>20.647518010647218</v>
       </c>
       <c r="BA35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>20.506096654409905</v>
       </c>
       <c r="BB35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>20.3646752981726</v>
       </c>
       <c r="BC35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>20.22325394193529</v>
       </c>
       <c r="BD35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>20.081832585697974</v>
       </c>
       <c r="BE35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>19.940411229460668</v>
       </c>
       <c r="BF35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>19.798989873223359</v>
       </c>
       <c r="BG35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>19.657568516986046</v>
       </c>
       <c r="BH35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>19.516147160748741</v>
       </c>
       <c r="BI35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>19.374725804511435</v>
       </c>
       <c r="BJ35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>19.233304448274122</v>
       </c>
       <c r="BK35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>19.091883092036813</v>
       </c>
       <c r="BL35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>18.950461735799504</v>
       </c>
       <c r="BM35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>18.809040379562191</v>
       </c>
       <c r="BN35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>18.667619023324885</v>
       </c>
       <c r="BO35" s="41">
-        <f t="shared" ref="BO35:CZ35" si="7">(IF(BO$34&lt;0,0,(IF(BO$34&gt;(100/3),(100/3),BO$34))))</f>
+        <f t="shared" ref="BO35:CZ35" si="32">(IF(BO$34&lt;0,0,(IF(BO$34&gt;(100/3),(100/3),BO$34))))</f>
         <v>18.526197667087576</v>
       </c>
       <c r="BP35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>18.384776310850267</v>
       </c>
       <c r="BQ35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>18.243354954612958</v>
       </c>
       <c r="BR35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>18.101933598375645</v>
       </c>
       <c r="BS35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>17.960512242138336</v>
       </c>
       <c r="BT35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>17.819090885901026</v>
       </c>
       <c r="BU35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>17.677669529663721</v>
       </c>
       <c r="BV35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>17.441967269268243</v>
       </c>
       <c r="BW35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>17.206265008872727</v>
       </c>
       <c r="BX35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>16.970562748477214</v>
       </c>
       <c r="BY35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>16.734860488081697</v>
       </c>
       <c r="BZ35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>16.499158227686181</v>
       </c>
       <c r="CA35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>16.263455967290664</v>
       </c>
       <c r="CB35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>16.027753706895147</v>
       </c>
       <c r="CC35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>15.792051446499631</v>
       </c>
       <c r="CD35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>15.556349186104116</v>
       </c>
       <c r="CE35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>15.320646925708601</v>
       </c>
       <c r="CF35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>15.084944665313088</v>
       </c>
       <c r="CG35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>14.849242404917568</v>
       </c>
       <c r="CH35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>14.613540144522052</v>
       </c>
       <c r="CI35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>14.377837884126539</v>
       </c>
       <c r="CJ35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>14.142135623731024</v>
       </c>
       <c r="CK35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>13.906433363335506</v>
       </c>
       <c r="CL35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>13.670731102939989</v>
       </c>
       <c r="CM35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>13.435028842544472</v>
       </c>
       <c r="CN35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>13.199326582148959</v>
       </c>
       <c r="CO35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>12.963624321753443</v>
       </c>
       <c r="CP35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>12.727922061357924</v>
       </c>
       <c r="CQ35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>12.49221980096241</v>
       </c>
       <c r="CR35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>12.256517540566897</v>
       </c>
       <c r="CS35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>12.020815280171378</v>
       </c>
       <c r="CT35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>11.785113019775864</v>
       </c>
       <c r="CU35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>11.549410759380347</v>
       </c>
       <c r="CV35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>11.313708498984832</v>
       </c>
       <c r="CW35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>11.078006238589317</v>
       </c>
       <c r="CX35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>10.842303978193822</v>
       </c>
       <c r="CY35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>10.606601717798307</v>
       </c>
       <c r="CZ35" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -8757,411 +8759,411 @@
         <v>0</v>
       </c>
       <c r="C36" s="41">
-        <f t="shared" ref="C36:BN36" si="8">(IF(ISNUMBER(C$26),IF(C$26=C$27,MAX(C$28,C$29,C$30,C$31),(((C$28*(1-((C$25-C$26)/(C$27-C$26))))*((C$27-C$25)/(C$27-C$26)))+((C$29*(1-((C$27-C$25)/(C$27-C$26))))*((C$25-C$26)/(C$27-C$26)))+((C$30*(1-((C$25-C$26)/(C$27-C$26))))*((C$27-C$25)/(C$27-C$26)))+((C$31*(1-((C$27-C$25)/(C$27-C$26))))*((C$25-C$26)/(C$27-C$26))))),0))</f>
+        <f t="shared" ref="C36:BN36" si="33">(IF(ISNUMBER(C$26),IF(C$26=C$27,MAX(C$28,C$29,C$30,C$31),(((C$28*(1-((C$25-C$26)/(C$27-C$26))))*((C$27-C$25)/(C$27-C$26)))+((C$29*(1-((C$27-C$25)/(C$27-C$26))))*((C$25-C$26)/(C$27-C$26)))+((C$30*(1-((C$25-C$26)/(C$27-C$26))))*((C$27-C$25)/(C$27-C$26)))+((C$31*(1-((C$27-C$25)/(C$27-C$26))))*((C$25-C$26)/(C$27-C$26))))),0))</f>
         <v>17.677669529663689</v>
       </c>
       <c r="D36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>16.015968593875307</v>
       </c>
       <c r="E36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>14.566399692442877</v>
       </c>
       <c r="F36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>13.328962825366421</v>
       </c>
       <c r="G36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>12.303657992645924</v>
       </c>
       <c r="H36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>11.490485194281398</v>
       </c>
       <c r="I36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.889444430272833</v>
       </c>
       <c r="J36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.50053570062023</v>
       </c>
       <c r="K36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.323759005323595</v>
       </c>
       <c r="L36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.35911434438292</v>
       </c>
       <c r="M36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.606601717798213</v>
       </c>
       <c r="N36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>11.06622112556947</v>
       </c>
       <c r="O36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>11.737972567696691</v>
       </c>
       <c r="P36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>12.62185604417987</v>
       </c>
       <c r="Q36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>13.71787155501902</v>
       </c>
       <c r="R36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>15.02601910021399</v>
       </c>
       <c r="S36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>16.546298679765044</v>
       </c>
       <c r="T36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>18.27871029367207</v>
       </c>
       <c r="U36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>20.223253941935059</v>
       </c>
       <c r="V36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>22.379929624554009</v>
       </c>
       <c r="W36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>24.748737341528908</v>
       </c>
       <c r="X36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>23.775758410616568</v>
       </c>
       <c r="Y36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>22.836720605200828</v>
       </c>
       <c r="Z36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>21.931623925282043</v>
       </c>
       <c r="AA36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>21.060468370860217</v>
       </c>
       <c r="AB36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>20.223253941935344</v>
       </c>
       <c r="AC36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>19.419980638507418</v>
       </c>
       <c r="AD36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>18.650648460576448</v>
       </c>
       <c r="AE36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>17.915257408142441</v>
       </c>
       <c r="AF36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>17.213807481205382</v>
       </c>
       <c r="AG36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>16.546298679765282</v>
       </c>
       <c r="AH36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>15.912731003822129</v>
       </c>
       <c r="AI36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>15.313104453375933</v>
       </c>
       <c r="AJ36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>14.747419028426689</v>
       </c>
       <c r="AK36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>14.215674728974403</v>
       </c>
       <c r="AL36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>13.717871555019066</v>
       </c>
       <c r="AM36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>13.25400950656069</v>
       </c>
       <c r="AN36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>12.824088583599268</v>
       </c>
       <c r="AO36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>12.428108786134796</v>
       </c>
       <c r="AP36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>12.066070114167283</v>
       </c>
       <c r="AQ36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>11.737972567696719</v>
       </c>
       <c r="AR36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>11.443816146723114</v>
       </c>
       <c r="AS36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>11.18360085124646</v>
       </c>
       <c r="AT36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.957326681266784</v>
       </c>
       <c r="AU36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.764993636784034</v>
       </c>
       <c r="AV36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.606601717798242</v>
       </c>
       <c r="AW36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.482150924309401</v>
       </c>
       <c r="AX36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.391641256317516</v>
       </c>
       <c r="AY36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.335072713822587</v>
       </c>
       <c r="AZ36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.31244529682461</v>
       </c>
       <c r="BA36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.323759005323586</v>
       </c>
       <c r="BB36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.369013839319521</v>
       </c>
       <c r="BC36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.448209798812407</v>
       </c>
       <c r="BD36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.561346883802248</v>
       </c>
       <c r="BE36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.708425094289041</v>
       </c>
       <c r="BF36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>10.889444430272793</v>
       </c>
       <c r="BG36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>11.104404891753497</v>
       </c>
       <c r="BH36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>11.353306478731154</v>
       </c>
       <c r="BI36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>11.636149191205767</v>
       </c>
       <c r="BJ36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>11.952933029177334</v>
       </c>
       <c r="BK36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>12.303657992645856</v>
       </c>
       <c r="BL36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>12.688324081611329</v>
       </c>
       <c r="BM36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>13.106931296073757</v>
       </c>
       <c r="BN36" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>13.559479636033142</v>
       </c>
       <c r="BO36" s="41">
-        <f t="shared" ref="BO36:CZ36" si="9">(IF(ISNUMBER(BO$26),IF(BO$26=BO$27,MAX(BO$28,BO$29,BO$30,BO$31),(((BO$28*(1-((BO$25-BO$26)/(BO$27-BO$26))))*((BO$27-BO$25)/(BO$27-BO$26)))+((BO$29*(1-((BO$27-BO$25)/(BO$27-BO$26))))*((BO$25-BO$26)/(BO$27-BO$26)))+((BO$30*(1-((BO$25-BO$26)/(BO$27-BO$26))))*((BO$27-BO$25)/(BO$27-BO$26)))+((BO$31*(1-((BO$27-BO$25)/(BO$27-BO$26))))*((BO$25-BO$26)/(BO$27-BO$26))))),0))</f>
+        <f t="shared" ref="BO36:CZ36" si="34">(IF(ISNUMBER(BO$26),IF(BO$26=BO$27,MAX(BO$28,BO$29,BO$30,BO$31),(((BO$28*(1-((BO$25-BO$26)/(BO$27-BO$26))))*((BO$27-BO$25)/(BO$27-BO$26)))+((BO$29*(1-((BO$27-BO$25)/(BO$27-BO$26))))*((BO$25-BO$26)/(BO$27-BO$26)))+((BO$30*(1-((BO$25-BO$26)/(BO$27-BO$26))))*((BO$27-BO$25)/(BO$27-BO$26)))+((BO$31*(1-((BO$27-BO$25)/(BO$27-BO$26))))*((BO$25-BO$26)/(BO$27-BO$26))))),0))</f>
         <v>14.045969101489479</v>
       </c>
       <c r="BP36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>14.566399692442776</v>
       </c>
       <c r="BQ36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>15.12077140889302</v>
       </c>
       <c r="BR36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>15.709084250840215</v>
       </c>
       <c r="BS36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>16.331338218284376</v>
       </c>
       <c r="BT36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>16.987533311225487</v>
       </c>
       <c r="BU36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>17.67766952966355</v>
       </c>
       <c r="BV36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>16.530585195739182</v>
       </c>
       <c r="BW36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>15.446354797919787</v>
       </c>
       <c r="BX36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>14.424978336205868</v>
       </c>
       <c r="BY36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>13.466455810597413</v>
       </c>
       <c r="BZ36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>12.570787221094438</v>
       </c>
       <c r="CA36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>11.737972567696929</v>
       </c>
       <c r="CB36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>10.968011850404892</v>
       </c>
       <c r="CC36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>10.260905069218325</v>
       </c>
       <c r="CD36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>9.6166522241372299</v>
       </c>
       <c r="CE36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>9.0352533151616061</v>
       </c>
       <c r="CF36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>8.5167083422914533</v>
       </c>
       <c r="CG36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>8.0610173055267698</v>
       </c>
       <c r="CH36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>7.6681802048675571</v>
       </c>
       <c r="CI36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>7.3381970403138155</v>
       </c>
       <c r="CJ36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>7.0710678118655466</v>
       </c>
       <c r="CK36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>6.8667925195227468</v>
       </c>
       <c r="CL36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>6.7253711632854181</v>
       </c>
       <c r="CM36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>6.6468037431535603</v>
       </c>
       <c r="CN36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>6.6310902591271734</v>
       </c>
       <c r="CO36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>6.6782307112062593</v>
       </c>
       <c r="CP36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>6.7882250993908144</v>
       </c>
       <c r="CQ36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>6.9610734236808405</v>
       </c>
       <c r="CR36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>7.1967756840763357</v>
       </c>
       <c r="CS36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>7.4953318805773055</v>
       </c>
       <c r="CT36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>7.8567420131837435</v>
       </c>
       <c r="CU36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>8.2810060818956543</v>
       </c>
       <c r="CV36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>8.7681240867130334</v>
       </c>
       <c r="CW36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>9.3180960276358871</v>
       </c>
       <c r="CX36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>9.9309219046641477</v>
       </c>
       <c r="CY36" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>10.606601717797929</v>
       </c>
       <c r="CZ36" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -9170,415 +9172,415 @@
         <v>22</v>
       </c>
       <c r="B37" s="15">
-        <f t="shared" ref="B37:BM37" si="10">(IF(ISNUMBER(B$26),IF(B$26=B$27,0,(((B$28*((B$25-B$26)/(B$27-B$26)))*((B$27-B$25)/(B$27-B$26)))+((B$29*((B$27-B$25)/(B$27-B$26)))*((B$25-B$26)/(B$27-B$26)))+((B$30*((B$25-B$26)/(B$27-B$26)))*((B$27-B$25)/(B$27-B$26)))+((B$31*((B$27-B$25)/(B$27-B$26)))*((B$25-B$26)/(B$27-B$26))))),0))</f>
+        <f t="shared" ref="B37:BM37" si="35">(IF(ISNUMBER(B$26),IF(B$26=B$27,0,(((B$28*((B$25-B$26)/(B$27-B$26)))*((B$27-B$25)/(B$27-B$26)))+((B$29*((B$27-B$25)/(B$27-B$26)))*((B$25-B$26)/(B$27-B$26)))+((B$30*((B$25-B$26)/(B$27-B$26)))*((B$27-B$25)/(B$27-B$26)))+((B$31*((B$27-B$25)/(B$27-B$26)))*((B$25-B$26)/(B$27-B$26))))),0))</f>
         <v>0</v>
       </c>
       <c r="C37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="D37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>2.0152543263816538</v>
       </c>
       <c r="E37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>3.8183766184073598</v>
       </c>
       <c r="F37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>5.4093668760770859</v>
       </c>
       <c r="G37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>6.7882250993908606</v>
       </c>
       <c r="H37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>7.9549512883486599</v>
       </c>
       <c r="I37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>8.9095454429504954</v>
       </c>
       <c r="J37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>9.6520075631963724</v>
       </c>
       <c r="K37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.182337649086284</v>
       </c>
       <c r="L37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.500535700620231</v>
       </c>
       <c r="M37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.606601717798213</v>
       </c>
       <c r="N37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.500535700620231</v>
       </c>
       <c r="O37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.182337649086284</v>
       </c>
       <c r="P37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>9.6520075631963742</v>
       </c>
       <c r="Q37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>8.909545442950499</v>
       </c>
       <c r="R37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>7.9549512883487674</v>
       </c>
       <c r="S37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>6.788225099390985</v>
       </c>
       <c r="T37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>5.4093668760772369</v>
       </c>
       <c r="U37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>3.8183766184075254</v>
       </c>
       <c r="V37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>2.0152543263818488</v>
       </c>
       <c r="W37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>2.1667275929835983E-13</v>
       </c>
       <c r="X37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>0.83155757467529723</v>
       </c>
       <c r="Y37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>1.6291740238537271</v>
       </c>
       <c r="Z37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>2.3928493475352024</v>
       </c>
       <c r="AA37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>3.1225835457197242</v>
       </c>
       <c r="AB37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>3.8183766184072878</v>
       </c>
       <c r="AC37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>4.4802285655978995</v>
       </c>
       <c r="AD37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>5.1081393872915566</v>
       </c>
       <c r="AE37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>5.7021090834882617</v>
       </c>
       <c r="AF37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>6.2621376541880132</v>
       </c>
       <c r="AG37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>6.7882250993908064</v>
       </c>
       <c r="AH37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>7.2803714190966478</v>
       </c>
       <c r="AI37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>7.7385766133055318</v>
       </c>
       <c r="AJ37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>8.1628406820174639</v>
       </c>
       <c r="AK37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>8.5531636252324414</v>
       </c>
       <c r="AL37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>8.9095454429504635</v>
       </c>
       <c r="AM37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>9.2319861351715335</v>
       </c>
       <c r="AN37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>9.5204857018956481</v>
       </c>
       <c r="AO37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>9.775044143122809</v>
       </c>
       <c r="AP37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>9.9956614588530179</v>
       </c>
       <c r="AQ37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.182337649086266</v>
       </c>
       <c r="AR37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.335072713822566</v>
       </c>
       <c r="AS37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.45386665306191</v>
       </c>
       <c r="AT37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.538719466804292</v>
       </c>
       <c r="AU37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.589631155049728</v>
       </c>
       <c r="AV37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.606601717798213</v>
       </c>
       <c r="AW37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.589631155049741</v>
       </c>
       <c r="AX37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.538719466804316</v>
       </c>
       <c r="AY37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.453866653061938</v>
       </c>
       <c r="AZ37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.335072713822607</v>
       </c>
       <c r="BA37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>10.182337649086318</v>
       </c>
       <c r="BB37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>9.9956614588530766</v>
       </c>
       <c r="BC37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>9.7750441431228801</v>
       </c>
       <c r="BD37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>9.5204857018957281</v>
       </c>
       <c r="BE37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>9.2319861351716241</v>
       </c>
       <c r="BF37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>8.9095454429505647</v>
       </c>
       <c r="BG37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>8.5531636252325516</v>
       </c>
       <c r="BH37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>8.1628406820175847</v>
       </c>
       <c r="BI37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>7.7385766133056677</v>
       </c>
       <c r="BJ37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>7.2803714190967899</v>
       </c>
       <c r="BK37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>6.7882250993909601</v>
       </c>
       <c r="BL37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>6.2621376541881739</v>
       </c>
       <c r="BM37" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>5.702109083488434</v>
       </c>
       <c r="BN37" s="41">
-        <f t="shared" ref="BN37:CZ37" si="11">(IF(ISNUMBER(BN$26),IF(BN$26=BN$27,0,(((BN$28*((BN$25-BN$26)/(BN$27-BN$26)))*((BN$27-BN$25)/(BN$27-BN$26)))+((BN$29*((BN$27-BN$25)/(BN$27-BN$26)))*((BN$25-BN$26)/(BN$27-BN$26)))+((BN$30*((BN$25-BN$26)/(BN$27-BN$26)))*((BN$27-BN$25)/(BN$27-BN$26)))+((BN$31*((BN$27-BN$25)/(BN$27-BN$26)))*((BN$25-BN$26)/(BN$27-BN$26))))),0))</f>
+        <f t="shared" ref="BN37:CZ37" si="36">(IF(ISNUMBER(BN$26),IF(BN$26=BN$27,0,(((BN$28*((BN$25-BN$26)/(BN$27-BN$26)))*((BN$27-BN$25)/(BN$27-BN$26)))+((BN$29*((BN$27-BN$25)/(BN$27-BN$26)))*((BN$25-BN$26)/(BN$27-BN$26)))+((BN$30*((BN$25-BN$26)/(BN$27-BN$26)))*((BN$27-BN$25)/(BN$27-BN$26)))+((BN$31*((BN$27-BN$25)/(BN$27-BN$26)))*((BN$25-BN$26)/(BN$27-BN$26))))),0))</f>
         <v>5.1081393872917422</v>
       </c>
       <c r="BO37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>4.480228565598094</v>
       </c>
       <c r="BP37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>3.8183766184074939</v>
       </c>
       <c r="BQ37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>3.122583545719936</v>
       </c>
       <c r="BR37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>2.3928493475354258</v>
       </c>
       <c r="BS37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>1.6291740238539614</v>
       </c>
       <c r="BT37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>0.83155757467554337</v>
       </c>
       <c r="BU37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>1.6956998553784706E-13</v>
       </c>
       <c r="BV37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>0.91138207352906297</v>
       </c>
       <c r="BW37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>1.7599102109529396</v>
       </c>
       <c r="BX37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>2.5455844122713458</v>
       </c>
       <c r="BY37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>3.2684046774842797</v>
       </c>
       <c r="BZ37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>3.9283710065917408</v>
       </c>
       <c r="CA37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>4.5254833995937336</v>
       </c>
       <c r="CB37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>5.0597418564902554</v>
       </c>
       <c r="CC37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>5.5311463772813063</v>
       </c>
       <c r="CD37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>5.9396969619668871</v>
       </c>
       <c r="CE37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>6.2853936105469934</v>
       </c>
       <c r="CF37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>6.5682363230216341</v>
       </c>
       <c r="CG37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>6.7882250993907993</v>
       </c>
       <c r="CH37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>6.9453599396544963</v>
       </c>
       <c r="CI37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>7.0396408438127214</v>
       </c>
       <c r="CJ37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>7.0710678118654773</v>
       </c>
       <c r="CK37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>7.0396408438127596</v>
       </c>
       <c r="CL37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>6.9453599396545709</v>
       </c>
       <c r="CM37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>6.7882250993909112</v>
       </c>
       <c r="CN37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>6.5682363230217842</v>
       </c>
       <c r="CO37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>6.2853936105471853</v>
       </c>
       <c r="CP37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>5.9396969619671101</v>
       </c>
       <c r="CQ37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>5.5311463772815683</v>
       </c>
       <c r="CR37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>5.0597418564905601</v>
       </c>
       <c r="CS37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>4.5254833995940738</v>
       </c>
       <c r="CT37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>3.9283710065921209</v>
       </c>
       <c r="CU37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>3.2684046774846913</v>
       </c>
       <c r="CV37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>2.5455844122717974</v>
       </c>
       <c r="CW37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>1.7599102109534333</v>
       </c>
       <c r="CX37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>0.9113820735296766</v>
       </c>
       <c r="CY37" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>3.7682219008410093E-13</v>
       </c>
       <c r="CZ37" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -9591,411 +9593,411 @@
         <v>0</v>
       </c>
       <c r="C38" s="41">
-        <f t="shared" ref="C38:BN38" si="12">(IF(ISNUMBER(C$26),(((IF(C$26=C$27, 1, IF(C$25&lt;=((C$26+(C$27-C$26)/2)), (1-(SQRT(((C$25-C$26)/(C$27-C$26))^2))), (SQRT(((C$25-C$26)/(C$27-C$26))^2)))))-0.5)*2),0))</f>
+        <f t="shared" ref="C38:BN38" si="37">(IF(ISNUMBER(C$26),(((IF(C$26=C$27, 1, IF(C$25&lt;=((C$26+(C$27-C$26)/2)), (1-(SQRT(((C$25-C$26)/(C$27-C$26))^2))), (SQRT(((C$25-C$26)/(C$27-C$26))^2)))))-0.5)*2),0))</f>
         <v>1</v>
       </c>
       <c r="D38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="E38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="F38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="G38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="H38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.5</v>
       </c>
       <c r="I38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="J38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="K38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="L38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="M38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="P38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="Q38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="R38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.49999999999998979</v>
       </c>
       <c r="S38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.59999999999998987</v>
       </c>
       <c r="T38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.69999999999998996</v>
       </c>
       <c r="U38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.79999999999999005</v>
       </c>
       <c r="V38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.89999999999999014</v>
       </c>
       <c r="W38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.99999999999998979</v>
       </c>
       <c r="X38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.96000000000000396</v>
       </c>
       <c r="Y38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.92000000000000393</v>
       </c>
       <c r="Z38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.88000000000000389</v>
       </c>
       <c r="AA38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.84000000000000385</v>
       </c>
       <c r="AB38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.80000000000000404</v>
       </c>
       <c r="AC38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.76000000000000401</v>
       </c>
       <c r="AD38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.72000000000000397</v>
       </c>
       <c r="AE38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.68000000000000393</v>
       </c>
       <c r="AF38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.6400000000000039</v>
       </c>
       <c r="AG38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.60000000000000409</v>
       </c>
       <c r="AH38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.56000000000000405</v>
       </c>
       <c r="AI38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.52000000000000401</v>
       </c>
       <c r="AJ38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.48000000000000398</v>
       </c>
       <c r="AK38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.44000000000000394</v>
       </c>
       <c r="AL38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.40000000000000391</v>
       </c>
       <c r="AM38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.36000000000000387</v>
       </c>
       <c r="AN38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.32000000000000406</v>
       </c>
       <c r="AO38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.28000000000000402</v>
       </c>
       <c r="AP38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.24000000000000399</v>
       </c>
       <c r="AQ38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.20000000000000395</v>
       </c>
       <c r="AR38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.16000000000000414</v>
       </c>
       <c r="AS38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.1200000000000041</v>
       </c>
       <c r="AT38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>8.0000000000008065E-2</v>
       </c>
       <c r="AU38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>4.0000000000008029E-2</v>
       </c>
       <c r="AV38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>7.9936057773011271E-15</v>
       </c>
       <c r="AW38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>3.9999999999992042E-2</v>
       </c>
       <c r="AX38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>7.9999999999992077E-2</v>
       </c>
       <c r="AY38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.11999999999999189</v>
       </c>
       <c r="AZ38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.15999999999999193</v>
       </c>
       <c r="BA38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.19999999999999174</v>
       </c>
       <c r="BB38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.239999999999992</v>
       </c>
       <c r="BC38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.27999999999999203</v>
       </c>
       <c r="BD38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.31999999999999185</v>
       </c>
       <c r="BE38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.35999999999999188</v>
       </c>
       <c r="BF38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.39999999999999192</v>
       </c>
       <c r="BG38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.43999999999999195</v>
       </c>
       <c r="BH38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.47999999999999199</v>
       </c>
       <c r="BI38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.51999999999999202</v>
       </c>
       <c r="BJ38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.55999999999999206</v>
       </c>
       <c r="BK38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.5999999999999921</v>
       </c>
       <c r="BL38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.63999999999999213</v>
       </c>
       <c r="BM38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.67999999999999194</v>
       </c>
       <c r="BN38" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0.7199999999999922</v>
       </c>
       <c r="BO38" s="41">
-        <f t="shared" ref="BO38:CZ38" si="13">(IF(ISNUMBER(BO$26),(((IF(BO$26=BO$27, 1, IF(BO$25&lt;=((BO$26+(BO$27-BO$26)/2)), (1-(SQRT(((BO$25-BO$26)/(BO$27-BO$26))^2))), (SQRT(((BO$25-BO$26)/(BO$27-BO$26))^2)))))-0.5)*2),0))</f>
+        <f t="shared" ref="BO38:CZ38" si="38">(IF(ISNUMBER(BO$26),(((IF(BO$26=BO$27, 1, IF(BO$25&lt;=((BO$26+(BO$27-BO$26)/2)), (1-(SQRT(((BO$25-BO$26)/(BO$27-BO$26))^2))), (SQRT(((BO$25-BO$26)/(BO$27-BO$26))^2)))))-0.5)*2),0))</f>
         <v>0.75999999999999202</v>
       </c>
       <c r="BP38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.79999999999999227</v>
       </c>
       <c r="BQ38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.83999999999999209</v>
       </c>
       <c r="BR38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.8799999999999919</v>
       </c>
       <c r="BS38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.91999999999999216</v>
       </c>
       <c r="BT38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.95999999999999197</v>
       </c>
       <c r="BU38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.99999999999999223</v>
       </c>
       <c r="BV38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.93333333333335333</v>
       </c>
       <c r="BW38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.86666666666668668</v>
       </c>
       <c r="BX38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.80000000000002003</v>
       </c>
       <c r="BY38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.73333333333335315</v>
       </c>
       <c r="BZ38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.66666666666668672</v>
       </c>
       <c r="CA38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.60000000000002007</v>
       </c>
       <c r="CB38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.53333333333335342</v>
       </c>
       <c r="CC38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.46666666666668677</v>
       </c>
       <c r="CD38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.4000000000000199</v>
       </c>
       <c r="CE38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.33333333333335347</v>
       </c>
       <c r="CF38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.26666666666668659</v>
       </c>
       <c r="CG38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.20000000000002016</v>
       </c>
       <c r="CH38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.13333333333335329</v>
       </c>
       <c r="CI38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>6.6666666666686414E-2</v>
       </c>
       <c r="CJ38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>1.9984014443252818E-14</v>
       </c>
       <c r="CK38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>6.6666666666646668E-2</v>
       </c>
       <c r="CL38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.13333333333331332</v>
       </c>
       <c r="CM38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.19999999999997997</v>
       </c>
       <c r="CN38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.26666666666664685</v>
       </c>
       <c r="CO38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.33333333333331328</v>
       </c>
       <c r="CP38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.39999999999998015</v>
       </c>
       <c r="CQ38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.46666666666664658</v>
       </c>
       <c r="CR38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.53333333333331301</v>
       </c>
       <c r="CS38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.5999999999999801</v>
       </c>
       <c r="CT38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.66666666666664653</v>
       </c>
       <c r="CU38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.73333333333331363</v>
       </c>
       <c r="CV38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.79999999999998006</v>
       </c>
       <c r="CW38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.86666666666664649</v>
       </c>
       <c r="CX38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.93333333333330692</v>
       </c>
       <c r="CY38" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0.99999999999997335</v>
       </c>
       <c r="CZ38" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -10004,415 +10006,415 @@
         <v>26</v>
       </c>
       <c r="B39" s="15">
-        <f>(IF(B$26="OOR",0,((((B$36*((1-B$38)*IF(B$26=B$27,1,(1-((B$27-B$26)/($B$18-$B$17))))))+((B$36+(IF(((B$27-B$26)/($B$18-$B$17))=1,B$37,(B$37/IF(B$26=B$27,1,(1-((B$27-B$26)/($B$18-$B$17))))))*B38))*B$38))*(1-((1-B$38)*IF(B$26=B$27,1,((B$27-B$26)/($B18-$B17))))))+((B$35-(((B$36*((1-B$38)*IF(B$26=B$27,1,(1-((B$27-B$26)/($B$18-$B$17))))))+((B$36+(IF(((B$27-B$26)/($B$18-$B$17))=1,B$37,(B$37/IF(B$26=B$27,1,(1-((B$27-B$26)/($B$18-$B$17))))))*B38))*B$38))*(1-((1-B$38)*IF(B$26=B$27,1,((B$27-B$26)/($B18-$B17)))))))*(1-((B$27-B$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" ref="B39:AG39" si="39">(IF(B$26="OOR",0,((((B$36*((1-B$38)*IF(B$26=B$27,1,(1-((B$27-B$26)/($B$18-$B$17))))))+((B$36+(IF(((B$27-B$26)/($B$18-$B$17))=1,B$37,(B$37/IF(B$26=B$27,1,(1-((B$27-B$26)/($B$18-$B$17))))))*B38))*B$38))*(1-((1-B$38)*IF(B$26=B$27,1,((B$27-B$26)/($B18-$B17))))))+((B$35-(((B$36*((1-B$38)*IF(B$26=B$27,1,(1-((B$27-B$26)/($B$18-$B$17))))))+((B$36+(IF(((B$27-B$26)/($B$18-$B$17))=1,B$37,(B$37/IF(B$26=B$27,1,(1-((B$27-B$26)/($B$18-$B$17))))))*B38))*B$38))*(1-((1-B$38)*IF(B$26=B$27,1,((B$27-B$26)/($B18-$B17)))))))*(1-((B$27-B$26)/($B$18-$B$17)))))))</f>
         <v>0</v>
       </c>
       <c r="C39" s="41">
-        <f>(IF(C$26="OOR",0,((((C$36*((1-C$38)*IF(C$26=C$27,1,(1-((C$27-C$26)/($B$18-$B$17))))))+((C$36+(IF(((C$27-C$26)/($B$18-$B$17))=1,C$37,(C$37/IF(C$26=C$27,1,(1-((C$27-C$26)/($B$18-$B$17))))))*C38))*C$38))*(1-((1-C$38)*IF(C$26=C$27,1,((C$27-C$26)/($B18-$B17))))))+((C$35-(((C$36*((1-C$38)*IF(C$26=C$27,1,(1-((C$27-C$26)/($B$18-$B$17))))))+((C$36+(IF(((C$27-C$26)/($B$18-$B$17))=1,C$37,(C$37/IF(C$26=C$27,1,(1-((C$27-C$26)/($B$18-$B$17))))))*C38))*C$38))*(1-((1-C$38)*IF(C$26=C$27,1,((C$27-C$26)/($B18-$B17)))))))*(1-((C$27-C$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>17.677669529663689</v>
       </c>
       <c r="D39" s="41">
-        <f>(IF(D$26="OOR",0,((((D$36*((1-D$38)*IF(D$26=D$27,1,(1-((D$27-D$26)/($B$18-$B$17))))))+((D$36+(IF(((D$27-D$26)/($B$18-$B$17))=1,D$37,(D$37/IF(D$26=D$27,1,(1-((D$27-D$26)/($B$18-$B$17))))))*D38))*D$38))*(1-((1-D$38)*IF(D$26=D$27,1,((D$27-D$26)/($B18-$B17))))))+((D$35-(((D$36*((1-D$38)*IF(D$26=D$27,1,(1-((D$27-D$26)/($B$18-$B$17))))))+((D$36+(IF(((D$27-D$26)/($B$18-$B$17))=1,D$37,(D$37/IF(D$26=D$27,1,(1-((D$27-D$26)/($B$18-$B$17))))))*D38))*D$38))*(1-((1-D$38)*IF(D$26=D$27,1,((D$27-D$26)/($B18-$B17)))))))*(1-((D$27-D$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>17.901252804787578</v>
       </c>
       <c r="E39" s="41">
-        <f>(IF(E$26="OOR",0,((((E$36*((1-E$38)*IF(E$26=E$27,1,(1-((E$27-E$26)/($B$18-$B$17))))))+((E$36+(IF(((E$27-E$26)/($B$18-$B$17))=1,E$37,(E$37/IF(E$26=E$27,1,(1-((E$27-E$26)/($B$18-$B$17))))))*E38))*E$38))*(1-((1-E$38)*IF(E$26=E$27,1,((E$27-E$26)/($B18-$B17))))))+((E$35-(((E$36*((1-E$38)*IF(E$26=E$27,1,(1-((E$27-E$26)/($B$18-$B$17))))))+((E$36+(IF(((E$27-E$26)/($B$18-$B$17))=1,E$37,(E$37/IF(E$26=E$27,1,(1-((E$27-E$26)/($B$18-$B$17))))))*E38))*E$38))*(1-((1-E$38)*IF(E$26=E$27,1,((E$27-E$26)/($B18-$B17)))))))*(1-((E$27-E$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>17.979202488578629</v>
       </c>
       <c r="F39" s="41">
-        <f>(IF(F$26="OOR",0,((((F$36*((1-F$38)*IF(F$26=F$27,1,(1-((F$27-F$26)/($B$18-$B$17))))))+((F$36+(IF(((F$27-F$26)/($B$18-$B$17))=1,F$37,(F$37/IF(F$26=F$27,1,(1-((F$27-F$26)/($B$18-$B$17))))))*F38))*F$38))*(1-((1-F$38)*IF(F$26=F$27,1,((F$27-F$26)/($B18-$B17))))))+((F$35-(((F$36*((1-F$38)*IF(F$26=F$27,1,(1-((F$27-F$26)/($B$18-$B$17))))))+((F$36+(IF(((F$27-F$26)/($B$18-$B$17))=1,F$37,(F$37/IF(F$26=F$27,1,(1-((F$27-F$26)/($B$18-$B$17))))))*F38))*F$38))*(1-((1-F$38)*IF(F$26=F$27,1,((F$27-F$26)/($B18-$B17)))))))*(1-((F$27-F$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>17.96904666743384</v>
       </c>
       <c r="G39" s="41">
-        <f>(IF(G$26="OOR",0,((((G$36*((1-G$38)*IF(G$26=G$27,1,(1-((G$27-G$26)/($B$18-$B$17))))))+((G$36+(IF(((G$27-G$26)/($B$18-$B$17))=1,G$37,(G$37/IF(G$26=G$27,1,(1-((G$27-G$26)/($B$18-$B$17))))))*G38))*G$38))*(1-((1-G$38)*IF(G$26=G$27,1,((G$27-G$26)/($B18-$B17))))))+((G$35-(((G$36*((1-G$38)*IF(G$26=G$27,1,(1-((G$27-G$26)/($B$18-$B$17))))))+((G$36+(IF(((G$27-G$26)/($B$18-$B$17))=1,G$37,(G$37/IF(G$26=G$27,1,(1-((G$27-G$26)/($B$18-$B$17))))))*G38))*G$38))*(1-((1-G$38)*IF(G$26=G$27,1,((G$27-G$26)/($B18-$B17)))))))*(1-((G$27-G$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>17.918334736854092</v>
       </c>
       <c r="H39" s="41">
-        <f>(IF(H$26="OOR",0,((((H$36*((1-H$38)*IF(H$26=H$27,1,(1-((H$27-H$26)/($B$18-$B$17))))))+((H$36+(IF(((H$27-H$26)/($B$18-$B$17))=1,H$37,(H$37/IF(H$26=H$27,1,(1-((H$27-H$26)/($B$18-$B$17))))))*H38))*H$38))*(1-((1-H$38)*IF(H$26=H$27,1,((H$27-H$26)/($B18-$B17))))))+((H$35-(((H$36*((1-H$38)*IF(H$26=H$27,1,(1-((H$27-H$26)/($B$18-$B$17))))))+((H$36+(IF(((H$27-H$26)/($B$18-$B$17))=1,H$37,(H$37/IF(H$26=H$27,1,(1-((H$27-H$26)/($B$18-$B$17))))))*H38))*H$38))*(1-((1-H$38)*IF(H$26=H$27,1,((H$27-H$26)/($B18-$B17)))))))*(1-((H$27-H$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>17.865273797547246</v>
       </c>
       <c r="I39" s="41">
-        <f>(IF(I$26="OOR",0,((((I$36*((1-I$38)*IF(I$26=I$27,1,(1-((I$27-I$26)/($B$18-$B$17))))))+((I$36+(IF(((I$27-I$26)/($B$18-$B$17))=1,I$37,(I$37/IF(I$26=I$27,1,(1-((I$27-I$26)/($B$18-$B$17))))))*I38))*I$38))*(1-((1-I$38)*IF(I$26=I$27,1,((I$27-I$26)/($B18-$B17))))))+((I$35-(((I$36*((1-I$38)*IF(I$26=I$27,1,(1-((I$27-I$26)/($B$18-$B$17))))))+((I$36+(IF(((I$27-I$26)/($B$18-$B$17))=1,I$37,(I$37/IF(I$26=I$27,1,(1-((I$27-I$26)/($B$18-$B$17))))))*I38))*I$38))*(1-((1-I$38)*IF(I$26=I$27,1,((I$27-I$26)/($B18-$B17)))))))*(1-((I$27-I$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>17.839365051531182</v>
       </c>
       <c r="J39" s="41">
-        <f>(IF(J$26="OOR",0,((((J$36*((1-J$38)*IF(J$26=J$27,1,(1-((J$27-J$26)/($B$18-$B$17))))))+((J$36+(IF(((J$27-J$26)/($B$18-$B$17))=1,J$37,(J$37/IF(J$26=J$27,1,(1-((J$27-J$26)/($B$18-$B$17))))))*J38))*J$38))*(1-((1-J$38)*IF(J$26=J$27,1,((J$27-J$26)/($B18-$B17))))))+((J$35-(((J$36*((1-J$38)*IF(J$26=J$27,1,(1-((J$27-J$26)/($B$18-$B$17))))))+((J$36+(IF(((J$27-J$26)/($B$18-$B$17))=1,J$37,(J$37/IF(J$26=J$27,1,(1-((J$27-J$26)/($B$18-$B$17))))))*J38))*J$38))*(1-((1-J$38)*IF(J$26=J$27,1,((J$27-J$26)/($B18-$B17)))))))*(1-((J$27-J$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>17.862040198236876</v>
       </c>
       <c r="K39" s="41">
-        <f>(IF(K$26="OOR",0,((((K$36*((1-K$38)*IF(K$26=K$27,1,(1-((K$27-K$26)/($B$18-$B$17))))))+((K$36+(IF(((K$27-K$26)/($B$18-$B$17))=1,K$37,(K$37/IF(K$26=K$27,1,(1-((K$27-K$26)/($B$18-$B$17))))))*K38))*K$38))*(1-((1-K$38)*IF(K$26=K$27,1,((K$27-K$26)/($B18-$B17))))))+((K$35-(((K$36*((1-K$38)*IF(K$26=K$27,1,(1-((K$27-K$26)/($B$18-$B$17))))))+((K$36+(IF(((K$27-K$26)/($B$18-$B$17))=1,K$37,(K$37/IF(K$26=K$27,1,(1-((K$27-K$26)/($B$18-$B$17))))))*K38))*K$38))*(1-((1-K$38)*IF(K$26=K$27,1,((K$27-K$26)/($B18-$B17)))))))*(1-((K$27-K$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>17.947297830611497</v>
       </c>
       <c r="L39" s="41">
-        <f>(IF(L$26="OOR",0,((((L$36*((1-L$38)*IF(L$26=L$27,1,(1-((L$27-L$26)/($B$18-$B$17))))))+((L$36+(IF(((L$27-L$26)/($B$18-$B$17))=1,L$37,(L$37/IF(L$26=L$27,1,(1-((L$27-L$26)/($B$18-$B$17))))))*L38))*L$38))*(1-((1-L$38)*IF(L$26=L$27,1,((L$27-L$26)/($B18-$B17))))))+((L$35-(((L$36*((1-L$38)*IF(L$26=L$27,1,(1-((L$27-L$26)/($B$18-$B$17))))))+((L$36+(IF(((L$27-L$26)/($B$18-$B$17))=1,L$37,(L$37/IF(L$26=L$27,1,(1-((L$27-L$26)/($B$18-$B$17))))))*L38))*L$38))*(1-((1-L$38)*IF(L$26=L$27,1,((L$27-L$26)/($B18-$B17)))))))*(1-((L$27-L$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>18.102339831221411</v>
       </c>
       <c r="M39" s="41">
-        <f>(IF(M$26="OOR",0,((((M$36*((1-M$38)*IF(M$26=M$27,1,(1-((M$27-M$26)/($B$18-$B$17))))))+((M$36+(IF(((M$27-M$26)/($B$18-$B$17))=1,M$37,(M$37/IF(M$26=M$27,1,(1-((M$27-M$26)/($B$18-$B$17))))))*M38))*M$38))*(1-((1-M$38)*IF(M$26=M$27,1,((M$27-M$26)/($B18-$B17))))))+((M$35-(((M$36*((1-M$38)*IF(M$26=M$27,1,(1-((M$27-M$26)/($B$18-$B$17))))))+((M$36+(IF(((M$27-M$26)/($B$18-$B$17))=1,M$37,(M$37/IF(M$26=M$27,1,(1-((M$27-M$26)/($B$18-$B$17))))))*M38))*M$38))*(1-((1-M$38)*IF(M$26=M$27,1,((M$27-M$26)/($B18-$B17)))))))*(1-((M$27-M$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>18.328207768355313</v>
       </c>
       <c r="N39" s="41">
-        <f>(IF(N$26="OOR",0,((((N$36*((1-N$38)*IF(N$26=N$27,1,(1-((N$27-N$26)/($B$18-$B$17))))))+((N$36+(IF(((N$27-N$26)/($B$18-$B$17))=1,N$37,(N$37/IF(N$26=N$27,1,(1-((N$27-N$26)/($B$18-$B$17))))))*N38))*N$38))*(1-((1-N$38)*IF(N$26=N$27,1,((N$27-N$26)/($B18-$B17))))))+((N$35-(((N$36*((1-N$38)*IF(N$26=N$27,1,(1-((N$27-N$26)/($B$18-$B$17))))))+((N$36+(IF(((N$27-N$26)/($B$18-$B$17))=1,N$37,(N$37/IF(N$26=N$27,1,(1-((N$27-N$26)/($B$18-$B$17))))))*N38))*N$38))*(1-((1-N$38)*IF(N$26=N$27,1,((N$27-N$26)/($B18-$B17)))))))*(1-((N$27-N$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>18.763116976104612</v>
       </c>
       <c r="O39" s="41">
-        <f>(IF(O$26="OOR",0,((((O$36*((1-O$38)*IF(O$26=O$27,1,(1-((O$27-O$26)/($B$18-$B$17))))))+((O$36+(IF(((O$27-O$26)/($B$18-$B$17))=1,O$37,(O$37/IF(O$26=O$27,1,(1-((O$27-O$26)/($B$18-$B$17))))))*O38))*O$38))*(1-((1-O$38)*IF(O$26=O$27,1,((O$27-O$26)/($B18-$B17))))))+((O$35-(((O$36*((1-O$38)*IF(O$26=O$27,1,(1-((O$27-O$26)/($B$18-$B$17))))))+((O$36+(IF(((O$27-O$26)/($B$18-$B$17))=1,O$37,(O$37/IF(O$26=O$27,1,(1-((O$27-O$26)/($B$18-$B$17))))))*O38))*O$38))*(1-((1-O$38)*IF(O$26=O$27,1,((O$27-O$26)/($B18-$B17)))))))*(1-((O$27-O$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>19.278242498432061</v>
       </c>
       <c r="P39" s="41">
-        <f>(IF(P$26="OOR",0,((((P$36*((1-P$38)*IF(P$26=P$27,1,(1-((P$27-P$26)/($B$18-$B$17))))))+((P$36+(IF(((P$27-P$26)/($B$18-$B$17))=1,P$37,(P$37/IF(P$26=P$27,1,(1-((P$27-P$26)/($B$18-$B$17))))))*P38))*P$38))*(1-((1-P$38)*IF(P$26=P$27,1,((P$27-P$26)/($B18-$B17))))))+((P$35-(((P$36*((1-P$38)*IF(P$26=P$27,1,(1-((P$27-P$26)/($B$18-$B$17))))))+((P$36+(IF(((P$27-P$26)/($B$18-$B$17))=1,P$37,(P$37/IF(P$26=P$27,1,(1-((P$27-P$26)/($B$18-$B$17))))))*P38))*P$38))*(1-((1-P$38)*IF(P$26=P$27,1,((P$27-P$26)/($B18-$B17)))))))*(1-((P$27-P$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>19.872882178303932</v>
       </c>
       <c r="Q39" s="41">
-        <f>(IF(Q$26="OOR",0,((((Q$36*((1-Q$38)*IF(Q$26=Q$27,1,(1-((Q$27-Q$26)/($B$18-$B$17))))))+((Q$36+(IF(((Q$27-Q$26)/($B$18-$B$17))=1,Q$37,(Q$37/IF(Q$26=Q$27,1,(1-((Q$27-Q$26)/($B$18-$B$17))))))*Q38))*Q$38))*(1-((1-Q$38)*IF(Q$26=Q$27,1,((Q$27-Q$26)/($B18-$B17))))))+((Q$35-(((Q$36*((1-Q$38)*IF(Q$26=Q$27,1,(1-((Q$27-Q$26)/($B$18-$B$17))))))+((Q$36+(IF(((Q$27-Q$26)/($B$18-$B$17))=1,Q$37,(Q$37/IF(Q$26=Q$27,1,(1-((Q$27-Q$26)/($B$18-$B$17))))))*Q38))*Q$38))*(1-((1-Q$38)*IF(Q$26=Q$27,1,((Q$27-Q$26)/($B18-$B17)))))))*(1-((Q$27-Q$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>20.540173544408816</v>
       </c>
       <c r="R39" s="41">
-        <f>(IF(R$26="OOR",0,((((R$36*((1-R$38)*IF(R$26=R$27,1,(1-((R$27-R$26)/($B$18-$B$17))))))+((R$36+(IF(((R$27-R$26)/($B$18-$B$17))=1,R$37,(R$37/IF(R$26=R$27,1,(1-((R$27-R$26)/($B$18-$B$17))))))*R38))*R$38))*(1-((1-R$38)*IF(R$26=R$27,1,((R$27-R$26)/($B18-$B17))))))+((R$35-(((R$36*((1-R$38)*IF(R$26=R$27,1,(1-((R$27-R$26)/($B$18-$B$17))))))+((R$36+(IF(((R$27-R$26)/($B$18-$B$17))=1,R$37,(R$37/IF(R$26=R$27,1,(1-((R$27-R$26)/($B$18-$B$17))))))*R38))*R$38))*(1-((1-R$38)*IF(R$26=R$27,1,((R$27-R$26)/($B18-$B17)))))))*(1-((R$27-R$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>21.266457415054461</v>
       </c>
       <c r="S39" s="41">
-        <f>(IF(S$26="OOR",0,((((S$36*((1-S$38)*IF(S$26=S$27,1,(1-((S$27-S$26)/($B$18-$B$17))))))+((S$36+(IF(((S$27-S$26)/($B$18-$B$17))=1,S$37,(S$37/IF(S$26=S$27,1,(1-((S$27-S$26)/($B$18-$B$17))))))*S38))*S$38))*(1-((1-S$38)*IF(S$26=S$27,1,((S$27-S$26)/($B18-$B17))))))+((S$35-(((S$36*((1-S$38)*IF(S$26=S$27,1,(1-((S$27-S$26)/($B$18-$B$17))))))+((S$36+(IF(((S$27-S$26)/($B$18-$B$17))=1,S$37,(S$37/IF(S$26=S$27,1,(1-((S$27-S$26)/($B$18-$B$17))))))*S38))*S$38))*(1-((1-S$38)*IF(S$26=S$27,1,((S$27-S$26)/($B18-$B17)))))))*(1-((S$27-S$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>22.030641502064991</v>
       </c>
       <c r="T39" s="41">
-        <f>(IF(T$26="OOR",0,((((T$36*((1-T$38)*IF(T$26=T$27,1,(1-((T$27-T$26)/($B$18-$B$17))))))+((T$36+(IF(((T$27-T$26)/($B$18-$B$17))=1,T$37,(T$37/IF(T$26=T$27,1,(1-((T$27-T$26)/($B$18-$B$17))))))*T38))*T$38))*(1-((1-T$38)*IF(T$26=T$27,1,((T$27-T$26)/($B18-$B17))))))+((T$35-(((T$36*((1-T$38)*IF(T$26=T$27,1,(1-((T$27-T$26)/($B$18-$B$17))))))+((T$36+(IF(((T$27-T$26)/($B$18-$B$17))=1,T$37,(T$37/IF(T$26=T$27,1,(1-((T$27-T$26)/($B$18-$B$17))))))*T38))*T$38))*(1-((1-T$38)*IF(T$26=T$27,1,((T$27-T$26)/($B18-$B17)))))))*(1-((T$27-T$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>22.803564014677434</v>
       </c>
       <c r="U39" s="41">
-        <f>(IF(U$26="OOR",0,((((U$36*((1-U$38)*IF(U$26=U$27,1,(1-((U$27-U$26)/($B$18-$B$17))))))+((U$36+(IF(((U$27-U$26)/($B$18-$B$17))=1,U$37,(U$37/IF(U$26=U$27,1,(1-((U$27-U$26)/($B$18-$B$17))))))*U38))*U$38))*(1-((1-U$38)*IF(U$26=U$27,1,((U$27-U$26)/($B18-$B17))))))+((U$35-(((U$36*((1-U$38)*IF(U$26=U$27,1,(1-((U$27-U$26)/($B$18-$B$17))))))+((U$36+(IF(((U$27-U$26)/($B$18-$B$17))=1,U$37,(U$37/IF(U$26=U$27,1,(1-((U$27-U$26)/($B$18-$B$17))))))*U38))*U$38))*(1-((1-U$38)*IF(U$26=U$27,1,((U$27-U$26)/($B18-$B17)))))))*(1-((U$27-U$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>23.547357263438901</v>
       </c>
       <c r="V39" s="41">
-        <f>(IF(V$26="OOR",0,((((V$36*((1-V$38)*IF(V$26=V$27,1,(1-((V$27-V$26)/($B$18-$B$17))))))+((V$36+(IF(((V$27-V$26)/($B$18-$B$17))=1,V$37,(V$37/IF(V$26=V$27,1,(1-((V$27-V$26)/($B$18-$B$17))))))*V38))*V$38))*(1-((1-V$38)*IF(V$26=V$27,1,((V$27-V$26)/($B18-$B17))))))+((V$35-(((V$36*((1-V$38)*IF(V$26=V$27,1,(1-((V$27-V$26)/($B$18-$B$17))))))+((V$36+(IF(((V$27-V$26)/($B$18-$B$17))=1,V$37,(V$37/IF(V$26=V$27,1,(1-((V$27-V$26)/($B$18-$B$17))))))*V38))*V$38))*(1-((1-V$38)*IF(V$26=V$27,1,((V$27-V$26)/($B18-$B17)))))))*(1-((V$27-V$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>24.214811264103474</v>
       </c>
       <c r="W39" s="41">
-        <f>(IF(W$26="OOR",0,((((W$36*((1-W$38)*IF(W$26=W$27,1,(1-((W$27-W$26)/($B$18-$B$17))))))+((W$36+(IF(((W$27-W$26)/($B$18-$B$17))=1,W$37,(W$37/IF(W$26=W$27,1,(1-((W$27-W$26)/($B$18-$B$17))))))*W38))*W$38))*(1-((1-W$38)*IF(W$26=W$27,1,((W$27-W$26)/($B18-$B17))))))+((W$35-(((W$36*((1-W$38)*IF(W$26=W$27,1,(1-((W$27-W$26)/($B$18-$B$17))))))+((W$36+(IF(((W$27-W$26)/($B$18-$B$17))=1,W$37,(W$37/IF(W$26=W$27,1,(1-((W$27-W$26)/($B$18-$B$17))))))*W38))*W$38))*(1-((1-W$38)*IF(W$26=W$27,1,((W$27-W$26)/($B18-$B17)))))))*(1-((W$27-W$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>24.748737341529115</v>
       </c>
       <c r="X39" s="41">
-        <f>(IF(X$26="OOR",0,((((X$36*((1-X$38)*IF(X$26=X$27,1,(1-((X$27-X$26)/($B$18-$B$17))))))+((X$36+(IF(((X$27-X$26)/($B$18-$B$17))=1,X$37,(X$37/IF(X$26=X$27,1,(1-((X$27-X$26)/($B$18-$B$17))))))*X38))*X$38))*(1-((1-X$38)*IF(X$26=X$27,1,((X$27-X$26)/($B18-$B17))))))+((X$35-(((X$36*((1-X$38)*IF(X$26=X$27,1,(1-((X$27-X$26)/($B$18-$B$17))))))+((X$36+(IF(((X$27-X$26)/($B$18-$B$17))=1,X$37,(X$37/IF(X$26=X$27,1,(1-((X$27-X$26)/($B$18-$B$17))))))*X38))*X$38))*(1-((1-X$38)*IF(X$26=X$27,1,((X$27-X$26)/($B18-$B17)))))))*(1-((X$27-X$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>24.471813373028404</v>
       </c>
       <c r="Y39" s="41">
-        <f>(IF(Y$26="OOR",0,((((Y$36*((1-Y$38)*IF(Y$26=Y$27,1,(1-((Y$27-Y$26)/($B$18-$B$17))))))+((Y$36+(IF(((Y$27-Y$26)/($B$18-$B$17))=1,Y$37,(Y$37/IF(Y$26=Y$27,1,(1-((Y$27-Y$26)/($B$18-$B$17))))))*Y38))*Y$38))*(1-((1-Y$38)*IF(Y$26=Y$27,1,((Y$27-Y$26)/($B18-$B17))))))+((Y$35-(((Y$36*((1-Y$38)*IF(Y$26=Y$27,1,(1-((Y$27-Y$26)/($B$18-$B$17))))))+((Y$36+(IF(((Y$27-Y$26)/($B$18-$B$17))=1,Y$37,(Y$37/IF(Y$26=Y$27,1,(1-((Y$27-Y$26)/($B$18-$B$17))))))*Y38))*Y$38))*(1-((1-Y$38)*IF(Y$26=Y$27,1,((Y$27-Y$26)/($B18-$B17)))))))*(1-((Y$27-Y$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>24.079883747442082</v>
       </c>
       <c r="Z39" s="41">
-        <f>(IF(Z$26="OOR",0,((((Z$36*((1-Z$38)*IF(Z$26=Z$27,1,(1-((Z$27-Z$26)/($B$18-$B$17))))))+((Z$36+(IF(((Z$27-Z$26)/($B$18-$B$17))=1,Z$37,(Z$37/IF(Z$26=Z$27,1,(1-((Z$27-Z$26)/($B$18-$B$17))))))*Z38))*Z$38))*(1-((1-Z$38)*IF(Z$26=Z$27,1,((Z$27-Z$26)/($B18-$B17))))))+((Z$35-(((Z$36*((1-Z$38)*IF(Z$26=Z$27,1,(1-((Z$27-Z$26)/($B$18-$B$17))))))+((Z$36+(IF(((Z$27-Z$26)/($B$18-$B$17))=1,Z$37,(Z$37/IF(Z$26=Z$27,1,(1-((Z$27-Z$26)/($B$18-$B$17))))))*Z38))*Z$38))*(1-((1-Z$38)*IF(Z$26=Z$27,1,((Z$27-Z$26)/($B18-$B17)))))))*(1-((Z$27-Z$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>23.593469269245674</v>
       </c>
       <c r="AA39" s="41">
-        <f>(IF(AA$26="OOR",0,((((AA$36*((1-AA$38)*IF(AA$26=AA$27,1,(1-((AA$27-AA$26)/($B$18-$B$17))))))+((AA$36+(IF(((AA$27-AA$26)/($B$18-$B$17))=1,AA$37,(AA$37/IF(AA$26=AA$27,1,(1-((AA$27-AA$26)/($B$18-$B$17))))))*AA38))*AA$38))*(1-((1-AA$38)*IF(AA$26=AA$27,1,((AA$27-AA$26)/($B18-$B17))))))+((AA$35-(((AA$36*((1-AA$38)*IF(AA$26=AA$27,1,(1-((AA$27-AA$26)/($B$18-$B$17))))))+((AA$36+(IF(((AA$27-AA$26)/($B$18-$B$17))=1,AA$37,(AA$37/IF(AA$26=AA$27,1,(1-((AA$27-AA$26)/($B$18-$B$17))))))*AA38))*AA$38))*(1-((1-AA$38)*IF(AA$26=AA$27,1,((AA$27-AA$26)/($B18-$B17)))))))*(1-((AA$27-AA$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>23.031347526709126</v>
       </c>
       <c r="AB39" s="41">
-        <f>(IF(AB$26="OOR",0,((((AB$36*((1-AB$38)*IF(AB$26=AB$27,1,(1-((AB$27-AB$26)/($B$18-$B$17))))))+((AB$36+(IF(((AB$27-AB$26)/($B$18-$B$17))=1,AB$37,(AB$37/IF(AB$26=AB$27,1,(1-((AB$27-AB$26)/($B$18-$B$17))))))*AB38))*AB$38))*(1-((1-AB$38)*IF(AB$26=AB$27,1,((AB$27-AB$26)/($B18-$B17))))))+((AB$35-(((AB$36*((1-AB$38)*IF(AB$26=AB$27,1,(1-((AB$27-AB$26)/($B$18-$B$17))))))+((AB$36+(IF(((AB$27-AB$26)/($B$18-$B$17))=1,AB$37,(AB$37/IF(AB$26=AB$27,1,(1-((AB$27-AB$26)/($B$18-$B$17))))))*AB38))*AB$38))*(1-((1-AB$38)*IF(AB$26=AB$27,1,((AB$27-AB$26)/($B18-$B17)))))))*(1-((AB$27-AB$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>22.410618058857793</v>
       </c>
       <c r="AC39" s="41">
-        <f>(IF(AC$26="OOR",0,((((AC$36*((1-AC$38)*IF(AC$26=AC$27,1,(1-((AC$27-AC$26)/($B$18-$B$17))))))+((AC$36+(IF(((AC$27-AC$26)/($B$18-$B$17))=1,AC$37,(AC$37/IF(AC$26=AC$27,1,(1-((AC$27-AC$26)/($B$18-$B$17))))))*AC38))*AC$38))*(1-((1-AC$38)*IF(AC$26=AC$27,1,((AC$27-AC$26)/($B18-$B17))))))+((AC$35-(((AC$36*((1-AC$38)*IF(AC$26=AC$27,1,(1-((AC$27-AC$26)/($B$18-$B$17))))))+((AC$36+(IF(((AC$27-AC$26)/($B$18-$B$17))=1,AC$37,(AC$37/IF(AC$26=AC$27,1,(1-((AC$27-AC$26)/($B$18-$B$17))))))*AC38))*AC$38))*(1-((1-AC$38)*IF(AC$26=AC$27,1,((AC$27-AC$26)/($B18-$B17)))))))*(1-((AC$27-AC$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>21.746767522433419</v>
       </c>
       <c r="AD39" s="41">
-        <f>(IF(AD$26="OOR",0,((((AD$36*((1-AD$38)*IF(AD$26=AD$27,1,(1-((AD$27-AD$26)/($B$18-$B$17))))))+((AD$36+(IF(((AD$27-AD$26)/($B$18-$B$17))=1,AD$37,(AD$37/IF(AD$26=AD$27,1,(1-((AD$27-AD$26)/($B$18-$B$17))))))*AD38))*AD$38))*(1-((1-AD$38)*IF(AD$26=AD$27,1,((AD$27-AD$26)/($B18-$B17))))))+((AD$35-(((AD$36*((1-AD$38)*IF(AD$26=AD$27,1,(1-((AD$27-AD$26)/($B$18-$B$17))))))+((AD$36+(IF(((AD$27-AD$26)/($B$18-$B$17))=1,AD$37,(AD$37/IF(AD$26=AD$27,1,(1-((AD$27-AD$26)/($B$18-$B$17))))))*AD38))*AD$38))*(1-((1-AD$38)*IF(AD$26=AD$27,1,((AD$27-AD$26)/($B18-$B17)))))))*(1-((AD$27-AD$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>21.053734858855108</v>
       </c>
       <c r="AE39" s="41">
-        <f>(IF(AE$26="OOR",0,((((AE$36*((1-AE$38)*IF(AE$26=AE$27,1,(1-((AE$27-AE$26)/($B$18-$B$17))))))+((AE$36+(IF(((AE$27-AE$26)/($B$18-$B$17))=1,AE$37,(AE$37/IF(AE$26=AE$27,1,(1-((AE$27-AE$26)/($B$18-$B$17))))))*AE38))*AE$38))*(1-((1-AE$38)*IF(AE$26=AE$27,1,((AE$27-AE$26)/($B18-$B17))))))+((AE$35-(((AE$36*((1-AE$38)*IF(AE$26=AE$27,1,(1-((AE$27-AE$26)/($B$18-$B$17))))))+((AE$36+(IF(((AE$27-AE$26)/($B$18-$B$17))=1,AE$37,(AE$37/IF(AE$26=AE$27,1,(1-((AE$27-AE$26)/($B$18-$B$17))))))*AE38))*AE$38))*(1-((1-AE$38)*IF(AE$26=AE$27,1,((AE$27-AE$26)/($B18-$B17)))))))*(1-((AE$27-AE$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>20.34397646118024</v>
       </c>
       <c r="AF39" s="41">
-        <f>(IF(AF$26="OOR",0,((((AF$36*((1-AF$38)*IF(AF$26=AF$27,1,(1-((AF$27-AF$26)/($B$18-$B$17))))))+((AF$36+(IF(((AF$27-AF$26)/($B$18-$B$17))=1,AF$37,(AF$37/IF(AF$26=AF$27,1,(1-((AF$27-AF$26)/($B$18-$B$17))))))*AF38))*AF$38))*(1-((1-AF$38)*IF(AF$26=AF$27,1,((AF$27-AF$26)/($B18-$B17))))))+((AF$35-(((AF$36*((1-AF$38)*IF(AF$26=AF$27,1,(1-((AF$27-AF$26)/($B$18-$B$17))))))+((AF$36+(IF(((AF$27-AF$26)/($B$18-$B$17))=1,AF$37,(AF$37/IF(AF$26=AF$27,1,(1-((AF$27-AF$26)/($B$18-$B$17))))))*AF38))*AF$38))*(1-((1-AF$38)*IF(AF$26=AF$27,1,((AF$27-AF$26)/($B18-$B17)))))))*(1-((AF$27-AF$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>19.628531341065443</v>
       </c>
       <c r="AG39" s="41">
-        <f>(IF(AG$26="OOR",0,((((AG$36*((1-AG$38)*IF(AG$26=AG$27,1,(1-((AG$27-AG$26)/($B$18-$B$17))))))+((AG$36+(IF(((AG$27-AG$26)/($B$18-$B$17))=1,AG$37,(AG$37/IF(AG$26=AG$27,1,(1-((AG$27-AG$26)/($B$18-$B$17))))))*AG38))*AG$38))*(1-((1-AG$38)*IF(AG$26=AG$27,1,((AG$27-AG$26)/($B18-$B17))))))+((AG$35-(((AG$36*((1-AG$38)*IF(AG$26=AG$27,1,(1-((AG$27-AG$26)/($B$18-$B$17))))))+((AG$36+(IF(((AG$27-AG$26)/($B$18-$B$17))=1,AG$37,(AG$37/IF(AG$26=AG$27,1,(1-((AG$27-AG$26)/($B$18-$B$17))))))*AG38))*AG$38))*(1-((1-AG$38)*IF(AG$26=AG$27,1,((AG$27-AG$26)/($B18-$B17)))))))*(1-((AG$27-AG$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="39"/>
         <v>18.917086295727543</v>
       </c>
       <c r="AH39" s="41">
-        <f>(IF(AH$26="OOR",0,((((AH$36*((1-AH$38)*IF(AH$26=AH$27,1,(1-((AH$27-AH$26)/($B$18-$B$17))))))+((AH$36+(IF(((AH$27-AH$26)/($B$18-$B$17))=1,AH$37,(AH$37/IF(AH$26=AH$27,1,(1-((AH$27-AH$26)/($B$18-$B$17))))))*AH38))*AH$38))*(1-((1-AH$38)*IF(AH$26=AH$27,1,((AH$27-AH$26)/($B18-$B17))))))+((AH$35-(((AH$36*((1-AH$38)*IF(AH$26=AH$27,1,(1-((AH$27-AH$26)/($B$18-$B$17))))))+((AH$36+(IF(((AH$27-AH$26)/($B$18-$B$17))=1,AH$37,(AH$37/IF(AH$26=AH$27,1,(1-((AH$27-AH$26)/($B$18-$B$17))))))*AH38))*AH$38))*(1-((1-AH$38)*IF(AH$26=AH$27,1,((AH$27-AH$26)/($B18-$B17)))))))*(1-((AH$27-AH$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" ref="AH39:BM39" si="40">(IF(AH$26="OOR",0,((((AH$36*((1-AH$38)*IF(AH$26=AH$27,1,(1-((AH$27-AH$26)/($B$18-$B$17))))))+((AH$36+(IF(((AH$27-AH$26)/($B$18-$B$17))=1,AH$37,(AH$37/IF(AH$26=AH$27,1,(1-((AH$27-AH$26)/($B$18-$B$17))))))*AH38))*AH$38))*(1-((1-AH$38)*IF(AH$26=AH$27,1,((AH$27-AH$26)/($B18-$B17))))))+((AH$35-(((AH$36*((1-AH$38)*IF(AH$26=AH$27,1,(1-((AH$27-AH$26)/($B$18-$B$17))))))+((AH$36+(IF(((AH$27-AH$26)/($B$18-$B$17))=1,AH$37,(AH$37/IF(AH$26=AH$27,1,(1-((AH$27-AH$26)/($B$18-$B$17))))))*AH38))*AH$38))*(1-((1-AH$38)*IF(AH$26=AH$27,1,((AH$27-AH$26)/($B18-$B17)))))))*(1-((AH$27-AH$26)/($B$18-$B$17)))))))</f>
         <v>18.218041074904527</v>
       </c>
       <c r="AI39" s="41">
-        <f>(IF(AI$26="OOR",0,((((AI$36*((1-AI$38)*IF(AI$26=AI$27,1,(1-((AI$27-AI$26)/($B$18-$B$17))))))+((AI$36+(IF(((AI$27-AI$26)/($B$18-$B$17))=1,AI$37,(AI$37/IF(AI$26=AI$27,1,(1-((AI$27-AI$26)/($B$18-$B$17))))))*AI38))*AI$38))*(1-((1-AI$38)*IF(AI$26=AI$27,1,((AI$27-AI$26)/($B18-$B17))))))+((AI$35-(((AI$36*((1-AI$38)*IF(AI$26=AI$27,1,(1-((AI$27-AI$26)/($B$18-$B$17))))))+((AI$36+(IF(((AI$27-AI$26)/($B$18-$B$17))=1,AI$37,(AI$37/IF(AI$26=AI$27,1,(1-((AI$27-AI$26)/($B$18-$B$17))))))*AI38))*AI$38))*(1-((1-AI$38)*IF(AI$26=AI$27,1,((AI$27-AI$26)/($B18-$B17)))))))*(1-((AI$27-AI$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>17.538573547816497</v>
       </c>
       <c r="AJ39" s="41">
-        <f>(IF(AJ$26="OOR",0,((((AJ$36*((1-AJ$38)*IF(AJ$26=AJ$27,1,(1-((AJ$27-AJ$26)/($B$18-$B$17))))))+((AJ$36+(IF(((AJ$27-AJ$26)/($B$18-$B$17))=1,AJ$37,(AJ$37/IF(AJ$26=AJ$27,1,(1-((AJ$27-AJ$26)/($B$18-$B$17))))))*AJ38))*AJ$38))*(1-((1-AJ$38)*IF(AJ$26=AJ$27,1,((AJ$27-AJ$26)/($B18-$B17))))))+((AJ$35-(((AJ$36*((1-AJ$38)*IF(AJ$26=AJ$27,1,(1-((AJ$27-AJ$26)/($B$18-$B$17))))))+((AJ$36+(IF(((AJ$27-AJ$26)/($B$18-$B$17))=1,AJ$37,(AJ$37/IF(AJ$26=AJ$27,1,(1-((AJ$27-AJ$26)/($B$18-$B$17))))))*AJ38))*AJ$38))*(1-((1-AJ$38)*IF(AJ$26=AJ$27,1,((AJ$27-AJ$26)/($B18-$B17)))))))*(1-((AJ$27-AJ$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>16.884704870126605</v>
       </c>
       <c r="AK39" s="41">
-        <f>(IF(AK$26="OOR",0,((((AK$36*((1-AK$38)*IF(AK$26=AK$27,1,(1-((AK$27-AK$26)/($B$18-$B$17))))))+((AK$36+(IF(((AK$27-AK$26)/($B$18-$B$17))=1,AK$37,(AK$37/IF(AK$26=AK$27,1,(1-((AK$27-AK$26)/($B$18-$B$17))))))*AK38))*AK$38))*(1-((1-AK$38)*IF(AK$26=AK$27,1,((AK$27-AK$26)/($B18-$B17))))))+((AK$35-(((AK$36*((1-AK$38)*IF(AK$26=AK$27,1,(1-((AK$27-AK$26)/($B$18-$B$17))))))+((AK$36+(IF(((AK$27-AK$26)/($B$18-$B$17))=1,AK$37,(AK$37/IF(AK$26=AK$27,1,(1-((AK$27-AK$26)/($B$18-$B$17))))))*AK38))*AK$38))*(1-((1-AK$38)*IF(AK$26=AK$27,1,((AK$27-AK$26)/($B18-$B17)))))))*(1-((AK$27-AK$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>16.261364650902035</v>
       </c>
       <c r="AL39" s="41">
-        <f>(IF(AL$26="OOR",0,((((AL$36*((1-AL$38)*IF(AL$26=AL$27,1,(1-((AL$27-AL$26)/($B$18-$B$17))))))+((AL$36+(IF(((AL$27-AL$26)/($B$18-$B$17))=1,AL$37,(AL$37/IF(AL$26=AL$27,1,(1-((AL$27-AL$26)/($B$18-$B$17))))))*AL38))*AL$38))*(1-((1-AL$38)*IF(AL$26=AL$27,1,((AL$27-AL$26)/($B18-$B17))))))+((AL$35-(((AL$36*((1-AL$38)*IF(AL$26=AL$27,1,(1-((AL$27-AL$26)/($B$18-$B$17))))))+((AL$36+(IF(((AL$27-AL$26)/($B$18-$B$17))=1,AL$37,(AL$37/IF(AL$26=AL$27,1,(1-((AL$27-AL$26)/($B$18-$B$17))))))*AL38))*AL$38))*(1-((1-AL$38)*IF(AL$26=AL$27,1,((AL$27-AL$26)/($B18-$B17)))))))*(1-((AL$27-AL$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>15.67245611957493</v>
       </c>
       <c r="AM39" s="41">
-        <f>(IF(AM$26="OOR",0,((((AM$36*((1-AM$38)*IF(AM$26=AM$27,1,(1-((AM$27-AM$26)/($B$18-$B$17))))))+((AM$36+(IF(((AM$27-AM$26)/($B$18-$B$17))=1,AM$37,(AM$37/IF(AM$26=AM$27,1,(1-((AM$27-AM$26)/($B$18-$B$17))))))*AM38))*AM$38))*(1-((1-AM$38)*IF(AM$26=AM$27,1,((AM$27-AM$26)/($B18-$B17))))))+((AM$35-(((AM$36*((1-AM$38)*IF(AM$26=AM$27,1,(1-((AM$27-AM$26)/($B$18-$B$17))))))+((AM$36+(IF(((AM$27-AM$26)/($B$18-$B$17))=1,AM$37,(AM$37/IF(AM$26=AM$27,1,(1-((AM$27-AM$26)/($B$18-$B$17))))))*AM38))*AM$38))*(1-((1-AM$38)*IF(AM$26=AM$27,1,((AM$27-AM$26)/($B18-$B17)))))))*(1-((AM$27-AM$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>15.120921292903379</v>
       </c>
       <c r="AN39" s="41">
-        <f>(IF(AN$26="OOR",0,((((AN$36*((1-AN$38)*IF(AN$26=AN$27,1,(1-((AN$27-AN$26)/($B$18-$B$17))))))+((AN$36+(IF(((AN$27-AN$26)/($B$18-$B$17))=1,AN$37,(AN$37/IF(AN$26=AN$27,1,(1-((AN$27-AN$26)/($B$18-$B$17))))))*AN38))*AN$38))*(1-((1-AN$38)*IF(AN$26=AN$27,1,((AN$27-AN$26)/($B18-$B17))))))+((AN$35-(((AN$36*((1-AN$38)*IF(AN$26=AN$27,1,(1-((AN$27-AN$26)/($B$18-$B$17))))))+((AN$36+(IF(((AN$27-AN$26)/($B$18-$B$17))=1,AN$37,(AN$37/IF(AN$26=AN$27,1,(1-((AN$27-AN$26)/($B$18-$B$17))))))*AN38))*AN$38))*(1-((1-AN$38)*IF(AN$26=AN$27,1,((AN$27-AN$26)/($B18-$B17)))))))*(1-((AN$27-AN$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>14.608806141932329</v>
       </c>
       <c r="AO39" s="41">
-        <f>(IF(AO$26="OOR",0,((((AO$36*((1-AO$38)*IF(AO$26=AO$27,1,(1-((AO$27-AO$26)/($B$18-$B$17))))))+((AO$36+(IF(((AO$27-AO$26)/($B$18-$B$17))=1,AO$37,(AO$37/IF(AO$26=AO$27,1,(1-((AO$27-AO$26)/($B$18-$B$17))))))*AO38))*AO$38))*(1-((1-AO$38)*IF(AO$26=AO$27,1,((AO$27-AO$26)/($B18-$B17))))))+((AO$35-(((AO$36*((1-AO$38)*IF(AO$26=AO$27,1,(1-((AO$27-AO$26)/($B$18-$B$17))))))+((AO$36+(IF(((AO$27-AO$26)/($B$18-$B$17))=1,AO$37,(AO$37/IF(AO$26=AO$27,1,(1-((AO$27-AO$26)/($B$18-$B$17))))))*AO38))*AO$38))*(1-((1-AO$38)*IF(AO$26=AO$27,1,((AO$27-AO$26)/($B18-$B17)))))))*(1-((AO$27-AO$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>14.137325758954569</v>
       </c>
       <c r="AP39" s="41">
-        <f>(IF(AP$26="OOR",0,((((AP$36*((1-AP$38)*IF(AP$26=AP$27,1,(1-((AP$27-AP$26)/($B$18-$B$17))))))+((AP$36+(IF(((AP$27-AP$26)/($B$18-$B$17))=1,AP$37,(AP$37/IF(AP$26=AP$27,1,(1-((AP$27-AP$26)/($B$18-$B$17))))))*AP38))*AP$38))*(1-((1-AP$38)*IF(AP$26=AP$27,1,((AP$27-AP$26)/($B18-$B17))))))+((AP$35-(((AP$36*((1-AP$38)*IF(AP$26=AP$27,1,(1-((AP$27-AP$26)/($B$18-$B$17))))))+((AP$36+(IF(((AP$27-AP$26)/($B$18-$B$17))=1,AP$37,(AP$37/IF(AP$26=AP$27,1,(1-((AP$27-AP$26)/($B$18-$B$17))))))*AP38))*AP$38))*(1-((1-AP$38)*IF(AP$26=AP$27,1,((AP$27-AP$26)/($B18-$B17)))))))*(1-((AP$27-AP$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>13.70692952447169</v>
       </c>
       <c r="AQ39" s="41">
-        <f>(IF(AQ$26="OOR",0,((((AQ$36*((1-AQ$38)*IF(AQ$26=AQ$27,1,(1-((AQ$27-AQ$26)/($B$18-$B$17))))))+((AQ$36+(IF(((AQ$27-AQ$26)/($B$18-$B$17))=1,AQ$37,(AQ$37/IF(AQ$26=AQ$27,1,(1-((AQ$27-AQ$26)/($B$18-$B$17))))))*AQ38))*AQ$38))*(1-((1-AQ$38)*IF(AQ$26=AQ$27,1,((AQ$27-AQ$26)/($B18-$B17))))))+((AQ$35-(((AQ$36*((1-AQ$38)*IF(AQ$26=AQ$27,1,(1-((AQ$27-AQ$26)/($B$18-$B$17))))))+((AQ$36+(IF(((AQ$27-AQ$26)/($B$18-$B$17))=1,AQ$37,(AQ$37/IF(AQ$26=AQ$27,1,(1-((AQ$27-AQ$26)/($B$18-$B$17))))))*AQ38))*AQ$38))*(1-((1-AQ$38)*IF(AQ$26=AQ$27,1,((AQ$27-AQ$26)/($B18-$B17)))))))*(1-((AQ$27-AQ$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>13.317366274154999</v>
       </c>
       <c r="AR39" s="41">
-        <f>(IF(AR$26="OOR",0,((((AR$36*((1-AR$38)*IF(AR$26=AR$27,1,(1-((AR$27-AR$26)/($B$18-$B$17))))))+((AR$36+(IF(((AR$27-AR$26)/($B$18-$B$17))=1,AR$37,(AR$37/IF(AR$26=AR$27,1,(1-((AR$27-AR$26)/($B$18-$B$17))))))*AR38))*AR$38))*(1-((1-AR$38)*IF(AR$26=AR$27,1,((AR$27-AR$26)/($B18-$B17))))))+((AR$35-(((AR$36*((1-AR$38)*IF(AR$26=AR$27,1,(1-((AR$27-AR$26)/($B$18-$B$17))))))+((AR$36+(IF(((AR$27-AR$26)/($B$18-$B$17))=1,AR$37,(AR$37/IF(AR$26=AR$27,1,(1-((AR$27-AR$26)/($B$18-$B$17))))))*AR38))*AR$38))*(1-((1-AR$38)*IF(AR$26=AR$27,1,((AR$27-AR$26)/($B18-$B17)))))))*(1-((AR$27-AR$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>12.967749465806529</v>
       </c>
       <c r="AS39" s="41">
-        <f>(IF(AS$26="OOR",0,((((AS$36*((1-AS$38)*IF(AS$26=AS$27,1,(1-((AS$27-AS$26)/($B$18-$B$17))))))+((AS$36+(IF(((AS$27-AS$26)/($B$18-$B$17))=1,AS$37,(AS$37/IF(AS$26=AS$27,1,(1-((AS$27-AS$26)/($B$18-$B$17))))))*AS38))*AS$38))*(1-((1-AS$38)*IF(AS$26=AS$27,1,((AS$27-AS$26)/($B18-$B17))))))+((AS$35-(((AS$36*((1-AS$38)*IF(AS$26=AS$27,1,(1-((AS$27-AS$26)/($B$18-$B$17))))))+((AS$36+(IF(((AS$27-AS$26)/($B$18-$B$17))=1,AS$37,(AS$37/IF(AS$26=AS$27,1,(1-((AS$27-AS$26)/($B$18-$B$17))))))*AS38))*AS$38))*(1-((1-AS$38)*IF(AS$26=AS$27,1,((AS$27-AS$26)/($B18-$B17)))))))*(1-((AS$27-AS$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>12.65662234631994</v>
       </c>
       <c r="AT39" s="41">
-        <f>(IF(AT$26="OOR",0,((((AT$36*((1-AT$38)*IF(AT$26=AT$27,1,(1-((AT$27-AT$26)/($B$18-$B$17))))))+((AT$36+(IF(((AT$27-AT$26)/($B$18-$B$17))=1,AT$37,(AT$37/IF(AT$26=AT$27,1,(1-((AT$27-AT$26)/($B$18-$B$17))))))*AT38))*AT$38))*(1-((1-AT$38)*IF(AT$26=AT$27,1,((AT$27-AT$26)/($B18-$B17))))))+((AT$35-(((AT$36*((1-AT$38)*IF(AT$26=AT$27,1,(1-((AT$27-AT$26)/($B$18-$B$17))))))+((AT$36+(IF(((AT$27-AT$26)/($B$18-$B$17))=1,AT$37,(AT$37/IF(AT$26=AT$27,1,(1-((AT$27-AT$26)/($B$18-$B$17))))))*AT38))*AT$38))*(1-((1-AT$38)*IF(AT$26=AT$27,1,((AT$27-AT$26)/($B18-$B17)))))))*(1-((AT$27-AT$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>12.382023118641541</v>
       </c>
       <c r="AU39" s="41">
-        <f>(IF(AU$26="OOR",0,((((AU$36*((1-AU$38)*IF(AU$26=AU$27,1,(1-((AU$27-AU$26)/($B$18-$B$17))))))+((AU$36+(IF(((AU$27-AU$26)/($B$18-$B$17))=1,AU$37,(AU$37/IF(AU$26=AU$27,1,(1-((AU$27-AU$26)/($B$18-$B$17))))))*AU38))*AU$38))*(1-((1-AU$38)*IF(AU$26=AU$27,1,((AU$27-AU$26)/($B18-$B17))))))+((AU$35-(((AU$36*((1-AU$38)*IF(AU$26=AU$27,1,(1-((AU$27-AU$26)/($B$18-$B$17))))))+((AU$36+(IF(((AU$27-AU$26)/($B$18-$B$17))=1,AU$37,(AU$37/IF(AU$26=AU$27,1,(1-((AU$27-AU$26)/($B$18-$B$17))))))*AU38))*AU$38))*(1-((1-AU$38)*IF(AU$26=AU$27,1,((AU$27-AU$26)/($B18-$B17)))))))*(1-((AU$27-AU$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>12.141550108731112</v>
       </c>
       <c r="AV39" s="41">
-        <f>(IF(AV$26="OOR",0,((((AV$36*((1-AV$38)*IF(AV$26=AV$27,1,(1-((AV$27-AV$26)/($B$18-$B$17))))))+((AV$36+(IF(((AV$27-AV$26)/($B$18-$B$17))=1,AV$37,(AV$37/IF(AV$26=AV$27,1,(1-((AV$27-AV$26)/($B$18-$B$17))))))*AV38))*AV$38))*(1-((1-AV$38)*IF(AV$26=AV$27,1,((AV$27-AV$26)/($B18-$B17))))))+((AV$35-(((AV$36*((1-AV$38)*IF(AV$26=AV$27,1,(1-((AV$27-AV$26)/($B$18-$B$17))))))+((AV$36+(IF(((AV$27-AV$26)/($B$18-$B$17))=1,AV$37,(AV$37/IF(AV$26=AV$27,1,(1-((AV$27-AV$26)/($B$18-$B$17))))))*AV38))*AV$38))*(1-((1-AV$38)*IF(AV$26=AV$27,1,((AV$27-AV$26)/($B18-$B17)))))))*(1-((AV$27-AV$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>11.932426932523029</v>
       </c>
       <c r="AW39" s="41">
-        <f>(IF(AW$26="OOR",0,((((AW$36*((1-AW$38)*IF(AW$26=AW$27,1,(1-((AW$27-AW$26)/($B$18-$B$17))))))+((AW$36+(IF(((AW$27-AW$26)/($B$18-$B$17))=1,AW$37,(AW$37/IF(AW$26=AW$27,1,(1-((AW$27-AW$26)/($B$18-$B$17))))))*AW38))*AW$38))*(1-((1-AW$38)*IF(AW$26=AW$27,1,((AW$27-AW$26)/($B18-$B17))))))+((AW$35-(((AW$36*((1-AW$38)*IF(AW$26=AW$27,1,(1-((AW$27-AW$26)/($B$18-$B$17))))))+((AW$36+(IF(((AW$27-AW$26)/($B$18-$B$17))=1,AW$37,(AW$37/IF(AW$26=AW$27,1,(1-((AW$27-AW$26)/($B$18-$B$17))))))*AW38))*AW$38))*(1-((1-AW$38)*IF(AW$26=AW$27,1,((AW$27-AW$26)/($B18-$B17)))))))*(1-((AW$27-AW$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>11.961888417767179</v>
       </c>
       <c r="AX39" s="41">
-        <f>(IF(AX$26="OOR",0,((((AX$36*((1-AX$38)*IF(AX$26=AX$27,1,(1-((AX$27-AX$26)/($B$18-$B$17))))))+((AX$36+(IF(((AX$27-AX$26)/($B$18-$B$17))=1,AX$37,(AX$37/IF(AX$26=AX$27,1,(1-((AX$27-AX$26)/($B$18-$B$17))))))*AX38))*AX$38))*(1-((1-AX$38)*IF(AX$26=AX$27,1,((AX$27-AX$26)/($B18-$B17))))))+((AX$35-(((AX$36*((1-AX$38)*IF(AX$26=AX$27,1,(1-((AX$27-AX$26)/($B$18-$B$17))))))+((AX$36+(IF(((AX$27-AX$26)/($B$18-$B$17))=1,AX$37,(AX$37/IF(AX$26=AX$27,1,(1-((AX$27-AX$26)/($B$18-$B$17))))))*AX38))*AX$38))*(1-((1-AX$38)*IF(AX$26=AX$27,1,((AX$27-AX$26)/($B18-$B17)))))))*(1-((AX$27-AX$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>12.016703471209258</v>
       </c>
       <c r="AY39" s="41">
-        <f>(IF(AY$26="OOR",0,((((AY$36*((1-AY$38)*IF(AY$26=AY$27,1,(1-((AY$27-AY$26)/($B$18-$B$17))))))+((AY$36+(IF(((AY$27-AY$26)/($B$18-$B$17))=1,AY$37,(AY$37/IF(AY$26=AY$27,1,(1-((AY$27-AY$26)/($B$18-$B$17))))))*AY38))*AY$38))*(1-((1-AY$38)*IF(AY$26=AY$27,1,((AY$27-AY$26)/($B18-$B17))))))+((AY$35-(((AY$36*((1-AY$38)*IF(AY$26=AY$27,1,(1-((AY$27-AY$26)/($B$18-$B$17))))))+((AY$36+(IF(((AY$27-AY$26)/($B$18-$B$17))=1,AY$37,(AY$37/IF(AY$26=AY$27,1,(1-((AY$27-AY$26)/($B$18-$B$17))))))*AY38))*AY$38))*(1-((1-AY$38)*IF(AY$26=AY$27,1,((AY$27-AY$26)/($B18-$B17)))))))*(1-((AY$27-AY$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>12.099309065659902</v>
       </c>
       <c r="AZ39" s="41">
-        <f>(IF(AZ$26="OOR",0,((((AZ$36*((1-AZ$38)*IF(AZ$26=AZ$27,1,(1-((AZ$27-AZ$26)/($B$18-$B$17))))))+((AZ$36+(IF(((AZ$27-AZ$26)/($B$18-$B$17))=1,AZ$37,(AZ$37/IF(AZ$26=AZ$27,1,(1-((AZ$27-AZ$26)/($B$18-$B$17))))))*AZ38))*AZ$38))*(1-((1-AZ$38)*IF(AZ$26=AZ$27,1,((AZ$27-AZ$26)/($B18-$B17))))))+((AZ$35-(((AZ$36*((1-AZ$38)*IF(AZ$26=AZ$27,1,(1-((AZ$27-AZ$26)/($B$18-$B$17))))))+((AZ$36+(IF(((AZ$27-AZ$26)/($B$18-$B$17))=1,AZ$37,(AZ$37/IF(AZ$26=AZ$27,1,(1-((AZ$27-AZ$26)/($B$18-$B$17))))))*AZ38))*AZ$38))*(1-((1-AZ$38)*IF(AZ$26=AZ$27,1,((AZ$27-AZ$26)/($B18-$B17)))))))*(1-((AZ$27-AZ$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>12.211767463904305</v>
       </c>
       <c r="BA39" s="41">
-        <f>(IF(BA$26="OOR",0,((((BA$36*((1-BA$38)*IF(BA$26=BA$27,1,(1-((BA$27-BA$26)/($B$18-$B$17))))))+((BA$36+(IF(((BA$27-BA$26)/($B$18-$B$17))=1,BA$37,(BA$37/IF(BA$26=BA$27,1,(1-((BA$27-BA$26)/($B$18-$B$17))))))*BA38))*BA$38))*(1-((1-BA$38)*IF(BA$26=BA$27,1,((BA$27-BA$26)/($B18-$B17))))))+((BA$35-(((BA$36*((1-BA$38)*IF(BA$26=BA$27,1,(1-((BA$27-BA$26)/($B$18-$B$17))))))+((BA$36+(IF(((BA$27-BA$26)/($B$18-$B$17))=1,BA$37,(BA$37/IF(BA$26=BA$27,1,(1-((BA$27-BA$26)/($B$18-$B$17))))))*BA38))*BA$38))*(1-((1-BA$38)*IF(BA$26=BA$27,1,((BA$27-BA$26)/($B18-$B17)))))))*(1-((BA$27-BA$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>12.355701051741221</v>
       </c>
       <c r="BB39" s="41">
-        <f>(IF(BB$26="OOR",0,((((BB$36*((1-BB$38)*IF(BB$26=BB$27,1,(1-((BB$27-BB$26)/($B$18-$B$17))))))+((BB$36+(IF(((BB$27-BB$26)/($B$18-$B$17))=1,BB$37,(BB$37/IF(BB$26=BB$27,1,(1-((BB$27-BB$26)/($B$18-$B$17))))))*BB38))*BB$38))*(1-((1-BB$38)*IF(BB$26=BB$27,1,((BB$27-BB$26)/($B18-$B17))))))+((BB$35-(((BB$36*((1-BB$38)*IF(BB$26=BB$27,1,(1-((BB$27-BB$26)/($B$18-$B$17))))))+((BB$36+(IF(((BB$27-BB$26)/($B$18-$B$17))=1,BB$37,(BB$37/IF(BB$26=BB$27,1,(1-((BB$27-BB$26)/($B$18-$B$17))))))*BB38))*BB$38))*(1-((1-BB$38)*IF(BB$26=BB$27,1,((BB$27-BB$26)/($B18-$B17)))))))*(1-((BB$27-BB$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>12.532227171022022</v>
       </c>
       <c r="BC39" s="41">
-        <f>(IF(BC$26="OOR",0,((((BC$36*((1-BC$38)*IF(BC$26=BC$27,1,(1-((BC$27-BC$26)/($B$18-$B$17))))))+((BC$36+(IF(((BC$27-BC$26)/($B$18-$B$17))=1,BC$37,(BC$37/IF(BC$26=BC$27,1,(1-((BC$27-BC$26)/($B$18-$B$17))))))*BC38))*BC$38))*(1-((1-BC$38)*IF(BC$26=BC$27,1,((BC$27-BC$26)/($B18-$B17))))))+((BC$35-(((BC$36*((1-BC$38)*IF(BC$26=BC$27,1,(1-((BC$27-BC$26)/($B$18-$B$17))))))+((BC$36+(IF(((BC$27-BC$26)/($B$18-$B$17))=1,BC$37,(BC$37/IF(BC$26=BC$27,1,(1-((BC$27-BC$26)/($B$18-$B$17))))))*BC38))*BC$38))*(1-((1-BC$38)*IF(BC$26=BC$27,1,((BC$27-BC$26)/($B18-$B17)))))))*(1-((BC$27-BC$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>12.741892952689703</v>
       </c>
       <c r="BD39" s="41">
-        <f>(IF(BD$26="OOR",0,((((BD$36*((1-BD$38)*IF(BD$26=BD$27,1,(1-((BD$27-BD$26)/($B$18-$B$17))))))+((BD$36+(IF(((BD$27-BD$26)/($B$18-$B$17))=1,BD$37,(BD$37/IF(BD$26=BD$27,1,(1-((BD$27-BD$26)/($B$18-$B$17))))))*BD38))*BD$38))*(1-((1-BD$38)*IF(BD$26=BD$27,1,((BD$27-BD$26)/($B18-$B17))))))+((BD$35-(((BD$36*((1-BD$38)*IF(BD$26=BD$27,1,(1-((BD$27-BD$26)/($B$18-$B$17))))))+((BD$36+(IF(((BD$27-BD$26)/($B$18-$B$17))=1,BD$37,(BD$37/IF(BD$26=BD$27,1,(1-((BD$27-BD$26)/($B$18-$B$17))))))*BD38))*BD$38))*(1-((1-BD$38)*IF(BD$26=BD$27,1,((BD$27-BD$26)/($B18-$B17)))))))*(1-((BD$27-BD$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>12.984610149817971</v>
       </c>
       <c r="BE39" s="41">
-        <f>(IF(BE$26="OOR",0,((((BE$36*((1-BE$38)*IF(BE$26=BE$27,1,(1-((BE$27-BE$26)/($B$18-$B$17))))))+((BE$36+(IF(((BE$27-BE$26)/($B$18-$B$17))=1,BE$37,(BE$37/IF(BE$26=BE$27,1,(1-((BE$27-BE$26)/($B$18-$B$17))))))*BE38))*BE$38))*(1-((1-BE$38)*IF(BE$26=BE$27,1,((BE$27-BE$26)/($B18-$B17))))))+((BE$35-(((BE$36*((1-BE$38)*IF(BE$26=BE$27,1,(1-((BE$27-BE$26)/($B$18-$B$17))))))+((BE$36+(IF(((BE$27-BE$26)/($B$18-$B$17))=1,BE$37,(BE$37/IF(BE$26=BE$27,1,(1-((BE$27-BE$26)/($B$18-$B$17))))))*BE38))*BE$38))*(1-((1-BE$38)*IF(BE$26=BE$27,1,((BE$27-BE$26)/($B18-$B17)))))))*(1-((BE$27-BE$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>13.259589970650294</v>
       </c>
       <c r="BF39" s="41">
-        <f>(IF(BF$26="OOR",0,((((BF$36*((1-BF$38)*IF(BF$26=BF$27,1,(1-((BF$27-BF$26)/($B$18-$B$17))))))+((BF$36+(IF(((BF$27-BF$26)/($B$18-$B$17))=1,BF$37,(BF$37/IF(BF$26=BF$27,1,(1-((BF$27-BF$26)/($B$18-$B$17))))))*BF38))*BF$38))*(1-((1-BF$38)*IF(BF$26=BF$27,1,((BF$27-BF$26)/($B18-$B17))))))+((BF$35-(((BF$36*((1-BF$38)*IF(BF$26=BF$27,1,(1-((BF$27-BF$26)/($B$18-$B$17))))))+((BF$36+(IF(((BF$27-BF$26)/($B$18-$B$17))=1,BF$37,(BF$37/IF(BF$26=BF$27,1,(1-((BF$27-BF$26)/($B$18-$B$17))))))*BF38))*BF$38))*(1-((1-BF$38)*IF(BF$26=BF$27,1,((BF$27-BF$26)/($B18-$B17)))))))*(1-((BF$27-BF$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>13.565277911638901</v>
       </c>
       <c r="BG39" s="41">
-        <f>(IF(BG$26="OOR",0,((((BG$36*((1-BG$38)*IF(BG$26=BG$27,1,(1-((BG$27-BG$26)/($B$18-$B$17))))))+((BG$36+(IF(((BG$27-BG$26)/($B$18-$B$17))=1,BG$37,(BG$37/IF(BG$26=BG$27,1,(1-((BG$27-BG$26)/($B$18-$B$17))))))*BG38))*BG$38))*(1-((1-BG$38)*IF(BG$26=BG$27,1,((BG$27-BG$26)/($B18-$B17))))))+((BG$35-(((BG$36*((1-BG$38)*IF(BG$26=BG$27,1,(1-((BG$27-BG$26)/($B$18-$B$17))))))+((BG$36+(IF(((BG$27-BG$26)/($B$18-$B$17))=1,BG$37,(BG$37/IF(BG$26=BG$27,1,(1-((BG$27-BG$26)/($B$18-$B$17))))))*BG38))*BG$38))*(1-((1-BG$38)*IF(BG$26=BG$27,1,((BG$27-BG$26)/($B18-$B17)))))))*(1-((BG$27-BG$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>13.899288590483863</v>
       </c>
       <c r="BH39" s="41">
-        <f>(IF(BH$26="OOR",0,((((BH$36*((1-BH$38)*IF(BH$26=BH$27,1,(1-((BH$27-BH$26)/($B$18-$B$17))))))+((BH$36+(IF(((BH$27-BH$26)/($B$18-$B$17))=1,BH$37,(BH$37/IF(BH$26=BH$27,1,(1-((BH$27-BH$26)/($B$18-$B$17))))))*BH38))*BH$38))*(1-((1-BH$38)*IF(BH$26=BH$27,1,((BH$27-BH$26)/($B18-$B17))))))+((BH$35-(((BH$36*((1-BH$38)*IF(BH$26=BH$27,1,(1-((BH$27-BH$26)/($B$18-$B$17))))))+((BH$36+(IF(((BH$27-BH$26)/($B$18-$B$17))=1,BH$37,(BH$37/IF(BH$26=BH$27,1,(1-((BH$27-BH$26)/($B$18-$B$17))))))*BH38))*BH$38))*(1-((1-BH$38)*IF(BH$26=BH$27,1,((BH$27-BH$26)/($B18-$B17)))))))*(1-((BH$27-BH$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>14.258340579172142</v>
       </c>
       <c r="BI39" s="41">
-        <f>(IF(BI$26="OOR",0,((((BI$36*((1-BI$38)*IF(BI$26=BI$27,1,(1-((BI$27-BI$26)/($B$18-$B$17))))))+((BI$36+(IF(((BI$27-BI$26)/($B$18-$B$17))=1,BI$37,(BI$37/IF(BI$26=BI$27,1,(1-((BI$27-BI$26)/($B$18-$B$17))))))*BI38))*BI$38))*(1-((1-BI$38)*IF(BI$26=BI$27,1,((BI$27-BI$26)/($B18-$B17))))))+((BI$35-(((BI$36*((1-BI$38)*IF(BI$26=BI$27,1,(1-((BI$27-BI$26)/($B$18-$B$17))))))+((BI$36+(IF(((BI$27-BI$26)/($B$18-$B$17))=1,BI$37,(BI$37/IF(BI$26=BI$27,1,(1-((BI$27-BI$26)/($B$18-$B$17))))))*BI38))*BI$38))*(1-((1-BI$38)*IF(BI$26=BI$27,1,((BI$27-BI$26)/($B18-$B17)))))))*(1-((BI$27-BI$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>14.638191237016619</v>
       </c>
       <c r="BJ39" s="41">
-        <f>(IF(BJ$26="OOR",0,((((BJ$36*((1-BJ$38)*IF(BJ$26=BJ$27,1,(1-((BJ$27-BJ$26)/($B$18-$B$17))))))+((BJ$36+(IF(((BJ$27-BJ$26)/($B$18-$B$17))=1,BJ$37,(BJ$37/IF(BJ$26=BJ$27,1,(1-((BJ$27-BJ$26)/($B$18-$B$17))))))*BJ38))*BJ$38))*(1-((1-BJ$38)*IF(BJ$26=BJ$27,1,((BJ$27-BJ$26)/($B18-$B17))))))+((BJ$35-(((BJ$36*((1-BJ$38)*IF(BJ$26=BJ$27,1,(1-((BJ$27-BJ$26)/($B$18-$B$17))))))+((BJ$36+(IF(((BJ$27-BJ$26)/($B$18-$B$17))=1,BJ$37,(BJ$37/IF(BJ$26=BJ$27,1,(1-((BJ$27-BJ$26)/($B$18-$B$17))))))*BJ38))*BJ$38))*(1-((1-BJ$38)*IF(BJ$26=BJ$27,1,((BJ$27-BJ$26)/($B18-$B17)))))))*(1-((BJ$27-BJ$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>15.033571543695137</v>
       </c>
       <c r="BK39" s="41">
-        <f>(IF(BK$26="OOR",0,((((BK$36*((1-BK$38)*IF(BK$26=BK$27,1,(1-((BK$27-BK$26)/($B$18-$B$17))))))+((BK$36+(IF(((BK$27-BK$26)/($B$18-$B$17))=1,BK$37,(BK$37/IF(BK$26=BK$27,1,(1-((BK$27-BK$26)/($B$18-$B$17))))))*BK38))*BK$38))*(1-((1-BK$38)*IF(BK$26=BK$27,1,((BK$27-BK$26)/($B18-$B17))))))+((BK$35-(((BK$36*((1-BK$38)*IF(BK$26=BK$27,1,(1-((BK$27-BK$26)/($B$18-$B$17))))))+((BK$36+(IF(((BK$27-BK$26)/($B$18-$B$17))=1,BK$37,(BK$37/IF(BK$26=BK$27,1,(1-((BK$27-BK$26)/($B$18-$B$17))))))*BK38))*BK$38))*(1-((1-BK$38)*IF(BK$26=BK$27,1,((BK$27-BK$26)/($B18-$B17)))))))*(1-((BK$27-BK$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>15.438120932289577</v>
       </c>
       <c r="BL39" s="41">
-        <f>(IF(BL$26="OOR",0,((((BL$36*((1-BL$38)*IF(BL$26=BL$27,1,(1-((BL$27-BL$26)/($B$18-$B$17))))))+((BL$36+(IF(((BL$27-BL$26)/($B$18-$B$17))=1,BL$37,(BL$37/IF(BL$26=BL$27,1,(1-((BL$27-BL$26)/($B$18-$B$17))))))*BL38))*BL$38))*(1-((1-BL$38)*IF(BL$26=BL$27,1,((BL$27-BL$26)/($B18-$B17))))))+((BL$35-(((BL$36*((1-BL$38)*IF(BL$26=BL$27,1,(1-((BL$27-BL$26)/($B$18-$B$17))))))+((BL$36+(IF(((BL$27-BL$26)/($B$18-$B$17))=1,BL$37,(BL$37/IF(BL$26=BL$27,1,(1-((BL$27-BL$26)/($B$18-$B$17))))))*BL38))*BL$38))*(1-((1-BL$38)*IF(BL$26=BL$27,1,((BL$27-BL$26)/($B18-$B17)))))))*(1-((BL$27-BL$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>15.844322122324868</v>
       </c>
       <c r="BM39" s="41">
-        <f>(IF(BM$26="OOR",0,((((BM$36*((1-BM$38)*IF(BM$26=BM$27,1,(1-((BM$27-BM$26)/($B$18-$B$17))))))+((BM$36+(IF(((BM$27-BM$26)/($B$18-$B$17))=1,BM$37,(BM$37/IF(BM$26=BM$27,1,(1-((BM$27-BM$26)/($B$18-$B$17))))))*BM38))*BM$38))*(1-((1-BM$38)*IF(BM$26=BM$27,1,((BM$27-BM$26)/($B18-$B17))))))+((BM$35-(((BM$36*((1-BM$38)*IF(BM$26=BM$27,1,(1-((BM$27-BM$26)/($B$18-$B$17))))))+((BM$36+(IF(((BM$27-BM$26)/($B$18-$B$17))=1,BM$37,(BM$37/IF(BM$26=BM$27,1,(1-((BM$27-BM$26)/($B$18-$B$17))))))*BM38))*BM$38))*(1-((1-BM$38)*IF(BM$26=BM$27,1,((BM$27-BM$26)/($B18-$B17)))))))*(1-((BM$27-BM$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" si="40"/>
         <v>16.243435952808053</v>
       </c>
       <c r="BN39" s="41">
-        <f>(IF(BN$26="OOR",0,((((BN$36*((1-BN$38)*IF(BN$26=BN$27,1,(1-((BN$27-BN$26)/($B$18-$B$17))))))+((BN$36+(IF(((BN$27-BN$26)/($B$18-$B$17))=1,BN$37,(BN$37/IF(BN$26=BN$27,1,(1-((BN$27-BN$26)/($B$18-$B$17))))))*BN38))*BN$38))*(1-((1-BN$38)*IF(BN$26=BN$27,1,((BN$27-BN$26)/($B18-$B17))))))+((BN$35-(((BN$36*((1-BN$38)*IF(BN$26=BN$27,1,(1-((BN$27-BN$26)/($B$18-$B$17))))))+((BN$36+(IF(((BN$27-BN$26)/($B$18-$B$17))=1,BN$37,(BN$37/IF(BN$26=BN$27,1,(1-((BN$27-BN$26)/($B$18-$B$17))))))*BN38))*BN$38))*(1-((1-BN$38)*IF(BN$26=BN$27,1,((BN$27-BN$26)/($B18-$B17)))))))*(1-((BN$27-BN$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" ref="BN39:CS39" si="41">(IF(BN$26="OOR",0,((((BN$36*((1-BN$38)*IF(BN$26=BN$27,1,(1-((BN$27-BN$26)/($B$18-$B$17))))))+((BN$36+(IF(((BN$27-BN$26)/($B$18-$B$17))=1,BN$37,(BN$37/IF(BN$26=BN$27,1,(1-((BN$27-BN$26)/($B$18-$B$17))))))*BN38))*BN$38))*(1-((1-BN$38)*IF(BN$26=BN$27,1,((BN$27-BN$26)/($B18-$B17))))))+((BN$35-(((BN$36*((1-BN$38)*IF(BN$26=BN$27,1,(1-((BN$27-BN$26)/($B$18-$B$17))))))+((BN$36+(IF(((BN$27-BN$26)/($B$18-$B$17))=1,BN$37,(BN$37/IF(BN$26=BN$27,1,(1-((BN$27-BN$26)/($B$18-$B$17))))))*BN38))*BN$38))*(1-((1-BN$38)*IF(BN$26=BN$27,1,((BN$27-BN$26)/($B18-$B17)))))))*(1-((BN$27-BN$26)/($B$18-$B$17)))))))</f>
         <v>16.625436215267346</v>
       </c>
       <c r="BO39" s="41">
-        <f t="shared" ref="BO39:CZ39" si="14">(IF(BO$26="OOR",0,((((BO$36*((1-BO$38)*IF(BO$26=BO$27,1,(1-((BO$27-BO$26)/($B$18-$B$17))))))+((BO$36+(IF(((BO$27-BO$26)/($B$18-$B$17))=1,BO$37,(BO$37/IF(BO$26=BO$27,1,(1-((BO$27-BO$26)/($B$18-$B$17))))))*BO38))*BO$38))*(1-((1-BO$38)*IF(BO$26=BO$27,1,((BO$27-BO$26)/($B18-$B17))))))+((BO$35-(((BO$36*((1-BO$38)*IF(BO$26=BO$27,1,(1-((BO$27-BO$26)/($B$18-$B$17))))))+((BO$36+(IF(((BO$27-BO$26)/($B$18-$B$17))=1,BO$37,(BO$37/IF(BO$26=BO$27,1,(1-((BO$27-BO$26)/($B$18-$B$17))))))*BO38))*BO$38))*(1-((1-BO$38)*IF(BO$26=BO$27,1,((BO$27-BO$26)/($B18-$B17)))))))*(1-((BO$27-BO$26)/($B$18-$B$17)))))))</f>
+        <f t="shared" ref="BO39:CZ39" si="42">(IF(BO$26="OOR",0,((((BO$36*((1-BO$38)*IF(BO$26=BO$27,1,(1-((BO$27-BO$26)/($B$18-$B$17))))))+((BO$36+(IF(((BO$27-BO$26)/($B$18-$B$17))=1,BO$37,(BO$37/IF(BO$26=BO$27,1,(1-((BO$27-BO$26)/($B$18-$B$17))))))*BO38))*BO$38))*(1-((1-BO$38)*IF(BO$26=BO$27,1,((BO$27-BO$26)/($B18-$B17))))))+((BO$35-(((BO$36*((1-BO$38)*IF(BO$26=BO$27,1,(1-((BO$27-BO$26)/($B$18-$B$17))))))+((BO$36+(IF(((BO$27-BO$26)/($B$18-$B$17))=1,BO$37,(BO$37/IF(BO$26=BO$27,1,(1-((BO$27-BO$26)/($B$18-$B$17))))))*BO38))*BO$38))*(1-((1-BO$38)*IF(BO$26=BO$27,1,((BO$27-BO$26)/($B18-$B17)))))))*(1-((BO$27-BO$26)/($B$18-$B$17)))))))</f>
         <v>16.978944486791132</v>
       </c>
       <c r="BP39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>17.291164963067075</v>
       </c>
       <c r="BQ39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>17.547819291421092</v>
       </c>
       <c r="BR39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>17.733081403856481</v>
       </c>
       <c r="BS39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>17.829512350092912</v>
       </c>
       <c r="BT39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>17.817995130605468</v>
       </c>
       <c r="BU39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>17.677669529663735</v>
       </c>
       <c r="BV39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>17.305613616386051</v>
       </c>
       <c r="BW39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>16.858856219073196</v>
       </c>
       <c r="BX39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>16.359491573762348</v>
       </c>
       <c r="BY39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>15.826831103365217</v>
       </c>
       <c r="BZ39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>15.277547083807802</v>
       </c>
       <c r="CA39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>14.725816310170025</v>
       </c>
       <c r="CB39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>14.18346376282542</v>
       </c>
       <c r="CC39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>13.660106273580801</v>
       </c>
       <c r="CD39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>13.163296191815931</v>
       </c>
       <c r="CE39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>12.69866505062318</v>
       </c>
       <c r="CF39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>12.270067232947216</v>
       </c>
       <c r="CG39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>11.87972363772465</v>
       </c>
       <c r="CH39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>11.528365346023733</v>
       </c>
       <c r="CI39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>11.215377287184005</v>
       </c>
       <c r="CJ39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.938941904955968</v>
       </c>
       <c r="CK39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.812081291556808</v>
       </c>
       <c r="CL39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.713514347565114</v>
       </c>
       <c r="CM39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.644719217975378</v>
       </c>
       <c r="CN39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.605971562193094</v>
       </c>
       <c r="CO39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.596200887895044</v>
       </c>
       <c r="CP39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.612846884889642</v>
       </c>
       <c r="CQ39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.651715758977261</v>
       </c>
       <c r="CR39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.706836565810551</v>
       </c>
       <c r="CS39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.770317544754789</v>
       </c>
       <c r="CT39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.83220245274819</v>
       </c>
       <c r="CU39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.880326898162252</v>
       </c>
       <c r="CV39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.900174674662084</v>
       </c>
       <c r="CW39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.874734095066726</v>
       </c>
       <c r="CX39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.784354325209499</v>
       </c>
       <c r="CY39" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>10.606601717798304</v>
       </c>
       <c r="CZ39" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -10425,411 +10427,411 @@
         <v>0</v>
       </c>
       <c r="C40" s="41">
-        <f t="shared" ref="C40:BN40" si="15">(3*IF(C$39&lt;0,0,(IF(C$39&gt;(100/3),(100/3),C$39))))</f>
+        <f t="shared" ref="C40:BN40" si="43">(3*IF(C$39&lt;0,0,(IF(C$39&gt;(100/3),(100/3),C$39))))</f>
         <v>53.033008588991066</v>
       </c>
       <c r="D40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>53.703758414362738</v>
       </c>
       <c r="E40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>53.937607465735887</v>
       </c>
       <c r="F40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>53.907140002301517</v>
       </c>
       <c r="G40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>53.755004210562277</v>
       </c>
       <c r="H40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>53.595821392641739</v>
       </c>
       <c r="I40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>53.518095154593546</v>
       </c>
       <c r="J40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>53.586120594710628</v>
       </c>
       <c r="K40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>53.84189349183449</v>
       </c>
       <c r="L40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>54.307019493664228</v>
       </c>
       <c r="M40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>54.984623305065938</v>
       </c>
       <c r="N40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>56.289350928313837</v>
       </c>
       <c r="O40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>57.834727495296178</v>
       </c>
       <c r="P40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>59.618646534911797</v>
       </c>
       <c r="Q40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>61.620520633226448</v>
       </c>
       <c r="R40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>63.799372245163383</v>
       </c>
       <c r="S40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>66.091924506194971</v>
       </c>
       <c r="T40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>68.410692044032302</v>
       </c>
       <c r="U40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>70.642071790316706</v>
       </c>
       <c r="V40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>72.644433792310423</v>
       </c>
       <c r="W40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>74.246212024587351</v>
       </c>
       <c r="X40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>73.415440119085218</v>
       </c>
       <c r="Y40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>72.239651242326246</v>
       </c>
       <c r="Z40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>70.780407807737021</v>
       </c>
       <c r="AA40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>69.094042580127379</v>
       </c>
       <c r="AB40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>67.231854176573378</v>
       </c>
       <c r="AC40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>65.240302567300262</v>
       </c>
       <c r="AD40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>63.161204576565325</v>
       </c>
       <c r="AE40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>61.031929383540721</v>
       </c>
       <c r="AF40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>58.885594023196333</v>
       </c>
       <c r="AG40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>56.75125888718263</v>
       </c>
       <c r="AH40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>54.65412322471358</v>
       </c>
       <c r="AI40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>52.615720643449492</v>
       </c>
       <c r="AJ40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>50.654114610379814</v>
       </c>
       <c r="AK40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>48.784093952706101</v>
       </c>
       <c r="AL40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>47.017368358724788</v>
       </c>
       <c r="AM40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>45.36276387871014</v>
       </c>
       <c r="AN40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>43.826418425796987</v>
       </c>
       <c r="AO40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>42.411977276863709</v>
       </c>
       <c r="AP40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>41.120788573415069</v>
       </c>
       <c r="AQ40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>39.952098822464997</v>
       </c>
       <c r="AR40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>38.903248397419588</v>
       </c>
       <c r="AS40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>37.969867038959819</v>
       </c>
       <c r="AT40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>37.146069355924624</v>
       </c>
       <c r="AU40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>36.424650326193337</v>
       </c>
       <c r="AV40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>35.797280797569087</v>
       </c>
       <c r="AW40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>35.885665253301539</v>
       </c>
       <c r="AX40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>36.050110413627777</v>
       </c>
       <c r="AY40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>36.297927196979707</v>
       </c>
       <c r="AZ40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>36.635302391712912</v>
       </c>
       <c r="BA40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>37.067103155223663</v>
       </c>
       <c r="BB40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>37.596681513066066</v>
       </c>
       <c r="BC40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>38.225678858069109</v>
       </c>
       <c r="BD40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>38.953830449453918</v>
       </c>
       <c r="BE40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>39.778769911950882</v>
       </c>
       <c r="BF40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>40.695833734916704</v>
       </c>
       <c r="BG40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>41.697865771451589</v>
       </c>
       <c r="BH40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>42.775021737516425</v>
       </c>
       <c r="BI40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>43.914573711049854</v>
       </c>
       <c r="BJ40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>45.10071463108541</v>
       </c>
       <c r="BK40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>46.314362796868728</v>
       </c>
       <c r="BL40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>47.532966366974605</v>
       </c>
       <c r="BM40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>48.730307858424155</v>
       </c>
       <c r="BN40" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>49.876308645802041</v>
       </c>
       <c r="BO40" s="41">
-        <f t="shared" ref="BO40:CZ40" si="16">(3*IF(BO$39&lt;0,0,(IF(BO$39&gt;(100/3),(100/3),BO$39))))</f>
+        <f t="shared" ref="BO40:CZ40" si="44">(3*IF(BO$39&lt;0,0,(IF(BO$39&gt;(100/3),(100/3),BO$39))))</f>
         <v>50.936833460373393</v>
       </c>
       <c r="BP40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>51.873494889201226</v>
       </c>
       <c r="BQ40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>52.643457874263277</v>
       </c>
       <c r="BR40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>53.199244211569443</v>
       </c>
       <c r="BS40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>53.488537050278737</v>
       </c>
       <c r="BT40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>53.453985391816403</v>
       </c>
       <c r="BU40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>53.033008588991208</v>
       </c>
       <c r="BV40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>51.916840849158149</v>
       </c>
       <c r="BW40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>50.576568657219589</v>
       </c>
       <c r="BX40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>49.078474721287044</v>
       </c>
       <c r="BY40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>47.480493310095653</v>
       </c>
       <c r="BZ40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>45.832641251423404</v>
       </c>
       <c r="CA40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>44.177448930510074</v>
       </c>
       <c r="CB40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>42.550391288476263</v>
       </c>
       <c r="CC40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>40.980318820742404</v>
       </c>
       <c r="CD40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>39.489888575447793</v>
       </c>
       <c r="CE40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>38.095995151869545</v>
       </c>
       <c r="CF40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>36.810201698841652</v>
       </c>
       <c r="CG40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>35.639170913173949</v>
       </c>
       <c r="CH40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>34.5850960380712</v>
       </c>
       <c r="CI40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>33.646131861552014</v>
       </c>
       <c r="CJ40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>32.816825714867903</v>
       </c>
       <c r="CK40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>32.436243874670424</v>
       </c>
       <c r="CL40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>32.140543042695342</v>
       </c>
       <c r="CM40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>31.934157653926135</v>
       </c>
       <c r="CN40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>31.817914686579282</v>
       </c>
       <c r="CO40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>31.788602663685133</v>
       </c>
       <c r="CP40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>31.838540654668925</v>
       </c>
       <c r="CQ40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>31.955147276931783</v>
       </c>
       <c r="CR40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>32.120509697431658</v>
       </c>
       <c r="CS40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>32.310952634264368</v>
       </c>
       <c r="CT40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>32.496607358244567</v>
       </c>
       <c r="CU40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>32.640980694486757</v>
       </c>
       <c r="CV40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>32.700524023986254</v>
       </c>
       <c r="CW40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>32.624202285200177</v>
       </c>
       <c r="CX40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>32.353062975628497</v>
       </c>
       <c r="CY40" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>31.81980515339491</v>
       </c>
       <c r="CZ40" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -10838,421 +10840,421 @@
         <v>28</v>
       </c>
       <c r="B41" s="16">
-        <f t="shared" ref="B41:AG41" si="17">(100-B$40)</f>
+        <f t="shared" ref="B41:AG41" si="45">(100-B$40)</f>
         <v>100</v>
       </c>
       <c r="C41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>46.966991411008934</v>
       </c>
       <c r="D41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>46.296241585637262</v>
       </c>
       <c r="E41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>46.062392534264113</v>
       </c>
       <c r="F41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>46.092859997698483</v>
       </c>
       <c r="G41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>46.244995789437723</v>
       </c>
       <c r="H41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>46.404178607358261</v>
       </c>
       <c r="I41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>46.481904845406454</v>
       </c>
       <c r="J41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>46.413879405289372</v>
       </c>
       <c r="K41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>46.15810650816551</v>
       </c>
       <c r="L41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>45.692980506335772</v>
       </c>
       <c r="M41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>45.015376694934062</v>
       </c>
       <c r="N41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>43.710649071686163</v>
       </c>
       <c r="O41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>42.165272504703822</v>
       </c>
       <c r="P41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>40.381353465088203</v>
       </c>
       <c r="Q41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>38.379479366773552</v>
       </c>
       <c r="R41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>36.200627754836617</v>
       </c>
       <c r="S41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>33.908075493805029</v>
       </c>
       <c r="T41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>31.589307955967698</v>
       </c>
       <c r="U41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>29.357928209683294</v>
       </c>
       <c r="V41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>27.355566207689577</v>
       </c>
       <c r="W41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>25.753787975412649</v>
       </c>
       <c r="X41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>26.584559880914782</v>
       </c>
       <c r="Y41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>27.760348757673754</v>
       </c>
       <c r="Z41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>29.219592192262979</v>
       </c>
       <c r="AA41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>30.905957419872621</v>
       </c>
       <c r="AB41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>32.768145823426622</v>
       </c>
       <c r="AC41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>34.759697432699738</v>
       </c>
       <c r="AD41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>36.838795423434675</v>
       </c>
       <c r="AE41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>38.968070616459279</v>
       </c>
       <c r="AF41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>41.114405976803667</v>
       </c>
       <c r="AG41" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>43.24874111281737</v>
       </c>
       <c r="AH41" s="43">
-        <f t="shared" ref="AH41:BN41" si="18">(100-AH$40)</f>
+        <f t="shared" ref="AH41:BN41" si="46">(100-AH$40)</f>
         <v>45.34587677528642</v>
       </c>
       <c r="AI41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>47.384279356550508</v>
       </c>
       <c r="AJ41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>49.345885389620186</v>
       </c>
       <c r="AK41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>51.215906047293899</v>
       </c>
       <c r="AL41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>52.982631641275212</v>
       </c>
       <c r="AM41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>54.63723612128986</v>
       </c>
       <c r="AN41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>56.173581574203013</v>
       </c>
       <c r="AO41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>57.588022723136291</v>
       </c>
       <c r="AP41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>58.879211426584931</v>
       </c>
       <c r="AQ41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>60.047901177535003</v>
       </c>
       <c r="AR41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>61.096751602580412</v>
       </c>
       <c r="AS41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>62.030132961040181</v>
       </c>
       <c r="AT41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>62.853930644075376</v>
       </c>
       <c r="AU41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>63.575349673806663</v>
       </c>
       <c r="AV41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>64.202719202430913</v>
       </c>
       <c r="AW41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>64.114334746698461</v>
       </c>
       <c r="AX41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>63.949889586372223</v>
       </c>
       <c r="AY41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>63.702072803020293</v>
       </c>
       <c r="AZ41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>63.364697608287088</v>
       </c>
       <c r="BA41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>62.932896844776337</v>
       </c>
       <c r="BB41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>62.403318486933934</v>
       </c>
       <c r="BC41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>61.774321141930891</v>
       </c>
       <c r="BD41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>61.046169550546082</v>
       </c>
       <c r="BE41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>60.221230088049118</v>
       </c>
       <c r="BF41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>59.304166265083296</v>
       </c>
       <c r="BG41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>58.302134228548411</v>
       </c>
       <c r="BH41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>57.224978262483575</v>
       </c>
       <c r="BI41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>56.085426288950146</v>
       </c>
       <c r="BJ41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>54.89928536891459</v>
       </c>
       <c r="BK41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>53.685637203131272</v>
       </c>
       <c r="BL41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>52.467033633025395</v>
       </c>
       <c r="BM41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>51.269692141575845</v>
       </c>
       <c r="BN41" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>50.123691354197959</v>
       </c>
       <c r="BO41" s="43">
-        <f t="shared" ref="BO41:CZ41" si="19">(100-BO$40)</f>
+        <f t="shared" ref="BO41:CZ41" si="47">(100-BO$40)</f>
         <v>49.063166539626607</v>
       </c>
       <c r="BP41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>48.126505110798774</v>
       </c>
       <c r="BQ41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>47.356542125736723</v>
       </c>
       <c r="BR41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>46.800755788430557</v>
       </c>
       <c r="BS41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>46.511462949721263</v>
       </c>
       <c r="BT41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>46.546014608183597</v>
       </c>
       <c r="BU41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>46.966991411008792</v>
       </c>
       <c r="BV41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>48.083159150841851</v>
       </c>
       <c r="BW41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>49.423431342780411</v>
       </c>
       <c r="BX41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>50.921525278712956</v>
       </c>
       <c r="BY41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>52.519506689904347</v>
       </c>
       <c r="BZ41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>54.167358748576596</v>
       </c>
       <c r="CA41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>55.822551069489926</v>
       </c>
       <c r="CB41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>57.449608711523737</v>
       </c>
       <c r="CC41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>59.019681179257596</v>
       </c>
       <c r="CD41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>60.510111424552207</v>
       </c>
       <c r="CE41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>61.904004848130455</v>
       </c>
       <c r="CF41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>63.189798301158348</v>
       </c>
       <c r="CG41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>64.360829086826044</v>
       </c>
       <c r="CH41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>65.4149039619288</v>
       </c>
       <c r="CI41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>66.353868138447979</v>
       </c>
       <c r="CJ41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>67.183174285132097</v>
       </c>
       <c r="CK41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>67.563756125329576</v>
       </c>
       <c r="CL41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>67.859456957304658</v>
       </c>
       <c r="CM41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>68.065842346073865</v>
       </c>
       <c r="CN41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>68.182085313420714</v>
       </c>
       <c r="CO41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>68.21139733631486</v>
       </c>
       <c r="CP41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>68.161459345331082</v>
       </c>
       <c r="CQ41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>68.044852723068217</v>
       </c>
       <c r="CR41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>67.879490302568342</v>
       </c>
       <c r="CS41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>67.689047365735632</v>
       </c>
       <c r="CT41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>67.503392641755426</v>
       </c>
       <c r="CU41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>67.359019305513243</v>
       </c>
       <c r="CV41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>67.299475976013753</v>
       </c>
       <c r="CW41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>67.37579771479983</v>
       </c>
       <c r="CX41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>67.64693702437151</v>
       </c>
       <c r="CY41" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>68.18019484660509</v>
       </c>
       <c r="CZ41" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -11353,7 +11355,7 @@
       <c r="A46" s="1"/>
       <c r="H46" s="69"/>
       <c r="I46" s="69"/>
-      <c r="J46" s="104"/>
+      <c r="J46" s="78"/>
       <c r="K46" s="69"/>
       <c r="L46" s="69"/>
       <c r="M46" s="69"/>
@@ -11714,235 +11716,241 @@
     </row>
     <row r="61" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="99"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="99"/>
-      <c r="O62" s="100"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="97"/>
     </row>
     <row r="63" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A63" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="96"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
-      <c r="J63" s="96"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="96"/>
-      <c r="O63" s="97"/>
+      <c r="A63" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="93"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="93"/>
+      <c r="O63" s="94"/>
     </row>
     <row r="64" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="79"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="79"/>
-      <c r="N64" s="79"/>
-      <c r="O64" s="80"/>
+      <c r="A64" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="82"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="83"/>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="80"/>
+      <c r="A65" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="82"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="82"/>
+      <c r="K65" s="82"/>
+      <c r="L65" s="82"/>
+      <c r="M65" s="82"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="83"/>
     </row>
     <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="79"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="80"/>
+      <c r="A66" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="82"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="82"/>
+      <c r="O66" s="83"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="79"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="80"/>
+      <c r="A67" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="83"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="79"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="79"/>
-      <c r="M68" s="79"/>
-      <c r="N68" s="79"/>
-      <c r="O68" s="80"/>
+      <c r="A68" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="82"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="83"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="85"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85"/>
-      <c r="K69" s="85"/>
-      <c r="L69" s="85"/>
-      <c r="M69" s="85"/>
-      <c r="N69" s="85"/>
-      <c r="O69" s="86"/>
+      <c r="A69" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="105"/>
+      <c r="L69" s="105"/>
+      <c r="M69" s="105"/>
+      <c r="N69" s="105"/>
+      <c r="O69" s="106"/>
     </row>
     <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="80"/>
+      <c r="A70" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="82"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
+      <c r="J70" s="82"/>
+      <c r="K70" s="82"/>
+      <c r="L70" s="82"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="82"/>
+      <c r="O70" s="83"/>
     </row>
     <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="80"/>
+      <c r="A71" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
+      <c r="J71" s="82"/>
+      <c r="K71" s="82"/>
+      <c r="L71" s="82"/>
+      <c r="M71" s="82"/>
+      <c r="N71" s="82"/>
+      <c r="O71" s="83"/>
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="80"/>
+      <c r="A72" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="82"/>
+      <c r="J72" s="82"/>
+      <c r="K72" s="82"/>
+      <c r="L72" s="82"/>
+      <c r="M72" s="82"/>
+      <c r="N72" s="82"/>
+      <c r="O72" s="83"/>
     </row>
     <row r="73" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" s="82"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-      <c r="J73" s="82"/>
-      <c r="K73" s="82"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="82"/>
-      <c r="N73" s="82"/>
-      <c r="O73" s="83"/>
+      <c r="A73" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="102"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="102"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="102"/>
+      <c r="I73" s="102"/>
+      <c r="J73" s="102"/>
+      <c r="K73" s="102"/>
+      <c r="L73" s="102"/>
+      <c r="M73" s="102"/>
+      <c r="N73" s="102"/>
+      <c r="O73" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A72:O72"/>
+    <mergeCell ref="A73:O73"/>
+    <mergeCell ref="A71:O71"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="A69:O69"/>
     <mergeCell ref="A67:O67"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
@@ -11953,12 +11961,6 @@
     <mergeCell ref="A63:O63"/>
     <mergeCell ref="A62:O62"/>
     <mergeCell ref="B24:CZ24"/>
-    <mergeCell ref="A72:O72"/>
-    <mergeCell ref="A73:O73"/>
-    <mergeCell ref="A71:O71"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="A69:O69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
